--- a/contents/동물서바이벌/문서/동물서바이벌_테이블 - 포폴용.xlsx
+++ b/contents/동물서바이벌/문서/동물서바이벌_테이블 - 포폴용.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\wep_atens\contents\동물서바이벌\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F630DD-0208-4A2B-8D06-02485A3B88D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEF2052-0F2A-46CA-8CD5-1FA4B0A1EC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2120,7 +2120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2476,15 +2476,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2572,7 +2563,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2998,7 +2997,7 @@
   <dimension ref="A3:Z118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3027,12 +3026,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16">
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="158" t="s">
         <v>283</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="4"/>
@@ -3236,10 +3235,10 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="5"/>
-      <c r="B18" s="126" t="s">
+      <c r="B18" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="126"/>
+      <c r="C18" s="157"/>
       <c r="D18" s="58" t="s">
         <v>32</v>
       </c>
@@ -3978,18 +3977,18 @@
       <c r="I55" s="50"/>
     </row>
     <row r="58" spans="2:17" ht="20.25">
-      <c r="B58" s="125" t="s">
+      <c r="B58" s="156" t="s">
         <v>315</v>
       </c>
-      <c r="C58" s="125"/>
-      <c r="D58" s="125"/>
-      <c r="E58" s="125"/>
-      <c r="G58" s="125" t="s">
+      <c r="C58" s="156"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="156"/>
+      <c r="G58" s="156" t="s">
         <v>348</v>
       </c>
-      <c r="H58" s="125"/>
-      <c r="I58" s="125"/>
-      <c r="J58" s="125"/>
+      <c r="H58" s="156"/>
+      <c r="I58" s="156"/>
+      <c r="J58" s="156"/>
     </row>
     <row r="59" spans="2:17">
       <c r="B59" s="49" t="s">
@@ -4480,19 +4479,19 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="2:26" ht="20.25">
-      <c r="B77" s="125" t="s">
+      <c r="B77" s="156" t="s">
         <v>366</v>
       </c>
-      <c r="C77" s="125"/>
-      <c r="D77" s="125"/>
-      <c r="E77" s="125"/>
+      <c r="C77" s="156"/>
+      <c r="D77" s="156"/>
+      <c r="E77" s="156"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="125" t="s">
+      <c r="G77" s="156" t="s">
         <v>347</v>
       </c>
-      <c r="H77" s="125"/>
-      <c r="I77" s="125"/>
-      <c r="J77" s="125"/>
+      <c r="H77" s="156"/>
+      <c r="I77" s="156"/>
+      <c r="J77" s="156"/>
     </row>
     <row r="78" spans="2:26" ht="17.25">
       <c r="B78" s="49" t="s">
@@ -5371,24 +5370,12 @@
     <row r="112" spans="2:25">
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="6:6">
-      <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="6:6">
-      <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="6:6">
-      <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="6:6">
-      <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="6:6">
-      <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="6:6">
-      <c r="F118" s="1"/>
-    </row>
+    <row r="113" s="1" customFormat="1"/>
+    <row r="114" s="1" customFormat="1"/>
+    <row r="115" s="1" customFormat="1"/>
+    <row r="116" s="1" customFormat="1"/>
+    <row r="117" s="1" customFormat="1"/>
+    <row r="118" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G58:J58"/>
@@ -5450,143 +5437,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="51" customFormat="1" ht="13.5">
-      <c r="A1" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="128" t="s">
+      <c r="A1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="125" t="s">
         <v>386</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="125" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="125" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="154" t="s">
+      <c r="E1" s="151" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="125" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="G1" s="125" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="H1" s="125" t="s">
         <v>234</v>
       </c>
-      <c r="I1" s="155" t="s">
+      <c r="I1" s="152" t="s">
         <v>235</v>
       </c>
-      <c r="J1" s="128" t="s">
+      <c r="J1" s="125" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="128" t="s">
+      <c r="K1" s="125" t="s">
         <v>237</v>
       </c>
-      <c r="L1" s="128" t="s">
+      <c r="L1" s="125" t="s">
         <v>238</v>
       </c>
-      <c r="M1" s="128" t="s">
+      <c r="M1" s="125" t="s">
         <v>239</v>
       </c>
-      <c r="N1" s="128" t="s">
+      <c r="N1" s="125" t="s">
         <v>240</v>
       </c>
-      <c r="O1" s="128" t="s">
+      <c r="O1" s="125" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="99">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="126" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="126" t="s">
         <v>390</v>
       </c>
-      <c r="D2" s="156" t="s">
+      <c r="D2" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="129" t="s">
+      <c r="E2" s="126" t="s">
         <v>391</v>
       </c>
-      <c r="F2" s="156" t="s">
+      <c r="F2" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="156" t="s">
+      <c r="G2" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="156" t="s">
+      <c r="H2" s="153" t="s">
         <v>182</v>
       </c>
-      <c r="I2" s="156" t="s">
+      <c r="I2" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="156" t="s">
+      <c r="J2" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="129" t="s">
+      <c r="K2" s="126" t="s">
         <v>392</v>
       </c>
-      <c r="L2" s="129" t="s">
+      <c r="L2" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="129" t="s">
+      <c r="M2" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="129" t="s">
+      <c r="N2" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="129" t="s">
+      <c r="O2" s="126" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="153" t="s">
         <v>384</v>
       </c>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="153" t="s">
         <v>384</v>
       </c>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="126" t="s">
         <v>384</v>
       </c>
-      <c r="D3" s="156" t="s">
+      <c r="D3" s="153" t="s">
         <v>385</v>
       </c>
-      <c r="E3" s="129" t="s">
+      <c r="E3" s="126" t="s">
         <v>394</v>
       </c>
-      <c r="F3" s="129" t="s">
+      <c r="F3" s="126" t="s">
         <v>384</v>
       </c>
-      <c r="G3" s="129" t="s">
+      <c r="G3" s="126" t="s">
         <v>384</v>
       </c>
-      <c r="H3" s="129" t="s">
+      <c r="H3" s="126" t="s">
         <v>384</v>
       </c>
-      <c r="I3" s="156" t="s">
+      <c r="I3" s="153" t="s">
         <v>385</v>
       </c>
-      <c r="J3" s="156" t="s">
+      <c r="J3" s="153" t="s">
         <v>384</v>
       </c>
-      <c r="K3" s="156" t="s">
+      <c r="K3" s="153" t="s">
         <v>384</v>
       </c>
-      <c r="L3" s="156" t="s">
+      <c r="L3" s="153" t="s">
         <v>384</v>
       </c>
-      <c r="M3" s="156" t="s">
+      <c r="M3" s="153" t="s">
         <v>384</v>
       </c>
-      <c r="N3" s="156" t="s">
+      <c r="N3" s="153" t="s">
         <v>384</v>
       </c>
-      <c r="O3" s="156" t="s">
+      <c r="O3" s="153" t="s">
         <v>384</v>
       </c>
     </row>
@@ -44184,18 +44171,17 @@
     <col min="7" max="7" width="18.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.75" style="159" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="159"/>
+    <col min="10" max="10" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="125" t="s">
         <v>386</v>
       </c>
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="154" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -44247,10 +44233,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="33">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="131" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="126" t="s">
         <v>388</v>
       </c>
       <c r="C3" s="124" t="s">
@@ -44276,31 +44262,31 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="131" t="s">
         <v>384</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="153" t="s">
         <v>384</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="131" t="s">
         <v>385</v>
       </c>
-      <c r="D4" s="158" t="s">
+      <c r="D4" s="155" t="s">
         <v>389</v>
       </c>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="155" t="s">
         <v>389</v>
       </c>
-      <c r="F4" s="158" t="s">
+      <c r="F4" s="155" t="s">
         <v>389</v>
       </c>
-      <c r="G4" s="158" t="s">
+      <c r="G4" s="155" t="s">
         <v>389</v>
       </c>
-      <c r="H4" s="158" t="s">
+      <c r="H4" s="155" t="s">
         <v>389</v>
       </c>
-      <c r="I4" s="158" t="s">
+      <c r="I4" s="155" t="s">
         <v>389</v>
       </c>
     </row>
@@ -44976,87 +44962,87 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="143" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="140" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="144" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="147" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="147" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="147" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="147" customWidth="1"/>
-    <col min="8" max="8" width="11" style="147" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="147" customWidth="1"/>
-    <col min="10" max="10" width="14" style="147" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="147" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="146" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="146" customWidth="1"/>
-    <col min="14" max="14" width="15" style="146" customWidth="1"/>
-    <col min="15" max="15" width="12.75" style="146" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="146" customWidth="1"/>
-    <col min="17" max="17" width="8.625" style="146" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.375" style="146" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.875" style="146" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9" style="143"/>
-    <col min="22" max="22" width="13.5" style="143" customWidth="1"/>
-    <col min="23" max="23" width="25.625" style="143" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="143"/>
+    <col min="3" max="3" width="8" style="141" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="144" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="144" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="144" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="144" customWidth="1"/>
+    <col min="8" max="8" width="11" style="144" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="144" customWidth="1"/>
+    <col min="10" max="10" width="14" style="144" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="144" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="143" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="143" customWidth="1"/>
+    <col min="14" max="14" width="15" style="143" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="143" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="143" customWidth="1"/>
+    <col min="17" max="17" width="8.625" style="143" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.375" style="143" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.875" style="143" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9" style="140"/>
+    <col min="22" max="22" width="13.5" style="140" customWidth="1"/>
+    <col min="23" max="23" width="25.625" style="140" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="140"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="137" customFormat="1" ht="13.5">
+    <row r="1" spans="1:25" s="134" customFormat="1" ht="13.5">
       <c r="A1" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="125" t="s">
         <v>386</v>
       </c>
       <c r="C1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="135" t="s">
+      <c r="E1" s="132" t="s">
         <v>242</v>
       </c>
-      <c r="F1" s="135" t="s">
+      <c r="F1" s="132" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="135" t="s">
+      <c r="G1" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="135" t="s">
+      <c r="H1" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="135" t="s">
+      <c r="I1" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="135" t="s">
+      <c r="J1" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="K1" s="135" t="s">
+      <c r="K1" s="132" t="s">
         <v>327</v>
       </c>
-      <c r="L1" s="135" t="s">
+      <c r="L1" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="M1" s="135" t="s">
+      <c r="M1" s="132" t="s">
         <v>158</v>
       </c>
-      <c r="N1" s="135" t="s">
+      <c r="N1" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="O1" s="135" t="s">
+      <c r="O1" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="P1" s="135" t="s">
+      <c r="P1" s="132" t="s">
         <v>162</v>
       </c>
-      <c r="Q1" s="135" t="s">
+      <c r="Q1" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="R1" s="135" t="s">
+      <c r="R1" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="136" t="s">
+      <c r="S1" s="133" t="s">
         <v>2</v>
       </c>
       <c r="T1" s="105"/>
@@ -45066,53 +45052,53 @@
       <c r="X1" s="105"/>
       <c r="Y1" s="105"/>
     </row>
-    <row r="2" spans="1:25" s="142" customFormat="1">
+    <row r="2" spans="1:25" s="139" customFormat="1">
       <c r="A2" s="101"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="126" t="s">
         <v>387</v>
       </c>
       <c r="C2" s="106"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139" t="s">
+      <c r="D2" s="135"/>
+      <c r="E2" s="136" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="139" t="s">
+      <c r="F2" s="136" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="139" t="s">
+      <c r="G2" s="136" t="s">
         <v>166</v>
       </c>
-      <c r="H2" s="139" t="s">
+      <c r="H2" s="136" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="139" t="s">
+      <c r="I2" s="136" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="139" t="s">
+      <c r="J2" s="136" t="s">
         <v>371</v>
       </c>
-      <c r="K2" s="139" t="s">
+      <c r="K2" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="139" t="s">
+      <c r="L2" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="139" t="s">
+      <c r="M2" s="136" t="s">
         <v>167</v>
       </c>
-      <c r="N2" s="139" t="s">
+      <c r="N2" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="139" t="s">
+      <c r="O2" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="139" t="s">
+      <c r="P2" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="141"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="138"/>
       <c r="U2" s="106"/>
       <c r="V2" s="106"/>
       <c r="W2" s="106"/>
@@ -45123,7 +45109,7 @@
       <c r="A3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="126" t="s">
         <v>388</v>
       </c>
       <c r="C3" s="30" t="s">
@@ -45184,11 +45170,11 @@
       <c r="X3" s="29"/>
       <c r="Y3" s="30"/>
     </row>
-    <row r="4" spans="1:25" s="133" customFormat="1">
+    <row r="4" spans="1:25" s="130" customFormat="1">
       <c r="A4" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="131" t="s">
         <v>384</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -45197,40 +45183,40 @@
       <c r="D4" s="102" t="s">
         <v>384</v>
       </c>
-      <c r="E4" s="130" t="s">
+      <c r="E4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="F4" s="130" t="s">
+      <c r="F4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="G4" s="130" t="s">
+      <c r="G4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="H4" s="130" t="s">
+      <c r="H4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="I4" s="130" t="s">
+      <c r="I4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="J4" s="130" t="s">
+      <c r="J4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="K4" s="130" t="s">
+      <c r="K4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="L4" s="130" t="s">
+      <c r="L4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="M4" s="130" t="s">
+      <c r="M4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="N4" s="130" t="s">
+      <c r="N4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="O4" s="130" t="s">
+      <c r="O4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="P4" s="130" t="s">
+      <c r="P4" s="127" t="s">
         <v>389</v>
       </c>
       <c r="Q4" s="104" t="s">
@@ -45242,2568 +45228,2568 @@
       <c r="S4" s="102" t="s">
         <v>384</v>
       </c>
-      <c r="T4" s="131"/>
-      <c r="U4" s="131"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="132"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="129"/>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="143">
+      <c r="A5" s="140">
         <v>200000</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="144">
+      <c r="C5" s="141">
         <v>10000</v>
       </c>
-      <c r="D5" s="145">
-        <v>1</v>
-      </c>
-      <c r="E5" s="145">
-        <v>1</v>
-      </c>
-      <c r="F5" s="145">
+      <c r="D5" s="142">
+        <v>1</v>
+      </c>
+      <c r="E5" s="142">
+        <v>1</v>
+      </c>
+      <c r="F5" s="142">
         <v>0.7</v>
       </c>
-      <c r="G5" s="145">
+      <c r="G5" s="142">
         <v>0.7</v>
       </c>
-      <c r="H5" s="145">
+      <c r="H5" s="142">
         <v>3</v>
       </c>
-      <c r="I5" s="145">
-        <v>1</v>
-      </c>
-      <c r="J5" s="145">
-        <v>1</v>
-      </c>
-      <c r="K5" s="145">
-        <v>0</v>
-      </c>
-      <c r="L5" s="146">
-        <v>0</v>
-      </c>
-      <c r="M5" s="145">
-        <v>0</v>
-      </c>
-      <c r="N5" s="145">
-        <v>0</v>
-      </c>
-      <c r="O5" s="145">
-        <v>0</v>
-      </c>
-      <c r="P5" s="145">
+      <c r="I5" s="142">
+        <v>1</v>
+      </c>
+      <c r="J5" s="142">
+        <v>1</v>
+      </c>
+      <c r="K5" s="142">
+        <v>0</v>
+      </c>
+      <c r="L5" s="143">
+        <v>0</v>
+      </c>
+      <c r="M5" s="142">
+        <v>0</v>
+      </c>
+      <c r="N5" s="142">
+        <v>0</v>
+      </c>
+      <c r="O5" s="142">
+        <v>0</v>
+      </c>
+      <c r="P5" s="142">
         <v>0</v>
       </c>
       <c r="Q5" s="4">
         <v>0</v>
       </c>
-      <c r="R5" s="147">
-        <v>0</v>
-      </c>
-      <c r="S5" s="148">
+      <c r="R5" s="144">
+        <v>0</v>
+      </c>
+      <c r="S5" s="145">
         <v>50000</v>
       </c>
-      <c r="T5" s="149"/>
-      <c r="U5" s="149"/>
-      <c r="V5" s="144"/>
-      <c r="W5" s="149"/>
-      <c r="X5" s="149"/>
-      <c r="Y5" s="144"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="141"/>
+      <c r="W5" s="146"/>
+      <c r="X5" s="146"/>
+      <c r="Y5" s="141"/>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="144">
+      <c r="A6" s="141">
         <v>200001</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="144">
+      <c r="C6" s="141">
         <v>10000</v>
       </c>
-      <c r="D6" s="147">
+      <c r="D6" s="144">
         <v>2</v>
       </c>
-      <c r="E6" s="147">
-        <v>1</v>
-      </c>
-      <c r="F6" s="147">
+      <c r="E6" s="144">
+        <v>1</v>
+      </c>
+      <c r="F6" s="144">
         <v>0.7</v>
       </c>
-      <c r="G6" s="147">
+      <c r="G6" s="144">
         <v>0.7</v>
       </c>
-      <c r="H6" s="147">
+      <c r="H6" s="144">
         <v>3</v>
       </c>
-      <c r="I6" s="147">
-        <v>1</v>
-      </c>
-      <c r="J6" s="147">
+      <c r="I6" s="144">
+        <v>1</v>
+      </c>
+      <c r="J6" s="144">
         <v>2</v>
       </c>
-      <c r="K6" s="150">
-        <v>0</v>
-      </c>
-      <c r="L6" s="146">
-        <v>0</v>
-      </c>
-      <c r="M6" s="145">
-        <v>0</v>
-      </c>
-      <c r="N6" s="145">
-        <v>0</v>
-      </c>
-      <c r="O6" s="145">
-        <v>0</v>
-      </c>
-      <c r="P6" s="145">
+      <c r="K6" s="147">
+        <v>0</v>
+      </c>
+      <c r="L6" s="143">
+        <v>0</v>
+      </c>
+      <c r="M6" s="142">
+        <v>0</v>
+      </c>
+      <c r="N6" s="142">
+        <v>0</v>
+      </c>
+      <c r="O6" s="142">
+        <v>0</v>
+      </c>
+      <c r="P6" s="142">
         <v>0</v>
       </c>
       <c r="Q6" s="4">
         <v>0</v>
       </c>
-      <c r="R6" s="147">
-        <v>0</v>
-      </c>
-      <c r="S6" s="148">
+      <c r="R6" s="144">
+        <v>0</v>
+      </c>
+      <c r="S6" s="145">
         <v>51000</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="143">
+      <c r="A7" s="140">
         <v>200002</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="144">
+      <c r="C7" s="141">
         <v>10000</v>
       </c>
-      <c r="D7" s="147">
+      <c r="D7" s="144">
         <v>3</v>
       </c>
-      <c r="E7" s="147">
+      <c r="E7" s="144">
         <v>2</v>
       </c>
-      <c r="F7" s="147">
+      <c r="F7" s="144">
         <v>0.7</v>
       </c>
-      <c r="G7" s="147">
+      <c r="G7" s="144">
         <v>0.7</v>
       </c>
-      <c r="H7" s="147">
+      <c r="H7" s="144">
         <v>3</v>
       </c>
-      <c r="I7" s="147">
-        <v>1</v>
-      </c>
-      <c r="J7" s="147">
+      <c r="I7" s="144">
+        <v>1</v>
+      </c>
+      <c r="J7" s="144">
         <v>2</v>
       </c>
-      <c r="K7" s="150">
-        <v>0</v>
-      </c>
-      <c r="L7" s="146">
-        <v>0</v>
-      </c>
-      <c r="M7" s="145">
-        <v>0</v>
-      </c>
-      <c r="N7" s="145">
-        <v>0</v>
-      </c>
-      <c r="O7" s="145">
-        <v>0</v>
-      </c>
-      <c r="P7" s="145">
+      <c r="K7" s="147">
+        <v>0</v>
+      </c>
+      <c r="L7" s="143">
+        <v>0</v>
+      </c>
+      <c r="M7" s="142">
+        <v>0</v>
+      </c>
+      <c r="N7" s="142">
+        <v>0</v>
+      </c>
+      <c r="O7" s="142">
+        <v>0</v>
+      </c>
+      <c r="P7" s="142">
         <v>0</v>
       </c>
       <c r="Q7" s="4">
         <v>1</v>
       </c>
-      <c r="R7" s="147">
-        <v>0</v>
-      </c>
-      <c r="S7" s="148">
+      <c r="R7" s="144">
+        <v>0</v>
+      </c>
+      <c r="S7" s="145">
         <v>51002</v>
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="144">
+      <c r="A8" s="141">
         <v>200003</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="144">
+      <c r="C8" s="141">
         <v>10000</v>
       </c>
-      <c r="D8" s="147">
+      <c r="D8" s="144">
         <v>4</v>
       </c>
-      <c r="E8" s="147">
+      <c r="E8" s="144">
         <v>2</v>
       </c>
-      <c r="F8" s="147">
+      <c r="F8" s="144">
         <v>0.7</v>
       </c>
-      <c r="G8" s="147">
+      <c r="G8" s="144">
         <v>0.7</v>
       </c>
-      <c r="H8" s="147">
+      <c r="H8" s="144">
         <v>3</v>
       </c>
-      <c r="I8" s="147">
-        <v>1</v>
-      </c>
-      <c r="J8" s="147">
+      <c r="I8" s="144">
+        <v>1</v>
+      </c>
+      <c r="J8" s="144">
         <v>3</v>
       </c>
-      <c r="K8" s="150">
-        <v>0</v>
-      </c>
-      <c r="L8" s="146">
-        <v>0</v>
-      </c>
-      <c r="M8" s="145">
-        <v>0</v>
-      </c>
-      <c r="N8" s="145">
-        <v>0</v>
-      </c>
-      <c r="O8" s="145">
-        <v>0</v>
-      </c>
-      <c r="P8" s="145">
+      <c r="K8" s="147">
+        <v>0</v>
+      </c>
+      <c r="L8" s="143">
+        <v>0</v>
+      </c>
+      <c r="M8" s="142">
+        <v>0</v>
+      </c>
+      <c r="N8" s="142">
+        <v>0</v>
+      </c>
+      <c r="O8" s="142">
+        <v>0</v>
+      </c>
+      <c r="P8" s="142">
         <v>0</v>
       </c>
       <c r="Q8" s="4">
         <v>1</v>
       </c>
-      <c r="R8" s="147">
-        <v>0</v>
-      </c>
-      <c r="S8" s="148">
+      <c r="R8" s="144">
+        <v>0</v>
+      </c>
+      <c r="S8" s="145">
         <v>51000</v>
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="143">
+      <c r="A9" s="140">
         <v>200004</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="144">
+      <c r="C9" s="141">
         <v>10000</v>
       </c>
-      <c r="D9" s="147">
+      <c r="D9" s="144">
         <v>5</v>
       </c>
-      <c r="E9" s="147">
+      <c r="E9" s="144">
         <v>3</v>
       </c>
-      <c r="F9" s="147">
+      <c r="F9" s="144">
         <v>0.7</v>
       </c>
-      <c r="G9" s="147">
+      <c r="G9" s="144">
         <v>0.7</v>
       </c>
-      <c r="H9" s="147">
+      <c r="H9" s="144">
         <v>3</v>
       </c>
-      <c r="I9" s="147">
-        <v>1</v>
-      </c>
-      <c r="J9" s="147">
+      <c r="I9" s="144">
+        <v>1</v>
+      </c>
+      <c r="J9" s="144">
         <v>4</v>
       </c>
-      <c r="K9" s="150">
-        <v>0</v>
-      </c>
-      <c r="L9" s="146">
-        <v>0</v>
-      </c>
-      <c r="M9" s="145">
-        <v>0</v>
-      </c>
-      <c r="N9" s="145">
-        <v>0</v>
-      </c>
-      <c r="O9" s="145">
-        <v>0</v>
-      </c>
-      <c r="P9" s="145">
+      <c r="K9" s="147">
+        <v>0</v>
+      </c>
+      <c r="L9" s="143">
+        <v>0</v>
+      </c>
+      <c r="M9" s="142">
+        <v>0</v>
+      </c>
+      <c r="N9" s="142">
+        <v>0</v>
+      </c>
+      <c r="O9" s="142">
+        <v>0</v>
+      </c>
+      <c r="P9" s="142">
         <v>0</v>
       </c>
       <c r="Q9" s="4">
         <v>2</v>
       </c>
-      <c r="R9" s="147">
-        <v>0</v>
-      </c>
-      <c r="S9" s="148">
+      <c r="R9" s="144">
+        <v>0</v>
+      </c>
+      <c r="S9" s="145">
         <v>51003</v>
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="144">
+      <c r="A10" s="141">
         <v>200005</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="144">
+      <c r="C10" s="141">
         <v>10001</v>
       </c>
-      <c r="D10" s="147">
-        <v>1</v>
-      </c>
-      <c r="E10" s="147">
+      <c r="D10" s="144">
+        <v>1</v>
+      </c>
+      <c r="E10" s="144">
         <v>2</v>
       </c>
-      <c r="F10" s="147">
-        <v>1</v>
-      </c>
-      <c r="G10" s="147">
-        <v>1</v>
-      </c>
-      <c r="H10" s="147">
+      <c r="F10" s="144">
+        <v>1</v>
+      </c>
+      <c r="G10" s="144">
+        <v>1</v>
+      </c>
+      <c r="H10" s="144">
         <v>0.1</v>
       </c>
-      <c r="I10" s="147">
-        <v>1</v>
-      </c>
-      <c r="J10" s="147">
+      <c r="I10" s="144">
+        <v>1</v>
+      </c>
+      <c r="J10" s="144">
         <v>2</v>
       </c>
-      <c r="K10" s="150">
-        <v>0</v>
-      </c>
-      <c r="L10" s="146">
-        <v>0</v>
-      </c>
-      <c r="M10" s="145">
-        <v>0</v>
-      </c>
-      <c r="N10" s="145">
-        <v>0</v>
-      </c>
-      <c r="O10" s="145">
-        <v>0</v>
-      </c>
-      <c r="P10" s="145">
+      <c r="K10" s="147">
+        <v>0</v>
+      </c>
+      <c r="L10" s="143">
+        <v>0</v>
+      </c>
+      <c r="M10" s="142">
+        <v>0</v>
+      </c>
+      <c r="N10" s="142">
+        <v>0</v>
+      </c>
+      <c r="O10" s="142">
+        <v>0</v>
+      </c>
+      <c r="P10" s="142">
         <v>0</v>
       </c>
       <c r="Q10" s="4">
         <v>999</v>
       </c>
-      <c r="R10" s="147">
-        <v>0</v>
-      </c>
-      <c r="S10" s="151">
+      <c r="R10" s="144">
+        <v>0</v>
+      </c>
+      <c r="S10" s="148">
         <v>50001</v>
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="143">
+      <c r="A11" s="140">
         <v>200006</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="144">
+      <c r="C11" s="141">
         <v>10001</v>
       </c>
-      <c r="D11" s="147">
+      <c r="D11" s="144">
         <v>2</v>
       </c>
-      <c r="E11" s="147">
+      <c r="E11" s="144">
         <v>2</v>
       </c>
-      <c r="F11" s="147">
-        <v>1</v>
-      </c>
-      <c r="G11" s="147">
-        <v>1</v>
-      </c>
-      <c r="H11" s="147">
+      <c r="F11" s="144">
+        <v>1</v>
+      </c>
+      <c r="G11" s="144">
+        <v>1</v>
+      </c>
+      <c r="H11" s="144">
         <v>0.1</v>
       </c>
-      <c r="I11" s="147">
-        <v>1</v>
-      </c>
-      <c r="J11" s="147">
+      <c r="I11" s="144">
+        <v>1</v>
+      </c>
+      <c r="J11" s="144">
         <v>2</v>
       </c>
-      <c r="K11" s="150">
-        <v>0</v>
-      </c>
-      <c r="L11" s="146">
-        <v>0</v>
-      </c>
-      <c r="M11" s="145">
-        <v>0</v>
-      </c>
-      <c r="N11" s="145">
-        <v>0</v>
-      </c>
-      <c r="O11" s="145">
-        <v>0</v>
-      </c>
-      <c r="P11" s="145">
+      <c r="K11" s="147">
+        <v>0</v>
+      </c>
+      <c r="L11" s="143">
+        <v>0</v>
+      </c>
+      <c r="M11" s="142">
+        <v>0</v>
+      </c>
+      <c r="N11" s="142">
+        <v>0</v>
+      </c>
+      <c r="O11" s="142">
+        <v>0</v>
+      </c>
+      <c r="P11" s="142">
         <v>0</v>
       </c>
       <c r="Q11" s="4">
         <v>999</v>
       </c>
-      <c r="R11" s="147">
-        <v>0</v>
-      </c>
-      <c r="S11" s="148">
+      <c r="R11" s="144">
+        <v>0</v>
+      </c>
+      <c r="S11" s="145">
         <v>51000</v>
       </c>
       <c r="V11" s="25"/>
       <c r="W11" s="25"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="144">
+      <c r="A12" s="141">
         <v>200007</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="144">
+      <c r="C12" s="141">
         <v>10001</v>
       </c>
-      <c r="D12" s="147">
+      <c r="D12" s="144">
         <v>3</v>
       </c>
-      <c r="E12" s="147">
+      <c r="E12" s="144">
         <v>2.5</v>
       </c>
-      <c r="F12" s="147">
-        <v>1</v>
-      </c>
-      <c r="G12" s="147">
-        <v>1</v>
-      </c>
-      <c r="H12" s="147">
+      <c r="F12" s="144">
+        <v>1</v>
+      </c>
+      <c r="G12" s="144">
+        <v>1</v>
+      </c>
+      <c r="H12" s="144">
         <v>0.1</v>
       </c>
-      <c r="I12" s="147">
-        <v>1</v>
-      </c>
-      <c r="J12" s="147">
+      <c r="I12" s="144">
+        <v>1</v>
+      </c>
+      <c r="J12" s="144">
         <v>3</v>
       </c>
-      <c r="K12" s="150">
-        <v>0</v>
-      </c>
-      <c r="L12" s="146">
-        <v>0</v>
-      </c>
-      <c r="M12" s="145">
-        <v>0</v>
-      </c>
-      <c r="N12" s="145">
-        <v>0</v>
-      </c>
-      <c r="O12" s="145">
-        <v>0</v>
-      </c>
-      <c r="P12" s="145">
+      <c r="K12" s="147">
+        <v>0</v>
+      </c>
+      <c r="L12" s="143">
+        <v>0</v>
+      </c>
+      <c r="M12" s="142">
+        <v>0</v>
+      </c>
+      <c r="N12" s="142">
+        <v>0</v>
+      </c>
+      <c r="O12" s="142">
+        <v>0</v>
+      </c>
+      <c r="P12" s="142">
         <v>0</v>
       </c>
       <c r="Q12" s="4">
         <v>999</v>
       </c>
-      <c r="R12" s="147">
-        <v>0</v>
-      </c>
-      <c r="S12" s="148">
+      <c r="R12" s="144">
+        <v>0</v>
+      </c>
+      <c r="S12" s="145">
         <v>51003</v>
       </c>
       <c r="V12" s="25"/>
-      <c r="W12" s="152"/>
+      <c r="W12" s="149"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="143">
+      <c r="A13" s="140">
         <v>200008</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
       </c>
-      <c r="C13" s="144">
+      <c r="C13" s="141">
         <v>10001</v>
       </c>
-      <c r="D13" s="147">
+      <c r="D13" s="144">
         <v>4</v>
       </c>
-      <c r="E13" s="147">
+      <c r="E13" s="144">
         <v>3</v>
       </c>
-      <c r="F13" s="147">
-        <v>1</v>
-      </c>
-      <c r="G13" s="147">
-        <v>1</v>
-      </c>
-      <c r="H13" s="147">
+      <c r="F13" s="144">
+        <v>1</v>
+      </c>
+      <c r="G13" s="144">
+        <v>1</v>
+      </c>
+      <c r="H13" s="144">
         <v>0.1</v>
       </c>
-      <c r="I13" s="147">
-        <v>1</v>
-      </c>
-      <c r="J13" s="147">
+      <c r="I13" s="144">
+        <v>1</v>
+      </c>
+      <c r="J13" s="144">
         <v>4</v>
       </c>
-      <c r="K13" s="150">
-        <v>0</v>
-      </c>
-      <c r="L13" s="146">
-        <v>0</v>
-      </c>
-      <c r="M13" s="145">
-        <v>0</v>
-      </c>
-      <c r="N13" s="145">
-        <v>0</v>
-      </c>
-      <c r="O13" s="145">
-        <v>0</v>
-      </c>
-      <c r="P13" s="145">
+      <c r="K13" s="147">
+        <v>0</v>
+      </c>
+      <c r="L13" s="143">
+        <v>0</v>
+      </c>
+      <c r="M13" s="142">
+        <v>0</v>
+      </c>
+      <c r="N13" s="142">
+        <v>0</v>
+      </c>
+      <c r="O13" s="142">
+        <v>0</v>
+      </c>
+      <c r="P13" s="142">
         <v>0</v>
       </c>
       <c r="Q13" s="4">
         <v>999</v>
       </c>
-      <c r="R13" s="147">
-        <v>0</v>
-      </c>
-      <c r="S13" s="148">
+      <c r="R13" s="144">
+        <v>0</v>
+      </c>
+      <c r="S13" s="145">
         <v>51003</v>
       </c>
       <c r="V13" s="25"/>
       <c r="W13" s="18"/>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="144">
+      <c r="A14" s="141">
         <v>200009</v>
       </c>
       <c r="B14" s="1">
         <v>5</v>
       </c>
-      <c r="C14" s="144">
+      <c r="C14" s="141">
         <v>10001</v>
       </c>
-      <c r="D14" s="147">
+      <c r="D14" s="144">
         <v>5</v>
       </c>
-      <c r="E14" s="147">
+      <c r="E14" s="144">
         <v>3</v>
       </c>
-      <c r="F14" s="147">
-        <v>1</v>
-      </c>
-      <c r="G14" s="147">
-        <v>1</v>
-      </c>
-      <c r="H14" s="147">
+      <c r="F14" s="144">
+        <v>1</v>
+      </c>
+      <c r="G14" s="144">
+        <v>1</v>
+      </c>
+      <c r="H14" s="144">
         <v>0.1</v>
       </c>
-      <c r="I14" s="147">
-        <v>1</v>
-      </c>
-      <c r="J14" s="147">
+      <c r="I14" s="144">
+        <v>1</v>
+      </c>
+      <c r="J14" s="144">
         <v>4</v>
       </c>
-      <c r="K14" s="150">
-        <v>0</v>
-      </c>
-      <c r="L14" s="146">
-        <v>0</v>
-      </c>
-      <c r="M14" s="145">
-        <v>0</v>
-      </c>
-      <c r="N14" s="145">
-        <v>0</v>
-      </c>
-      <c r="O14" s="145">
-        <v>0</v>
-      </c>
-      <c r="P14" s="145">
+      <c r="K14" s="147">
+        <v>0</v>
+      </c>
+      <c r="L14" s="143">
+        <v>0</v>
+      </c>
+      <c r="M14" s="142">
+        <v>0</v>
+      </c>
+      <c r="N14" s="142">
+        <v>0</v>
+      </c>
+      <c r="O14" s="142">
+        <v>0</v>
+      </c>
+      <c r="P14" s="142">
         <v>0</v>
       </c>
       <c r="Q14" s="4">
         <v>999</v>
       </c>
-      <c r="R14" s="147">
-        <v>0</v>
-      </c>
-      <c r="S14" s="148">
+      <c r="R14" s="144">
+        <v>0</v>
+      </c>
+      <c r="S14" s="145">
         <v>51001</v>
       </c>
       <c r="V14" s="25"/>
-      <c r="W14" s="152"/>
+      <c r="W14" s="149"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="143">
+      <c r="A15" s="140">
         <v>200010</v>
       </c>
       <c r="B15" s="1">
         <v>5</v>
       </c>
-      <c r="C15" s="144">
+      <c r="C15" s="141">
         <v>10002</v>
       </c>
-      <c r="D15" s="147">
-        <v>1</v>
-      </c>
-      <c r="E15" s="147">
-        <v>1</v>
-      </c>
-      <c r="F15" s="147">
-        <v>1</v>
-      </c>
-      <c r="G15" s="147">
-        <v>1</v>
-      </c>
-      <c r="H15" s="147">
+      <c r="D15" s="144">
+        <v>1</v>
+      </c>
+      <c r="E15" s="144">
+        <v>1</v>
+      </c>
+      <c r="F15" s="144">
+        <v>1</v>
+      </c>
+      <c r="G15" s="144">
+        <v>1</v>
+      </c>
+      <c r="H15" s="144">
         <v>3</v>
       </c>
-      <c r="I15" s="147">
-        <v>1</v>
-      </c>
-      <c r="J15" s="147">
-        <v>1</v>
-      </c>
-      <c r="K15" s="150">
-        <v>0</v>
-      </c>
-      <c r="L15" s="146">
-        <v>0</v>
-      </c>
-      <c r="M15" s="145">
-        <v>0</v>
-      </c>
-      <c r="N15" s="145">
-        <v>0</v>
-      </c>
-      <c r="O15" s="145">
-        <v>0</v>
-      </c>
-      <c r="P15" s="145">
+      <c r="I15" s="144">
+        <v>1</v>
+      </c>
+      <c r="J15" s="144">
+        <v>1</v>
+      </c>
+      <c r="K15" s="147">
+        <v>0</v>
+      </c>
+      <c r="L15" s="143">
+        <v>0</v>
+      </c>
+      <c r="M15" s="142">
+        <v>0</v>
+      </c>
+      <c r="N15" s="142">
+        <v>0</v>
+      </c>
+      <c r="O15" s="142">
+        <v>0</v>
+      </c>
+      <c r="P15" s="142">
         <v>0</v>
       </c>
       <c r="Q15" s="4">
         <v>999</v>
       </c>
-      <c r="R15" s="147">
-        <v>0</v>
-      </c>
-      <c r="S15" s="151">
+      <c r="R15" s="144">
+        <v>0</v>
+      </c>
+      <c r="S15" s="148">
         <v>50002</v>
       </c>
       <c r="V15" s="25"/>
-      <c r="W15" s="153"/>
+      <c r="W15" s="150"/>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="144">
+      <c r="A16" s="141">
         <v>200011</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="144">
+      <c r="C16" s="141">
         <v>10002</v>
       </c>
-      <c r="D16" s="147">
+      <c r="D16" s="144">
         <v>2</v>
       </c>
-      <c r="E16" s="147">
+      <c r="E16" s="144">
         <v>1.5</v>
       </c>
-      <c r="F16" s="147">
-        <v>1</v>
-      </c>
-      <c r="G16" s="147">
-        <v>1</v>
-      </c>
-      <c r="H16" s="147">
+      <c r="F16" s="144">
+        <v>1</v>
+      </c>
+      <c r="G16" s="144">
+        <v>1</v>
+      </c>
+      <c r="H16" s="144">
         <v>3</v>
       </c>
-      <c r="I16" s="147">
-        <v>1</v>
-      </c>
-      <c r="J16" s="147">
+      <c r="I16" s="144">
+        <v>1</v>
+      </c>
+      <c r="J16" s="144">
         <v>2</v>
       </c>
-      <c r="K16" s="150">
-        <v>0</v>
-      </c>
-      <c r="L16" s="146">
-        <v>0</v>
-      </c>
-      <c r="M16" s="145">
-        <v>0</v>
-      </c>
-      <c r="N16" s="145">
-        <v>0</v>
-      </c>
-      <c r="O16" s="145">
-        <v>0</v>
-      </c>
-      <c r="P16" s="145">
+      <c r="K16" s="147">
+        <v>0</v>
+      </c>
+      <c r="L16" s="143">
+        <v>0</v>
+      </c>
+      <c r="M16" s="142">
+        <v>0</v>
+      </c>
+      <c r="N16" s="142">
+        <v>0</v>
+      </c>
+      <c r="O16" s="142">
+        <v>0</v>
+      </c>
+      <c r="P16" s="142">
         <v>0</v>
       </c>
       <c r="Q16" s="4">
         <v>999</v>
       </c>
-      <c r="R16" s="147">
-        <v>0</v>
-      </c>
-      <c r="S16" s="148">
+      <c r="R16" s="144">
+        <v>0</v>
+      </c>
+      <c r="S16" s="145">
         <v>51003</v>
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="143">
+      <c r="A17" s="140">
         <v>200012</v>
       </c>
       <c r="B17" s="1">
         <v>5</v>
       </c>
-      <c r="C17" s="144">
+      <c r="C17" s="141">
         <v>10002</v>
       </c>
-      <c r="D17" s="147">
+      <c r="D17" s="144">
         <v>3</v>
       </c>
-      <c r="E17" s="147">
+      <c r="E17" s="144">
         <v>2</v>
       </c>
-      <c r="F17" s="147">
-        <v>1</v>
-      </c>
-      <c r="G17" s="147">
-        <v>1</v>
-      </c>
-      <c r="H17" s="147">
+      <c r="F17" s="144">
+        <v>1</v>
+      </c>
+      <c r="G17" s="144">
+        <v>1</v>
+      </c>
+      <c r="H17" s="144">
         <v>3</v>
       </c>
-      <c r="I17" s="147">
-        <v>1</v>
-      </c>
-      <c r="J17" s="147">
+      <c r="I17" s="144">
+        <v>1</v>
+      </c>
+      <c r="J17" s="144">
         <v>3</v>
       </c>
-      <c r="K17" s="150">
-        <v>0</v>
-      </c>
-      <c r="L17" s="146">
-        <v>0</v>
-      </c>
-      <c r="M17" s="145">
-        <v>0</v>
-      </c>
-      <c r="N17" s="145">
-        <v>0</v>
-      </c>
-      <c r="O17" s="145">
-        <v>0</v>
-      </c>
-      <c r="P17" s="145">
+      <c r="K17" s="147">
+        <v>0</v>
+      </c>
+      <c r="L17" s="143">
+        <v>0</v>
+      </c>
+      <c r="M17" s="142">
+        <v>0</v>
+      </c>
+      <c r="N17" s="142">
+        <v>0</v>
+      </c>
+      <c r="O17" s="142">
+        <v>0</v>
+      </c>
+      <c r="P17" s="142">
         <v>0</v>
       </c>
       <c r="Q17" s="4">
         <v>999</v>
       </c>
-      <c r="R17" s="147">
-        <v>0</v>
-      </c>
-      <c r="S17" s="148">
+      <c r="R17" s="144">
+        <v>0</v>
+      </c>
+      <c r="S17" s="145">
         <v>51003</v>
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="144">
+      <c r="A18" s="141">
         <v>200013</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="144">
+      <c r="C18" s="141">
         <v>10002</v>
       </c>
-      <c r="D18" s="147">
+      <c r="D18" s="144">
         <v>4</v>
       </c>
-      <c r="E18" s="147">
+      <c r="E18" s="144">
         <v>2.5</v>
       </c>
-      <c r="F18" s="147">
-        <v>1</v>
-      </c>
-      <c r="G18" s="147">
-        <v>1</v>
-      </c>
-      <c r="H18" s="147">
+      <c r="F18" s="144">
+        <v>1</v>
+      </c>
+      <c r="G18" s="144">
+        <v>1</v>
+      </c>
+      <c r="H18" s="144">
         <v>3</v>
       </c>
-      <c r="I18" s="147">
-        <v>1</v>
-      </c>
-      <c r="J18" s="147">
+      <c r="I18" s="144">
+        <v>1</v>
+      </c>
+      <c r="J18" s="144">
         <v>3</v>
       </c>
-      <c r="K18" s="150">
-        <v>0</v>
-      </c>
-      <c r="L18" s="146">
-        <v>0</v>
-      </c>
-      <c r="M18" s="145">
-        <v>0</v>
-      </c>
-      <c r="N18" s="145">
-        <v>0</v>
-      </c>
-      <c r="O18" s="145">
-        <v>0</v>
-      </c>
-      <c r="P18" s="145">
+      <c r="K18" s="147">
+        <v>0</v>
+      </c>
+      <c r="L18" s="143">
+        <v>0</v>
+      </c>
+      <c r="M18" s="142">
+        <v>0</v>
+      </c>
+      <c r="N18" s="142">
+        <v>0</v>
+      </c>
+      <c r="O18" s="142">
+        <v>0</v>
+      </c>
+      <c r="P18" s="142">
         <v>0</v>
       </c>
       <c r="Q18" s="4">
         <v>999</v>
       </c>
-      <c r="R18" s="147">
-        <v>0</v>
-      </c>
-      <c r="S18" s="148">
+      <c r="R18" s="144">
+        <v>0</v>
+      </c>
+      <c r="S18" s="145">
         <v>51002</v>
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="143">
+      <c r="A19" s="140">
         <v>200014</v>
       </c>
       <c r="B19" s="1">
         <v>5</v>
       </c>
-      <c r="C19" s="144">
+      <c r="C19" s="141">
         <v>10002</v>
       </c>
-      <c r="D19" s="147">
+      <c r="D19" s="144">
         <v>5</v>
       </c>
-      <c r="E19" s="147">
+      <c r="E19" s="144">
         <v>3</v>
       </c>
-      <c r="F19" s="147">
-        <v>1</v>
-      </c>
-      <c r="G19" s="147">
-        <v>1</v>
-      </c>
-      <c r="H19" s="147">
+      <c r="F19" s="144">
+        <v>1</v>
+      </c>
+      <c r="G19" s="144">
+        <v>1</v>
+      </c>
+      <c r="H19" s="144">
         <v>3</v>
       </c>
-      <c r="I19" s="147">
-        <v>1</v>
-      </c>
-      <c r="J19" s="147">
+      <c r="I19" s="144">
+        <v>1</v>
+      </c>
+      <c r="J19" s="144">
         <v>4</v>
       </c>
-      <c r="K19" s="150">
-        <v>0</v>
-      </c>
-      <c r="L19" s="146">
-        <v>0</v>
-      </c>
-      <c r="M19" s="145">
-        <v>0</v>
-      </c>
-      <c r="N19" s="145">
-        <v>0</v>
-      </c>
-      <c r="O19" s="145">
-        <v>0</v>
-      </c>
-      <c r="P19" s="145">
+      <c r="K19" s="147">
+        <v>0</v>
+      </c>
+      <c r="L19" s="143">
+        <v>0</v>
+      </c>
+      <c r="M19" s="142">
+        <v>0</v>
+      </c>
+      <c r="N19" s="142">
+        <v>0</v>
+      </c>
+      <c r="O19" s="142">
+        <v>0</v>
+      </c>
+      <c r="P19" s="142">
         <v>0</v>
       </c>
       <c r="Q19" s="4">
         <v>999</v>
       </c>
-      <c r="R19" s="147">
-        <v>0</v>
-      </c>
-      <c r="S19" s="148">
+      <c r="R19" s="144">
+        <v>0</v>
+      </c>
+      <c r="S19" s="145">
         <v>51003</v>
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="144">
+      <c r="A20" s="141">
         <v>200015</v>
       </c>
       <c r="B20" s="1">
         <v>5</v>
       </c>
-      <c r="C20" s="144">
+      <c r="C20" s="141">
         <v>10003</v>
       </c>
-      <c r="D20" s="147">
-        <v>1</v>
-      </c>
-      <c r="E20" s="147">
+      <c r="D20" s="144">
+        <v>1</v>
+      </c>
+      <c r="E20" s="144">
         <v>2</v>
       </c>
-      <c r="F20" s="147">
-        <v>1</v>
-      </c>
-      <c r="G20" s="147">
-        <v>1</v>
-      </c>
-      <c r="H20" s="147">
+      <c r="F20" s="144">
+        <v>1</v>
+      </c>
+      <c r="G20" s="144">
+        <v>1</v>
+      </c>
+      <c r="H20" s="144">
         <v>0.1</v>
       </c>
-      <c r="I20" s="147">
-        <v>1</v>
-      </c>
-      <c r="J20" s="147">
-        <v>1</v>
-      </c>
-      <c r="K20" s="150">
-        <v>0</v>
-      </c>
-      <c r="L20" s="146">
-        <v>0</v>
-      </c>
-      <c r="M20" s="145">
-        <v>0</v>
-      </c>
-      <c r="N20" s="145">
-        <v>0</v>
-      </c>
-      <c r="O20" s="145">
-        <v>0</v>
-      </c>
-      <c r="P20" s="145">
+      <c r="I20" s="144">
+        <v>1</v>
+      </c>
+      <c r="J20" s="144">
+        <v>1</v>
+      </c>
+      <c r="K20" s="147">
+        <v>0</v>
+      </c>
+      <c r="L20" s="143">
+        <v>0</v>
+      </c>
+      <c r="M20" s="142">
+        <v>0</v>
+      </c>
+      <c r="N20" s="142">
+        <v>0</v>
+      </c>
+      <c r="O20" s="142">
+        <v>0</v>
+      </c>
+      <c r="P20" s="142">
         <v>0</v>
       </c>
       <c r="Q20" s="4">
         <v>0</v>
       </c>
-      <c r="R20" s="147">
-        <v>0</v>
-      </c>
-      <c r="S20" s="151">
+      <c r="R20" s="144">
+        <v>0</v>
+      </c>
+      <c r="S20" s="148">
         <v>50003</v>
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="143">
+      <c r="A21" s="140">
         <v>200016</v>
       </c>
       <c r="B21" s="1">
         <v>5</v>
       </c>
-      <c r="C21" s="144">
+      <c r="C21" s="141">
         <v>10003</v>
       </c>
-      <c r="D21" s="147">
+      <c r="D21" s="144">
         <v>2</v>
       </c>
-      <c r="E21" s="147">
+      <c r="E21" s="144">
         <v>2</v>
       </c>
-      <c r="F21" s="147">
-        <v>1</v>
-      </c>
-      <c r="G21" s="147">
-        <v>1</v>
-      </c>
-      <c r="H21" s="147">
+      <c r="F21" s="144">
+        <v>1</v>
+      </c>
+      <c r="G21" s="144">
+        <v>1</v>
+      </c>
+      <c r="H21" s="144">
         <v>0.1</v>
       </c>
-      <c r="I21" s="147">
-        <v>1</v>
-      </c>
-      <c r="J21" s="147">
+      <c r="I21" s="144">
+        <v>1</v>
+      </c>
+      <c r="J21" s="144">
         <v>2</v>
       </c>
-      <c r="K21" s="150">
-        <v>0</v>
-      </c>
-      <c r="L21" s="146">
-        <v>0</v>
-      </c>
-      <c r="M21" s="145">
-        <v>0</v>
-      </c>
-      <c r="N21" s="145">
-        <v>0</v>
-      </c>
-      <c r="O21" s="145">
-        <v>0</v>
-      </c>
-      <c r="P21" s="145">
+      <c r="K21" s="147">
+        <v>0</v>
+      </c>
+      <c r="L21" s="143">
+        <v>0</v>
+      </c>
+      <c r="M21" s="142">
+        <v>0</v>
+      </c>
+      <c r="N21" s="142">
+        <v>0</v>
+      </c>
+      <c r="O21" s="142">
+        <v>0</v>
+      </c>
+      <c r="P21" s="142">
         <v>0</v>
       </c>
       <c r="Q21" s="4">
         <v>0</v>
       </c>
-      <c r="R21" s="147">
-        <v>0</v>
-      </c>
-      <c r="S21" s="148">
+      <c r="R21" s="144">
+        <v>0</v>
+      </c>
+      <c r="S21" s="145">
         <v>51000</v>
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="144">
+      <c r="A22" s="141">
         <v>200017</v>
       </c>
       <c r="B22" s="1">
         <v>5</v>
       </c>
-      <c r="C22" s="144">
+      <c r="C22" s="141">
         <v>10003</v>
       </c>
-      <c r="D22" s="147">
+      <c r="D22" s="144">
         <v>3</v>
       </c>
-      <c r="E22" s="147">
+      <c r="E22" s="144">
         <v>3</v>
       </c>
-      <c r="F22" s="147">
-        <v>1</v>
-      </c>
-      <c r="G22" s="147">
-        <v>1</v>
-      </c>
-      <c r="H22" s="147">
+      <c r="F22" s="144">
+        <v>1</v>
+      </c>
+      <c r="G22" s="144">
+        <v>1</v>
+      </c>
+      <c r="H22" s="144">
         <v>0.1</v>
       </c>
-      <c r="I22" s="147">
-        <v>1</v>
-      </c>
-      <c r="J22" s="147">
+      <c r="I22" s="144">
+        <v>1</v>
+      </c>
+      <c r="J22" s="144">
         <v>3</v>
       </c>
-      <c r="K22" s="150">
-        <v>0</v>
-      </c>
-      <c r="L22" s="146">
-        <v>0</v>
-      </c>
-      <c r="M22" s="145">
-        <v>0</v>
-      </c>
-      <c r="N22" s="145">
-        <v>0</v>
-      </c>
-      <c r="O22" s="145">
-        <v>0</v>
-      </c>
-      <c r="P22" s="145">
+      <c r="K22" s="147">
+        <v>0</v>
+      </c>
+      <c r="L22" s="143">
+        <v>0</v>
+      </c>
+      <c r="M22" s="142">
+        <v>0</v>
+      </c>
+      <c r="N22" s="142">
+        <v>0</v>
+      </c>
+      <c r="O22" s="142">
+        <v>0</v>
+      </c>
+      <c r="P22" s="142">
         <v>0</v>
       </c>
       <c r="Q22" s="4">
         <v>0</v>
       </c>
-      <c r="R22" s="147">
-        <v>0</v>
-      </c>
-      <c r="S22" s="148">
+      <c r="R22" s="144">
+        <v>0</v>
+      </c>
+      <c r="S22" s="145">
         <v>51003</v>
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="143">
+      <c r="A23" s="140">
         <v>200018</v>
       </c>
       <c r="B23" s="1">
         <v>5</v>
       </c>
-      <c r="C23" s="144">
+      <c r="C23" s="141">
         <v>10003</v>
       </c>
-      <c r="D23" s="147">
+      <c r="D23" s="144">
         <v>4</v>
       </c>
-      <c r="E23" s="147">
+      <c r="E23" s="144">
         <v>3</v>
       </c>
-      <c r="F23" s="147">
-        <v>1</v>
-      </c>
-      <c r="G23" s="147">
-        <v>1</v>
-      </c>
-      <c r="H23" s="147">
+      <c r="F23" s="144">
+        <v>1</v>
+      </c>
+      <c r="G23" s="144">
+        <v>1</v>
+      </c>
+      <c r="H23" s="144">
         <v>0.1</v>
       </c>
-      <c r="I23" s="147">
-        <v>1</v>
-      </c>
-      <c r="J23" s="147">
+      <c r="I23" s="144">
+        <v>1</v>
+      </c>
+      <c r="J23" s="144">
         <v>4</v>
       </c>
-      <c r="K23" s="150">
-        <v>0</v>
-      </c>
-      <c r="L23" s="146">
-        <v>0</v>
-      </c>
-      <c r="M23" s="145">
-        <v>0</v>
-      </c>
-      <c r="N23" s="145">
-        <v>0</v>
-      </c>
-      <c r="O23" s="145">
-        <v>0</v>
-      </c>
-      <c r="P23" s="145">
+      <c r="K23" s="147">
+        <v>0</v>
+      </c>
+      <c r="L23" s="143">
+        <v>0</v>
+      </c>
+      <c r="M23" s="142">
+        <v>0</v>
+      </c>
+      <c r="N23" s="142">
+        <v>0</v>
+      </c>
+      <c r="O23" s="142">
+        <v>0</v>
+      </c>
+      <c r="P23" s="142">
         <v>0</v>
       </c>
       <c r="Q23" s="4">
         <v>0</v>
       </c>
-      <c r="R23" s="147">
-        <v>0</v>
-      </c>
-      <c r="S23" s="148">
+      <c r="R23" s="144">
+        <v>0</v>
+      </c>
+      <c r="S23" s="145">
         <v>51000</v>
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="144">
+      <c r="A24" s="141">
         <v>200019</v>
       </c>
       <c r="B24" s="1">
         <v>5</v>
       </c>
-      <c r="C24" s="144">
+      <c r="C24" s="141">
         <v>10003</v>
       </c>
-      <c r="D24" s="147">
+      <c r="D24" s="144">
         <v>5</v>
       </c>
-      <c r="E24" s="147">
+      <c r="E24" s="144">
         <v>4</v>
       </c>
-      <c r="F24" s="147">
-        <v>1</v>
-      </c>
-      <c r="G24" s="147">
-        <v>1</v>
-      </c>
-      <c r="H24" s="147">
+      <c r="F24" s="144">
+        <v>1</v>
+      </c>
+      <c r="G24" s="144">
+        <v>1</v>
+      </c>
+      <c r="H24" s="144">
         <v>0.1</v>
       </c>
-      <c r="I24" s="147">
-        <v>1</v>
-      </c>
-      <c r="J24" s="147">
+      <c r="I24" s="144">
+        <v>1</v>
+      </c>
+      <c r="J24" s="144">
         <v>5</v>
       </c>
-      <c r="K24" s="150">
-        <v>0</v>
-      </c>
-      <c r="L24" s="146">
-        <v>0</v>
-      </c>
-      <c r="M24" s="145">
-        <v>0</v>
-      </c>
-      <c r="N24" s="145">
-        <v>0</v>
-      </c>
-      <c r="O24" s="145">
-        <v>0</v>
-      </c>
-      <c r="P24" s="145">
+      <c r="K24" s="147">
+        <v>0</v>
+      </c>
+      <c r="L24" s="143">
+        <v>0</v>
+      </c>
+      <c r="M24" s="142">
+        <v>0</v>
+      </c>
+      <c r="N24" s="142">
+        <v>0</v>
+      </c>
+      <c r="O24" s="142">
+        <v>0</v>
+      </c>
+      <c r="P24" s="142">
         <v>0</v>
       </c>
       <c r="Q24" s="4">
         <v>0</v>
       </c>
-      <c r="R24" s="147">
-        <v>0</v>
-      </c>
-      <c r="S24" s="148">
+      <c r="R24" s="144">
+        <v>0</v>
+      </c>
+      <c r="S24" s="145">
         <v>51003</v>
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="143">
+      <c r="A25" s="140">
         <v>200020</v>
       </c>
       <c r="B25" s="1">
         <v>5</v>
       </c>
-      <c r="C25" s="144">
+      <c r="C25" s="141">
         <v>10004</v>
       </c>
-      <c r="D25" s="147">
-        <v>1</v>
-      </c>
-      <c r="E25" s="147">
-        <v>1</v>
-      </c>
-      <c r="F25" s="147">
+      <c r="D25" s="144">
+        <v>1</v>
+      </c>
+      <c r="E25" s="144">
+        <v>1</v>
+      </c>
+      <c r="F25" s="144">
         <v>0.7</v>
       </c>
-      <c r="G25" s="147">
+      <c r="G25" s="144">
         <v>0.7</v>
       </c>
-      <c r="H25" s="147">
+      <c r="H25" s="144">
         <v>5</v>
       </c>
-      <c r="I25" s="147">
-        <v>1</v>
-      </c>
-      <c r="J25" s="147">
-        <v>1</v>
-      </c>
-      <c r="K25" s="150">
-        <v>0</v>
-      </c>
-      <c r="L25" s="146">
-        <v>0</v>
-      </c>
-      <c r="M25" s="145">
-        <v>0</v>
-      </c>
-      <c r="N25" s="145">
-        <v>0</v>
-      </c>
-      <c r="O25" s="145">
-        <v>0</v>
-      </c>
-      <c r="P25" s="145">
+      <c r="I25" s="144">
+        <v>1</v>
+      </c>
+      <c r="J25" s="144">
+        <v>1</v>
+      </c>
+      <c r="K25" s="147">
+        <v>0</v>
+      </c>
+      <c r="L25" s="143">
+        <v>0</v>
+      </c>
+      <c r="M25" s="142">
+        <v>0</v>
+      </c>
+      <c r="N25" s="142">
+        <v>0</v>
+      </c>
+      <c r="O25" s="142">
+        <v>0</v>
+      </c>
+      <c r="P25" s="142">
         <v>0</v>
       </c>
       <c r="Q25" s="4">
         <v>0</v>
       </c>
-      <c r="R25" s="147">
-        <v>0</v>
-      </c>
-      <c r="S25" s="151">
+      <c r="R25" s="144">
+        <v>0</v>
+      </c>
+      <c r="S25" s="148">
         <v>50004</v>
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="144">
+      <c r="A26" s="141">
         <v>200021</v>
       </c>
       <c r="B26" s="1">
         <v>5</v>
       </c>
-      <c r="C26" s="144">
+      <c r="C26" s="141">
         <v>10004</v>
       </c>
-      <c r="D26" s="147">
+      <c r="D26" s="144">
         <v>2</v>
       </c>
-      <c r="E26" s="147">
+      <c r="E26" s="144">
         <v>1.5</v>
       </c>
-      <c r="F26" s="147">
+      <c r="F26" s="144">
         <v>0.7</v>
       </c>
-      <c r="G26" s="147">
+      <c r="G26" s="144">
         <v>0.7</v>
       </c>
-      <c r="H26" s="147">
+      <c r="H26" s="144">
         <v>5</v>
       </c>
-      <c r="I26" s="147">
+      <c r="I26" s="144">
         <v>1.2</v>
       </c>
-      <c r="J26" s="147">
-        <v>1</v>
-      </c>
-      <c r="K26" s="150">
-        <v>0</v>
-      </c>
-      <c r="L26" s="146">
-        <v>0</v>
-      </c>
-      <c r="M26" s="145">
-        <v>0</v>
-      </c>
-      <c r="N26" s="145">
-        <v>0</v>
-      </c>
-      <c r="O26" s="145">
-        <v>0</v>
-      </c>
-      <c r="P26" s="145">
+      <c r="J26" s="144">
+        <v>1</v>
+      </c>
+      <c r="K26" s="147">
+        <v>0</v>
+      </c>
+      <c r="L26" s="143">
+        <v>0</v>
+      </c>
+      <c r="M26" s="142">
+        <v>0</v>
+      </c>
+      <c r="N26" s="142">
+        <v>0</v>
+      </c>
+      <c r="O26" s="142">
+        <v>0</v>
+      </c>
+      <c r="P26" s="142">
         <v>0</v>
       </c>
       <c r="Q26" s="4">
         <v>0</v>
       </c>
-      <c r="R26" s="147">
-        <v>0</v>
-      </c>
-      <c r="S26" s="148">
+      <c r="R26" s="144">
+        <v>0</v>
+      </c>
+      <c r="S26" s="145">
         <v>51004</v>
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="143">
+      <c r="A27" s="140">
         <v>200022</v>
       </c>
       <c r="B27" s="1">
         <v>5</v>
       </c>
-      <c r="C27" s="144">
+      <c r="C27" s="141">
         <v>10004</v>
       </c>
-      <c r="D27" s="147">
+      <c r="D27" s="144">
         <v>3</v>
       </c>
-      <c r="E27" s="147">
+      <c r="E27" s="144">
         <v>2</v>
       </c>
-      <c r="F27" s="147">
+      <c r="F27" s="144">
         <v>0.7</v>
       </c>
-      <c r="G27" s="147">
+      <c r="G27" s="144">
         <v>0.7</v>
       </c>
-      <c r="H27" s="147">
+      <c r="H27" s="144">
         <v>5</v>
       </c>
-      <c r="I27" s="147">
+      <c r="I27" s="144">
         <v>1.4</v>
       </c>
-      <c r="J27" s="147">
-        <v>1</v>
-      </c>
-      <c r="K27" s="150">
-        <v>0</v>
-      </c>
-      <c r="L27" s="146">
-        <v>0</v>
-      </c>
-      <c r="M27" s="145">
-        <v>0</v>
-      </c>
-      <c r="N27" s="145">
-        <v>0</v>
-      </c>
-      <c r="O27" s="145">
-        <v>0</v>
-      </c>
-      <c r="P27" s="145">
+      <c r="J27" s="144">
+        <v>1</v>
+      </c>
+      <c r="K27" s="147">
+        <v>0</v>
+      </c>
+      <c r="L27" s="143">
+        <v>0</v>
+      </c>
+      <c r="M27" s="142">
+        <v>0</v>
+      </c>
+      <c r="N27" s="142">
+        <v>0</v>
+      </c>
+      <c r="O27" s="142">
+        <v>0</v>
+      </c>
+      <c r="P27" s="142">
         <v>0</v>
       </c>
       <c r="Q27" s="4">
         <v>0</v>
       </c>
-      <c r="R27" s="147">
-        <v>0</v>
-      </c>
-      <c r="S27" s="148">
+      <c r="R27" s="144">
+        <v>0</v>
+      </c>
+      <c r="S27" s="145">
         <v>51004</v>
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="144">
+      <c r="A28" s="141">
         <v>200023</v>
       </c>
       <c r="B28" s="1">
         <v>5</v>
       </c>
-      <c r="C28" s="144">
+      <c r="C28" s="141">
         <v>10004</v>
       </c>
-      <c r="D28" s="147">
+      <c r="D28" s="144">
         <v>4</v>
       </c>
-      <c r="E28" s="147">
+      <c r="E28" s="144">
         <v>2.5</v>
       </c>
-      <c r="F28" s="147">
+      <c r="F28" s="144">
         <v>0.7</v>
       </c>
-      <c r="G28" s="147">
+      <c r="G28" s="144">
         <v>0.7</v>
       </c>
-      <c r="H28" s="147">
+      <c r="H28" s="144">
         <v>5</v>
       </c>
-      <c r="I28" s="147">
+      <c r="I28" s="144">
         <v>1.7</v>
       </c>
-      <c r="J28" s="147">
-        <v>1</v>
-      </c>
-      <c r="K28" s="150">
-        <v>0</v>
-      </c>
-      <c r="L28" s="146">
-        <v>0</v>
-      </c>
-      <c r="M28" s="145">
-        <v>0</v>
-      </c>
-      <c r="N28" s="145">
-        <v>0</v>
-      </c>
-      <c r="O28" s="145">
-        <v>0</v>
-      </c>
-      <c r="P28" s="145">
+      <c r="J28" s="144">
+        <v>1</v>
+      </c>
+      <c r="K28" s="147">
+        <v>0</v>
+      </c>
+      <c r="L28" s="143">
+        <v>0</v>
+      </c>
+      <c r="M28" s="142">
+        <v>0</v>
+      </c>
+      <c r="N28" s="142">
+        <v>0</v>
+      </c>
+      <c r="O28" s="142">
+        <v>0</v>
+      </c>
+      <c r="P28" s="142">
         <v>0</v>
       </c>
       <c r="Q28" s="4">
         <v>0</v>
       </c>
-      <c r="R28" s="147">
-        <v>0</v>
-      </c>
-      <c r="S28" s="148">
+      <c r="R28" s="144">
+        <v>0</v>
+      </c>
+      <c r="S28" s="145">
         <v>51004</v>
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="143">
+      <c r="A29" s="140">
         <v>200024</v>
       </c>
       <c r="B29" s="1">
         <v>5</v>
       </c>
-      <c r="C29" s="144">
+      <c r="C29" s="141">
         <v>10004</v>
       </c>
-      <c r="D29" s="147">
+      <c r="D29" s="144">
         <v>5</v>
       </c>
-      <c r="E29" s="147">
+      <c r="E29" s="144">
         <v>3</v>
       </c>
-      <c r="F29" s="147">
+      <c r="F29" s="144">
         <v>0.7</v>
       </c>
-      <c r="G29" s="147">
+      <c r="G29" s="144">
         <v>0.7</v>
       </c>
-      <c r="H29" s="147">
+      <c r="H29" s="144">
         <v>5</v>
       </c>
-      <c r="I29" s="147">
+      <c r="I29" s="144">
         <v>2</v>
       </c>
-      <c r="J29" s="147">
-        <v>1</v>
-      </c>
-      <c r="K29" s="150">
-        <v>0</v>
-      </c>
-      <c r="L29" s="146">
-        <v>0</v>
-      </c>
-      <c r="M29" s="145">
-        <v>0</v>
-      </c>
-      <c r="N29" s="145">
-        <v>0</v>
-      </c>
-      <c r="O29" s="145">
-        <v>0</v>
-      </c>
-      <c r="P29" s="145">
+      <c r="J29" s="144">
+        <v>1</v>
+      </c>
+      <c r="K29" s="147">
+        <v>0</v>
+      </c>
+      <c r="L29" s="143">
+        <v>0</v>
+      </c>
+      <c r="M29" s="142">
+        <v>0</v>
+      </c>
+      <c r="N29" s="142">
+        <v>0</v>
+      </c>
+      <c r="O29" s="142">
+        <v>0</v>
+      </c>
+      <c r="P29" s="142">
         <v>0</v>
       </c>
       <c r="Q29" s="4">
         <v>0</v>
       </c>
-      <c r="R29" s="147">
-        <v>0</v>
-      </c>
-      <c r="S29" s="148">
+      <c r="R29" s="144">
+        <v>0</v>
+      </c>
+      <c r="S29" s="145">
         <v>51004</v>
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="144">
+      <c r="A30" s="141">
         <v>200025</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
       </c>
-      <c r="C30" s="144">
+      <c r="C30" s="141">
         <v>10005</v>
       </c>
-      <c r="D30" s="147">
-        <v>1</v>
-      </c>
-      <c r="E30" s="147">
-        <v>1</v>
-      </c>
-      <c r="F30" s="147">
+      <c r="D30" s="144">
+        <v>1</v>
+      </c>
+      <c r="E30" s="144">
+        <v>1</v>
+      </c>
+      <c r="F30" s="144">
         <v>0.7</v>
       </c>
-      <c r="G30" s="147">
+      <c r="G30" s="144">
         <v>0.7</v>
       </c>
-      <c r="H30" s="147">
+      <c r="H30" s="144">
         <v>5</v>
       </c>
-      <c r="I30" s="147">
-        <v>1</v>
-      </c>
-      <c r="J30" s="147">
-        <v>1</v>
-      </c>
-      <c r="K30" s="150">
-        <v>0</v>
-      </c>
-      <c r="L30" s="146">
-        <v>0</v>
-      </c>
-      <c r="M30" s="145">
-        <v>0</v>
-      </c>
-      <c r="N30" s="145">
-        <v>0</v>
-      </c>
-      <c r="O30" s="145">
-        <v>0</v>
-      </c>
-      <c r="P30" s="145">
+      <c r="I30" s="144">
+        <v>1</v>
+      </c>
+      <c r="J30" s="144">
+        <v>1</v>
+      </c>
+      <c r="K30" s="147">
+        <v>0</v>
+      </c>
+      <c r="L30" s="143">
+        <v>0</v>
+      </c>
+      <c r="M30" s="142">
+        <v>0</v>
+      </c>
+      <c r="N30" s="142">
+        <v>0</v>
+      </c>
+      <c r="O30" s="142">
+        <v>0</v>
+      </c>
+      <c r="P30" s="142">
         <v>0</v>
       </c>
       <c r="Q30" s="4">
         <v>0</v>
       </c>
-      <c r="R30" s="147">
-        <v>0</v>
-      </c>
-      <c r="S30" s="151">
+      <c r="R30" s="144">
+        <v>0</v>
+      </c>
+      <c r="S30" s="148">
         <v>50005</v>
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="143">
+      <c r="A31" s="140">
         <v>200026</v>
       </c>
       <c r="B31" s="1">
         <v>5</v>
       </c>
-      <c r="C31" s="144">
+      <c r="C31" s="141">
         <v>10005</v>
       </c>
-      <c r="D31" s="147">
+      <c r="D31" s="144">
         <v>2</v>
       </c>
-      <c r="E31" s="147">
+      <c r="E31" s="144">
         <v>1.5</v>
       </c>
-      <c r="F31" s="147">
+      <c r="F31" s="144">
         <v>0.7</v>
       </c>
-      <c r="G31" s="147">
+      <c r="G31" s="144">
         <v>0.7</v>
       </c>
-      <c r="H31" s="147">
+      <c r="H31" s="144">
         <v>5</v>
       </c>
-      <c r="I31" s="147">
-        <v>1</v>
-      </c>
-      <c r="J31" s="147">
+      <c r="I31" s="144">
+        <v>1</v>
+      </c>
+      <c r="J31" s="144">
         <v>2</v>
       </c>
-      <c r="K31" s="150">
-        <v>0</v>
-      </c>
-      <c r="L31" s="146">
-        <v>0</v>
-      </c>
-      <c r="M31" s="145">
-        <v>0</v>
-      </c>
-      <c r="N31" s="145">
-        <v>0</v>
-      </c>
-      <c r="O31" s="145">
-        <v>0</v>
-      </c>
-      <c r="P31" s="145">
+      <c r="K31" s="147">
+        <v>0</v>
+      </c>
+      <c r="L31" s="143">
+        <v>0</v>
+      </c>
+      <c r="M31" s="142">
+        <v>0</v>
+      </c>
+      <c r="N31" s="142">
+        <v>0</v>
+      </c>
+      <c r="O31" s="142">
+        <v>0</v>
+      </c>
+      <c r="P31" s="142">
         <v>0</v>
       </c>
       <c r="Q31" s="4">
         <v>0</v>
       </c>
-      <c r="R31" s="147">
-        <v>0</v>
-      </c>
-      <c r="S31" s="148">
+      <c r="R31" s="144">
+        <v>0</v>
+      </c>
+      <c r="S31" s="145">
         <v>51003</v>
       </c>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="144">
+      <c r="A32" s="141">
         <v>200027</v>
       </c>
       <c r="B32" s="1">
         <v>5</v>
       </c>
-      <c r="C32" s="144">
+      <c r="C32" s="141">
         <v>10005</v>
       </c>
-      <c r="D32" s="147">
+      <c r="D32" s="144">
         <v>3</v>
       </c>
-      <c r="E32" s="147">
+      <c r="E32" s="144">
         <v>2</v>
       </c>
-      <c r="F32" s="147">
+      <c r="F32" s="144">
         <v>0.7</v>
       </c>
-      <c r="G32" s="147">
+      <c r="G32" s="144">
         <v>0.7</v>
       </c>
-      <c r="H32" s="147">
+      <c r="H32" s="144">
         <v>5</v>
       </c>
-      <c r="I32" s="147">
-        <v>1</v>
-      </c>
-      <c r="J32" s="147">
+      <c r="I32" s="144">
+        <v>1</v>
+      </c>
+      <c r="J32" s="144">
         <v>3</v>
       </c>
-      <c r="K32" s="150">
-        <v>0</v>
-      </c>
-      <c r="L32" s="146">
-        <v>0</v>
-      </c>
-      <c r="M32" s="145">
-        <v>0</v>
-      </c>
-      <c r="N32" s="145">
-        <v>0</v>
-      </c>
-      <c r="O32" s="145">
-        <v>0</v>
-      </c>
-      <c r="P32" s="145">
+      <c r="K32" s="147">
+        <v>0</v>
+      </c>
+      <c r="L32" s="143">
+        <v>0</v>
+      </c>
+      <c r="M32" s="142">
+        <v>0</v>
+      </c>
+      <c r="N32" s="142">
+        <v>0</v>
+      </c>
+      <c r="O32" s="142">
+        <v>0</v>
+      </c>
+      <c r="P32" s="142">
         <v>0</v>
       </c>
       <c r="Q32" s="4">
         <v>0</v>
       </c>
-      <c r="R32" s="147">
-        <v>0</v>
-      </c>
-      <c r="S32" s="148">
+      <c r="R32" s="144">
+        <v>0</v>
+      </c>
+      <c r="S32" s="145">
         <v>51003</v>
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="143">
+      <c r="A33" s="140">
         <v>200028</v>
       </c>
       <c r="B33" s="1">
         <v>5</v>
       </c>
-      <c r="C33" s="144">
+      <c r="C33" s="141">
         <v>10005</v>
       </c>
-      <c r="D33" s="147">
+      <c r="D33" s="144">
         <v>4</v>
       </c>
-      <c r="E33" s="147">
+      <c r="E33" s="144">
         <v>2.5</v>
       </c>
-      <c r="F33" s="147">
+      <c r="F33" s="144">
         <v>0.7</v>
       </c>
-      <c r="G33" s="147">
+      <c r="G33" s="144">
         <v>0.7</v>
       </c>
-      <c r="H33" s="147">
+      <c r="H33" s="144">
         <v>5</v>
       </c>
-      <c r="I33" s="147">
-        <v>1</v>
-      </c>
-      <c r="J33" s="147">
+      <c r="I33" s="144">
+        <v>1</v>
+      </c>
+      <c r="J33" s="144">
         <v>4</v>
       </c>
-      <c r="K33" s="150">
-        <v>0</v>
-      </c>
-      <c r="L33" s="146">
-        <v>0</v>
-      </c>
-      <c r="M33" s="145">
-        <v>0</v>
-      </c>
-      <c r="N33" s="145">
-        <v>0</v>
-      </c>
-      <c r="O33" s="145">
-        <v>0</v>
-      </c>
-      <c r="P33" s="145">
+      <c r="K33" s="147">
+        <v>0</v>
+      </c>
+      <c r="L33" s="143">
+        <v>0</v>
+      </c>
+      <c r="M33" s="142">
+        <v>0</v>
+      </c>
+      <c r="N33" s="142">
+        <v>0</v>
+      </c>
+      <c r="O33" s="142">
+        <v>0</v>
+      </c>
+      <c r="P33" s="142">
         <v>0</v>
       </c>
       <c r="Q33" s="4">
         <v>0</v>
       </c>
-      <c r="R33" s="147">
-        <v>0</v>
-      </c>
-      <c r="S33" s="148">
+      <c r="R33" s="144">
+        <v>0</v>
+      </c>
+      <c r="S33" s="145">
         <v>51003</v>
       </c>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="144">
+      <c r="A34" s="141">
         <v>200029</v>
       </c>
       <c r="B34" s="1">
         <v>5</v>
       </c>
-      <c r="C34" s="144">
+      <c r="C34" s="141">
         <v>10005</v>
       </c>
-      <c r="D34" s="147">
+      <c r="D34" s="144">
         <v>5</v>
       </c>
-      <c r="E34" s="147">
+      <c r="E34" s="144">
         <v>3</v>
       </c>
-      <c r="F34" s="147">
+      <c r="F34" s="144">
         <v>0.7</v>
       </c>
-      <c r="G34" s="147">
+      <c r="G34" s="144">
         <v>0.7</v>
       </c>
-      <c r="H34" s="147">
+      <c r="H34" s="144">
         <v>5</v>
       </c>
-      <c r="I34" s="147">
-        <v>1</v>
-      </c>
-      <c r="J34" s="147">
+      <c r="I34" s="144">
+        <v>1</v>
+      </c>
+      <c r="J34" s="144">
         <v>5</v>
       </c>
-      <c r="K34" s="150">
-        <v>0</v>
-      </c>
-      <c r="L34" s="146">
-        <v>0</v>
-      </c>
-      <c r="M34" s="145">
-        <v>0</v>
-      </c>
-      <c r="N34" s="145">
-        <v>0</v>
-      </c>
-      <c r="O34" s="145">
-        <v>0</v>
-      </c>
-      <c r="P34" s="145">
+      <c r="K34" s="147">
+        <v>0</v>
+      </c>
+      <c r="L34" s="143">
+        <v>0</v>
+      </c>
+      <c r="M34" s="142">
+        <v>0</v>
+      </c>
+      <c r="N34" s="142">
+        <v>0</v>
+      </c>
+      <c r="O34" s="142">
+        <v>0</v>
+      </c>
+      <c r="P34" s="142">
         <v>0</v>
       </c>
       <c r="Q34" s="4">
         <v>0</v>
       </c>
-      <c r="R34" s="147">
-        <v>0</v>
-      </c>
-      <c r="S34" s="148">
+      <c r="R34" s="144">
+        <v>0</v>
+      </c>
+      <c r="S34" s="145">
         <v>51003</v>
       </c>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="143">
+      <c r="A35" s="140">
         <v>200030</v>
       </c>
       <c r="B35" s="1">
         <v>5</v>
       </c>
-      <c r="C35" s="144">
+      <c r="C35" s="141">
         <v>10006</v>
       </c>
-      <c r="D35" s="147">
-        <v>1</v>
-      </c>
-      <c r="E35" s="147">
-        <v>1</v>
-      </c>
-      <c r="F35" s="147">
+      <c r="D35" s="144">
+        <v>1</v>
+      </c>
+      <c r="E35" s="144">
+        <v>1</v>
+      </c>
+      <c r="F35" s="144">
         <v>0.7</v>
       </c>
-      <c r="G35" s="147">
+      <c r="G35" s="144">
         <v>0.7</v>
       </c>
-      <c r="H35" s="147">
+      <c r="H35" s="144">
         <v>5</v>
       </c>
-      <c r="I35" s="147">
-        <v>1</v>
-      </c>
-      <c r="J35" s="147">
-        <v>1</v>
-      </c>
-      <c r="K35" s="150">
-        <v>0</v>
-      </c>
-      <c r="L35" s="146">
-        <v>0</v>
-      </c>
-      <c r="M35" s="145">
-        <v>0</v>
-      </c>
-      <c r="N35" s="145">
-        <v>0</v>
-      </c>
-      <c r="O35" s="145">
-        <v>0</v>
-      </c>
-      <c r="P35" s="145">
+      <c r="I35" s="144">
+        <v>1</v>
+      </c>
+      <c r="J35" s="144">
+        <v>1</v>
+      </c>
+      <c r="K35" s="147">
+        <v>0</v>
+      </c>
+      <c r="L35" s="143">
+        <v>0</v>
+      </c>
+      <c r="M35" s="142">
+        <v>0</v>
+      </c>
+      <c r="N35" s="142">
+        <v>0</v>
+      </c>
+      <c r="O35" s="142">
+        <v>0</v>
+      </c>
+      <c r="P35" s="142">
         <v>0</v>
       </c>
       <c r="Q35" s="4">
         <v>0</v>
       </c>
-      <c r="R35" s="147">
-        <v>0</v>
-      </c>
-      <c r="S35" s="151">
+      <c r="R35" s="144">
+        <v>0</v>
+      </c>
+      <c r="S35" s="148">
         <v>50006</v>
       </c>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="144">
+      <c r="A36" s="141">
         <v>200031</v>
       </c>
       <c r="B36" s="1">
         <v>5</v>
       </c>
-      <c r="C36" s="144">
+      <c r="C36" s="141">
         <v>10006</v>
       </c>
-      <c r="D36" s="147">
+      <c r="D36" s="144">
         <v>2</v>
       </c>
-      <c r="E36" s="147">
+      <c r="E36" s="144">
         <v>1.5</v>
       </c>
-      <c r="F36" s="147">
+      <c r="F36" s="144">
         <v>0.7</v>
       </c>
-      <c r="G36" s="147">
+      <c r="G36" s="144">
         <v>0.7</v>
       </c>
-      <c r="H36" s="147">
+      <c r="H36" s="144">
         <v>5</v>
       </c>
-      <c r="I36" s="147">
-        <v>1</v>
-      </c>
-      <c r="J36" s="147">
+      <c r="I36" s="144">
+        <v>1</v>
+      </c>
+      <c r="J36" s="144">
         <v>2</v>
       </c>
-      <c r="K36" s="150">
-        <v>0</v>
-      </c>
-      <c r="L36" s="146">
-        <v>0</v>
-      </c>
-      <c r="M36" s="145">
-        <v>0</v>
-      </c>
-      <c r="N36" s="145">
-        <v>0</v>
-      </c>
-      <c r="O36" s="145">
-        <v>0</v>
-      </c>
-      <c r="P36" s="145">
+      <c r="K36" s="147">
+        <v>0</v>
+      </c>
+      <c r="L36" s="143">
+        <v>0</v>
+      </c>
+      <c r="M36" s="142">
+        <v>0</v>
+      </c>
+      <c r="N36" s="142">
+        <v>0</v>
+      </c>
+      <c r="O36" s="142">
+        <v>0</v>
+      </c>
+      <c r="P36" s="142">
         <v>0</v>
       </c>
       <c r="Q36" s="4">
         <v>0</v>
       </c>
-      <c r="R36" s="147">
-        <v>0</v>
-      </c>
-      <c r="S36" s="148">
+      <c r="R36" s="144">
+        <v>0</v>
+      </c>
+      <c r="S36" s="145">
         <v>51003</v>
       </c>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="143">
+      <c r="A37" s="140">
         <v>200032</v>
       </c>
       <c r="B37" s="1">
         <v>5</v>
       </c>
-      <c r="C37" s="144">
+      <c r="C37" s="141">
         <v>10006</v>
       </c>
-      <c r="D37" s="147">
+      <c r="D37" s="144">
         <v>3</v>
       </c>
-      <c r="E37" s="147">
+      <c r="E37" s="144">
         <v>2</v>
       </c>
-      <c r="F37" s="147">
+      <c r="F37" s="144">
         <v>0.7</v>
       </c>
-      <c r="G37" s="147">
+      <c r="G37" s="144">
         <v>0.7</v>
       </c>
-      <c r="H37" s="147">
+      <c r="H37" s="144">
         <v>5</v>
       </c>
-      <c r="I37" s="147">
-        <v>1</v>
-      </c>
-      <c r="J37" s="147">
+      <c r="I37" s="144">
+        <v>1</v>
+      </c>
+      <c r="J37" s="144">
         <v>3</v>
       </c>
-      <c r="K37" s="150">
-        <v>0</v>
-      </c>
-      <c r="L37" s="146">
-        <v>0</v>
-      </c>
-      <c r="M37" s="145">
-        <v>0</v>
-      </c>
-      <c r="N37" s="145">
-        <v>0</v>
-      </c>
-      <c r="O37" s="145">
-        <v>0</v>
-      </c>
-      <c r="P37" s="145">
+      <c r="K37" s="147">
+        <v>0</v>
+      </c>
+      <c r="L37" s="143">
+        <v>0</v>
+      </c>
+      <c r="M37" s="142">
+        <v>0</v>
+      </c>
+      <c r="N37" s="142">
+        <v>0</v>
+      </c>
+      <c r="O37" s="142">
+        <v>0</v>
+      </c>
+      <c r="P37" s="142">
         <v>0</v>
       </c>
       <c r="Q37" s="4">
         <v>0</v>
       </c>
-      <c r="R37" s="147">
-        <v>0</v>
-      </c>
-      <c r="S37" s="148">
+      <c r="R37" s="144">
+        <v>0</v>
+      </c>
+      <c r="S37" s="145">
         <v>51003</v>
       </c>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="144">
+      <c r="A38" s="141">
         <v>200033</v>
       </c>
       <c r="B38" s="1">
         <v>5</v>
       </c>
-      <c r="C38" s="144">
+      <c r="C38" s="141">
         <v>10006</v>
       </c>
-      <c r="D38" s="147">
+      <c r="D38" s="144">
         <v>4</v>
       </c>
-      <c r="E38" s="147">
+      <c r="E38" s="144">
         <v>2.5</v>
       </c>
-      <c r="F38" s="147">
+      <c r="F38" s="144">
         <v>0.7</v>
       </c>
-      <c r="G38" s="147">
+      <c r="G38" s="144">
         <v>0.7</v>
       </c>
-      <c r="H38" s="147">
+      <c r="H38" s="144">
         <v>5</v>
       </c>
-      <c r="I38" s="147">
-        <v>1</v>
-      </c>
-      <c r="J38" s="147">
+      <c r="I38" s="144">
+        <v>1</v>
+      </c>
+      <c r="J38" s="144">
         <v>4</v>
       </c>
-      <c r="K38" s="150">
-        <v>0</v>
-      </c>
-      <c r="L38" s="146">
-        <v>0</v>
-      </c>
-      <c r="M38" s="145">
-        <v>0</v>
-      </c>
-      <c r="N38" s="145">
-        <v>0</v>
-      </c>
-      <c r="O38" s="145">
-        <v>0</v>
-      </c>
-      <c r="P38" s="145">
+      <c r="K38" s="147">
+        <v>0</v>
+      </c>
+      <c r="L38" s="143">
+        <v>0</v>
+      </c>
+      <c r="M38" s="142">
+        <v>0</v>
+      </c>
+      <c r="N38" s="142">
+        <v>0</v>
+      </c>
+      <c r="O38" s="142">
+        <v>0</v>
+      </c>
+      <c r="P38" s="142">
         <v>0</v>
       </c>
       <c r="Q38" s="4">
         <v>0</v>
       </c>
-      <c r="R38" s="147">
-        <v>0</v>
-      </c>
-      <c r="S38" s="148">
+      <c r="R38" s="144">
+        <v>0</v>
+      </c>
+      <c r="S38" s="145">
         <v>51003</v>
       </c>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="143">
+      <c r="A39" s="140">
         <v>200034</v>
       </c>
       <c r="B39" s="1">
         <v>5</v>
       </c>
-      <c r="C39" s="144">
+      <c r="C39" s="141">
         <v>10006</v>
       </c>
-      <c r="D39" s="147">
+      <c r="D39" s="144">
         <v>5</v>
       </c>
-      <c r="E39" s="147">
+      <c r="E39" s="144">
         <v>3</v>
       </c>
-      <c r="F39" s="147">
+      <c r="F39" s="144">
         <v>0.7</v>
       </c>
-      <c r="G39" s="147">
+      <c r="G39" s="144">
         <v>0.7</v>
       </c>
-      <c r="H39" s="147">
+      <c r="H39" s="144">
         <v>5</v>
       </c>
-      <c r="I39" s="147">
-        <v>1</v>
-      </c>
-      <c r="J39" s="147">
+      <c r="I39" s="144">
+        <v>1</v>
+      </c>
+      <c r="J39" s="144">
         <v>5</v>
       </c>
-      <c r="K39" s="150">
-        <v>0</v>
-      </c>
-      <c r="L39" s="146">
-        <v>0</v>
-      </c>
-      <c r="M39" s="145">
-        <v>0</v>
-      </c>
-      <c r="N39" s="145">
-        <v>0</v>
-      </c>
-      <c r="O39" s="145">
-        <v>0</v>
-      </c>
-      <c r="P39" s="145">
+      <c r="K39" s="147">
+        <v>0</v>
+      </c>
+      <c r="L39" s="143">
+        <v>0</v>
+      </c>
+      <c r="M39" s="142">
+        <v>0</v>
+      </c>
+      <c r="N39" s="142">
+        <v>0</v>
+      </c>
+      <c r="O39" s="142">
+        <v>0</v>
+      </c>
+      <c r="P39" s="142">
         <v>0</v>
       </c>
       <c r="Q39" s="4">
         <v>0</v>
       </c>
-      <c r="R39" s="147">
-        <v>0</v>
-      </c>
-      <c r="S39" s="148">
+      <c r="R39" s="144">
+        <v>0</v>
+      </c>
+      <c r="S39" s="145">
         <v>51003</v>
       </c>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="144">
+      <c r="A40" s="141">
         <v>200035</v>
       </c>
       <c r="B40" s="1">
         <v>5</v>
       </c>
-      <c r="C40" s="144">
+      <c r="C40" s="141">
         <v>10007</v>
       </c>
-      <c r="D40" s="147">
-        <v>1</v>
-      </c>
-      <c r="E40" s="147">
-        <v>1</v>
-      </c>
-      <c r="F40" s="147">
-        <v>1</v>
-      </c>
-      <c r="G40" s="147">
-        <v>1</v>
-      </c>
-      <c r="H40" s="147">
+      <c r="D40" s="144">
+        <v>1</v>
+      </c>
+      <c r="E40" s="144">
+        <v>1</v>
+      </c>
+      <c r="F40" s="144">
+        <v>1</v>
+      </c>
+      <c r="G40" s="144">
+        <v>1</v>
+      </c>
+      <c r="H40" s="144">
         <v>4</v>
       </c>
-      <c r="I40" s="147">
-        <v>1</v>
-      </c>
-      <c r="J40" s="147">
+      <c r="I40" s="144">
+        <v>1</v>
+      </c>
+      <c r="J40" s="144">
         <v>2</v>
       </c>
-      <c r="K40" s="150">
-        <v>0</v>
-      </c>
-      <c r="L40" s="146">
-        <v>0</v>
-      </c>
-      <c r="M40" s="145">
-        <v>0</v>
-      </c>
-      <c r="N40" s="145">
-        <v>0</v>
-      </c>
-      <c r="O40" s="145">
-        <v>0</v>
-      </c>
-      <c r="P40" s="145">
+      <c r="K40" s="147">
+        <v>0</v>
+      </c>
+      <c r="L40" s="143">
+        <v>0</v>
+      </c>
+      <c r="M40" s="142">
+        <v>0</v>
+      </c>
+      <c r="N40" s="142">
+        <v>0</v>
+      </c>
+      <c r="O40" s="142">
+        <v>0</v>
+      </c>
+      <c r="P40" s="142">
         <v>0</v>
       </c>
       <c r="Q40" s="4">
         <v>0</v>
       </c>
-      <c r="R40" s="147">
-        <v>0</v>
-      </c>
-      <c r="S40" s="151">
+      <c r="R40" s="144">
+        <v>0</v>
+      </c>
+      <c r="S40" s="148">
         <v>50007</v>
       </c>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="143">
+      <c r="A41" s="140">
         <v>200036</v>
       </c>
       <c r="B41" s="1">
         <v>5</v>
       </c>
-      <c r="C41" s="144">
+      <c r="C41" s="141">
         <v>10007</v>
       </c>
-      <c r="D41" s="147">
+      <c r="D41" s="144">
         <v>2</v>
       </c>
-      <c r="E41" s="147">
+      <c r="E41" s="144">
         <v>1.5</v>
       </c>
-      <c r="F41" s="147">
-        <v>1</v>
-      </c>
-      <c r="G41" s="147">
-        <v>1</v>
-      </c>
-      <c r="H41" s="147">
+      <c r="F41" s="144">
+        <v>1</v>
+      </c>
+      <c r="G41" s="144">
+        <v>1</v>
+      </c>
+      <c r="H41" s="144">
         <v>4</v>
       </c>
-      <c r="I41" s="147">
-        <v>1</v>
-      </c>
-      <c r="J41" s="147">
+      <c r="I41" s="144">
+        <v>1</v>
+      </c>
+      <c r="J41" s="144">
         <v>3</v>
       </c>
-      <c r="K41" s="150">
-        <v>0</v>
-      </c>
-      <c r="L41" s="146">
-        <v>0</v>
-      </c>
-      <c r="M41" s="145">
-        <v>0</v>
-      </c>
-      <c r="N41" s="145">
-        <v>0</v>
-      </c>
-      <c r="O41" s="145">
-        <v>0</v>
-      </c>
-      <c r="P41" s="145">
+      <c r="K41" s="147">
+        <v>0</v>
+      </c>
+      <c r="L41" s="143">
+        <v>0</v>
+      </c>
+      <c r="M41" s="142">
+        <v>0</v>
+      </c>
+      <c r="N41" s="142">
+        <v>0</v>
+      </c>
+      <c r="O41" s="142">
+        <v>0</v>
+      </c>
+      <c r="P41" s="142">
         <v>0</v>
       </c>
       <c r="Q41" s="4">
         <v>0</v>
       </c>
-      <c r="R41" s="147">
-        <v>0</v>
-      </c>
-      <c r="S41" s="148">
+      <c r="R41" s="144">
+        <v>0</v>
+      </c>
+      <c r="S41" s="145">
         <v>51003</v>
       </c>
       <c r="U41" s="25"/>
       <c r="V41" s="25"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="144">
+      <c r="A42" s="141">
         <v>200037</v>
       </c>
       <c r="B42" s="1">
         <v>5</v>
       </c>
-      <c r="C42" s="144">
+      <c r="C42" s="141">
         <v>10007</v>
       </c>
-      <c r="D42" s="147">
+      <c r="D42" s="144">
         <v>3</v>
       </c>
-      <c r="E42" s="147">
+      <c r="E42" s="144">
         <v>2</v>
       </c>
-      <c r="F42" s="147">
-        <v>1</v>
-      </c>
-      <c r="G42" s="147">
-        <v>1</v>
-      </c>
-      <c r="H42" s="147">
+      <c r="F42" s="144">
+        <v>1</v>
+      </c>
+      <c r="G42" s="144">
+        <v>1</v>
+      </c>
+      <c r="H42" s="144">
         <v>4</v>
       </c>
-      <c r="I42" s="147">
-        <v>1</v>
-      </c>
-      <c r="J42" s="147">
+      <c r="I42" s="144">
+        <v>1</v>
+      </c>
+      <c r="J42" s="144">
         <v>4</v>
       </c>
-      <c r="K42" s="150">
-        <v>0</v>
-      </c>
-      <c r="L42" s="146">
-        <v>0</v>
-      </c>
-      <c r="M42" s="145">
-        <v>0</v>
-      </c>
-      <c r="N42" s="145">
-        <v>0</v>
-      </c>
-      <c r="O42" s="145">
-        <v>0</v>
-      </c>
-      <c r="P42" s="145">
+      <c r="K42" s="147">
+        <v>0</v>
+      </c>
+      <c r="L42" s="143">
+        <v>0</v>
+      </c>
+      <c r="M42" s="142">
+        <v>0</v>
+      </c>
+      <c r="N42" s="142">
+        <v>0</v>
+      </c>
+      <c r="O42" s="142">
+        <v>0</v>
+      </c>
+      <c r="P42" s="142">
         <v>0</v>
       </c>
       <c r="Q42" s="4">
         <v>0</v>
       </c>
-      <c r="R42" s="147">
-        <v>0</v>
-      </c>
-      <c r="S42" s="148">
+      <c r="R42" s="144">
+        <v>0</v>
+      </c>
+      <c r="S42" s="145">
         <v>51003</v>
       </c>
       <c r="U42" s="25"/>
-      <c r="V42" s="152"/>
+      <c r="V42" s="149"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="143">
+      <c r="A43" s="140">
         <v>200038</v>
       </c>
       <c r="B43" s="1">
         <v>5</v>
       </c>
-      <c r="C43" s="144">
+      <c r="C43" s="141">
         <v>10007</v>
       </c>
-      <c r="D43" s="147">
+      <c r="D43" s="144">
         <v>4</v>
       </c>
-      <c r="E43" s="147">
+      <c r="E43" s="144">
         <v>2.5</v>
       </c>
-      <c r="F43" s="147">
-        <v>1</v>
-      </c>
-      <c r="G43" s="147">
-        <v>1</v>
-      </c>
-      <c r="H43" s="147">
+      <c r="F43" s="144">
+        <v>1</v>
+      </c>
+      <c r="G43" s="144">
+        <v>1</v>
+      </c>
+      <c r="H43" s="144">
         <v>4</v>
       </c>
-      <c r="I43" s="147">
-        <v>1</v>
-      </c>
-      <c r="J43" s="147">
+      <c r="I43" s="144">
+        <v>1</v>
+      </c>
+      <c r="J43" s="144">
         <v>5</v>
       </c>
-      <c r="K43" s="150">
-        <v>0</v>
-      </c>
-      <c r="L43" s="146">
-        <v>0</v>
-      </c>
-      <c r="M43" s="145">
-        <v>0</v>
-      </c>
-      <c r="N43" s="145">
-        <v>0</v>
-      </c>
-      <c r="O43" s="145">
-        <v>0</v>
-      </c>
-      <c r="P43" s="145">
+      <c r="K43" s="147">
+        <v>0</v>
+      </c>
+      <c r="L43" s="143">
+        <v>0</v>
+      </c>
+      <c r="M43" s="142">
+        <v>0</v>
+      </c>
+      <c r="N43" s="142">
+        <v>0</v>
+      </c>
+      <c r="O43" s="142">
+        <v>0</v>
+      </c>
+      <c r="P43" s="142">
         <v>0</v>
       </c>
       <c r="Q43" s="4">
         <v>0</v>
       </c>
-      <c r="R43" s="147">
-        <v>0</v>
-      </c>
-      <c r="S43" s="148">
+      <c r="R43" s="144">
+        <v>0</v>
+      </c>
+      <c r="S43" s="145">
         <v>51003</v>
       </c>
       <c r="U43" s="25"/>
       <c r="V43" s="18"/>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="144">
+      <c r="A44" s="141">
         <v>200039</v>
       </c>
       <c r="B44" s="1">
         <v>5</v>
       </c>
-      <c r="C44" s="144">
+      <c r="C44" s="141">
         <v>10007</v>
       </c>
-      <c r="D44" s="147">
+      <c r="D44" s="144">
         <v>5</v>
       </c>
-      <c r="E44" s="147">
+      <c r="E44" s="144">
         <v>3</v>
       </c>
-      <c r="F44" s="147">
-        <v>1</v>
-      </c>
-      <c r="G44" s="147">
-        <v>1</v>
-      </c>
-      <c r="H44" s="147">
+      <c r="F44" s="144">
+        <v>1</v>
+      </c>
+      <c r="G44" s="144">
+        <v>1</v>
+      </c>
+      <c r="H44" s="144">
         <v>4</v>
       </c>
-      <c r="I44" s="147">
-        <v>1</v>
-      </c>
-      <c r="J44" s="147">
+      <c r="I44" s="144">
+        <v>1</v>
+      </c>
+      <c r="J44" s="144">
         <v>6</v>
       </c>
-      <c r="K44" s="150">
-        <v>0</v>
-      </c>
-      <c r="L44" s="146">
-        <v>0</v>
-      </c>
-      <c r="M44" s="145">
-        <v>0</v>
-      </c>
-      <c r="N44" s="145">
-        <v>0</v>
-      </c>
-      <c r="O44" s="145">
-        <v>0</v>
-      </c>
-      <c r="P44" s="145">
+      <c r="K44" s="147">
+        <v>0</v>
+      </c>
+      <c r="L44" s="143">
+        <v>0</v>
+      </c>
+      <c r="M44" s="142">
+        <v>0</v>
+      </c>
+      <c r="N44" s="142">
+        <v>0</v>
+      </c>
+      <c r="O44" s="142">
+        <v>0</v>
+      </c>
+      <c r="P44" s="142">
         <v>0</v>
       </c>
       <c r="Q44" s="4">
         <v>0</v>
       </c>
-      <c r="R44" s="147">
-        <v>0</v>
-      </c>
-      <c r="S44" s="148">
+      <c r="R44" s="144">
+        <v>0</v>
+      </c>
+      <c r="S44" s="145">
         <v>51003</v>
       </c>
       <c r="U44" s="25"/>
-      <c r="V44" s="152"/>
+      <c r="V44" s="149"/>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="144"/>
-      <c r="S45" s="151"/>
+      <c r="A45" s="141"/>
+      <c r="S45" s="148"/>
       <c r="U45" s="25"/>
-      <c r="V45" s="153"/>
+      <c r="V45" s="150"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="144"/>
-      <c r="E46" s="150"/>
-      <c r="S46" s="151"/>
+      <c r="A46" s="141"/>
+      <c r="E46" s="147"/>
+      <c r="S46" s="148"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="S47" s="151"/>
+      <c r="S47" s="148"/>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="144"/>
-      <c r="S48" s="151"/>
+      <c r="A48" s="141"/>
+      <c r="S48" s="148"/>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="144"/>
-      <c r="S49" s="151"/>
+      <c r="A49" s="141"/>
+      <c r="S49" s="148"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="S50" s="151"/>
+      <c r="S50" s="148"/>
     </row>
     <row r="51" spans="1:19">
-      <c r="A51" s="144"/>
-      <c r="E51" s="150"/>
-      <c r="S51" s="151"/>
+      <c r="A51" s="141"/>
+      <c r="E51" s="147"/>
+      <c r="S51" s="148"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="144"/>
-      <c r="S52" s="151"/>
+      <c r="A52" s="141"/>
+      <c r="S52" s="148"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="144"/>
+      <c r="A54" s="141"/>
     </row>
     <row r="55" spans="1:19">
-      <c r="A55" s="144"/>
+      <c r="A55" s="141"/>
     </row>
     <row r="57" spans="1:19">
-      <c r="A57" s="144"/>
+      <c r="A57" s="141"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="144"/>
+      <c r="A58" s="141"/>
     </row>
     <row r="60" spans="1:19">
-      <c r="A60" s="144"/>
+      <c r="A60" s="141"/>
     </row>
     <row r="61" spans="1:19">
-      <c r="A61" s="144"/>
+      <c r="A61" s="141"/>
     </row>
     <row r="63" spans="1:19">
-      <c r="A63" s="144"/>
+      <c r="A63" s="141"/>
     </row>
     <row r="64" spans="1:19">
-      <c r="A64" s="144"/>
+      <c r="A64" s="141"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="144"/>
+      <c r="A66" s="141"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="144"/>
+      <c r="A67" s="141"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="144"/>
+      <c r="A68" s="141"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="144"/>
+      <c r="A69" s="141"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="144"/>
+      <c r="A71" s="141"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="144"/>
+      <c r="A72" s="141"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="144"/>
+      <c r="A74" s="141"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="144"/>
+      <c r="A75" s="141"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="144"/>
+      <c r="A77" s="141"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="144"/>
+      <c r="A78" s="141"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="144"/>
+      <c r="A80" s="141"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="144"/>
+      <c r="A81" s="141"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="144"/>
+      <c r="A82" s="141"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="144"/>
+      <c r="A83" s="141"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="144"/>
+      <c r="A84" s="141"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="144"/>
+      <c r="A85" s="141"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="144"/>
+      <c r="A86" s="141"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="144"/>
+      <c r="A87" s="141"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="144"/>
+      <c r="A88" s="141"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="144"/>
+      <c r="A89" s="141"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="144"/>
+      <c r="A90" s="141"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="144"/>
+      <c r="A91" s="141"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="144"/>
+      <c r="A92" s="141"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="144"/>
+      <c r="A93" s="141"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="144"/>
+      <c r="A94" s="141"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="144"/>
+      <c r="A95" s="141"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="144"/>
+      <c r="A96" s="141"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="144"/>
+      <c r="A97" s="141"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="144"/>
+      <c r="A98" s="141"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="144"/>
+      <c r="A99" s="141"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="144"/>
+      <c r="A100" s="141"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="144"/>
+      <c r="A101" s="141"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="144"/>
+      <c r="A102" s="141"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="144"/>
+      <c r="A103" s="141"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="144"/>
+      <c r="A104" s="141"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="144"/>
+      <c r="A105" s="141"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="144"/>
+      <c r="A106" s="141"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="144"/>
+      <c r="A107" s="141"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -47849,7 +47835,7 @@
       <c r="A1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="125" t="s">
         <v>386</v>
       </c>
       <c r="C1" s="21" t="s">
@@ -47915,7 +47901,7 @@
     </row>
     <row r="2" spans="1:26" s="36" customFormat="1" ht="16.5">
       <c r="A2" s="33"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="126" t="s">
         <v>387</v>
       </c>
       <c r="C2" s="34"/>
@@ -47977,7 +47963,7 @@
       <c r="A3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="126" t="s">
         <v>388</v>
       </c>
       <c r="C3" s="30" t="s">
@@ -48041,11 +48027,11 @@
       <c r="Y3" s="29"/>
       <c r="Z3" s="30"/>
     </row>
-    <row r="4" spans="1:26" s="133" customFormat="1" ht="16.5">
+    <row r="4" spans="1:26" s="130" customFormat="1" ht="16.5">
       <c r="A4" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="131" t="s">
         <v>384</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -48054,43 +48040,43 @@
       <c r="D4" s="102" t="s">
         <v>384</v>
       </c>
-      <c r="E4" s="130" t="s">
+      <c r="E4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="F4" s="130" t="s">
+      <c r="F4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="G4" s="130" t="s">
+      <c r="G4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="H4" s="130" t="s">
+      <c r="H4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="I4" s="130" t="s">
+      <c r="I4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="J4" s="130" t="s">
+      <c r="J4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="K4" s="130" t="s">
+      <c r="K4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="L4" s="130" t="s">
+      <c r="L4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="M4" s="130" t="s">
+      <c r="M4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="N4" s="130" t="s">
+      <c r="N4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="O4" s="130" t="s">
+      <c r="O4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="P4" s="130" t="s">
+      <c r="P4" s="127" t="s">
         <v>389</v>
       </c>
-      <c r="Q4" s="130" t="s">
+      <c r="Q4" s="127" t="s">
         <v>389</v>
       </c>
       <c r="R4" s="104" t="s">
@@ -48102,12 +48088,12 @@
       <c r="T4" s="102" t="s">
         <v>384</v>
       </c>
-      <c r="U4" s="131"/>
-      <c r="V4" s="131"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="131"/>
-      <c r="Z4" s="132"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="129"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="129"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="24">

--- a/contents/동물서바이벌/문서/동물서바이벌_테이블 - 포폴용.xlsx
+++ b/contents/동물서바이벌/문서/동물서바이벌_테이블 - 포폴용.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\wep_atens\contents\동물서바이벌\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHmedia\Documents\GitHub\wepatens\contents\동물서바이벌\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEF2052-0F2A-46CA-8CD5-1FA4B0A1EC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2369CD-DC28-4416-832C-C4301E6CEEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2996,8 +2996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD195E03-E275-43A1-A9D9-F390F0427CFB}">
   <dimension ref="A3:Z118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5413,8 +5413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D982B974-1C61-41D1-895A-758103E2748A}">
   <dimension ref="A1:Q803"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O85" sqref="O85:O93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -44736,7 +44736,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -47801,7 +47801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3462EFC5-EC71-4207-BB56-2CFCCE10914B}">
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/contents/동물서바이벌/문서/동물서바이벌_테이블 - 포폴용.xlsx
+++ b/contents/동물서바이벌/문서/동물서바이벌_테이블 - 포폴용.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHmedia\Documents\GitHub\wepatens\contents\동물서바이벌\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\wep_atens\contents\동물서바이벌\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2369CD-DC28-4416-832C-C4301E6CEEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA594FB8-8A1A-489C-894B-8326636047EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="3090" windowWidth="22920" windowHeight="15345" tabRatio="695" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메인" sheetId="11" r:id="rId1"/>
@@ -1141,10 +1141,6 @@
     <t>Magic Orb</t>
   </si>
   <si>
-    <t>수식 모음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이어 공격력 = (무기+장갑) + 특성 공격력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1603,6 +1599,10 @@
     <t xml:space="preserve">Desc </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>계산 수식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1913,7 +1913,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1946,18 +1946,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1983,6 +1971,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2120,7 +2114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2241,14 +2235,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -2260,10 +2254,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2279,44 +2273,44 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2332,9 +2326,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2359,48 +2350,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2422,30 +2378,6 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2464,7 +2396,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2563,13 +2495,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2994,10 +2979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD195E03-E275-43A1-A9D9-F390F0427CFB}">
-  <dimension ref="A3:Z118"/>
+  <dimension ref="A2:Z118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3007,7 +2992,7 @@
     <col min="3" max="3" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="77" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="76" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.875" style="1" bestFit="1" customWidth="1"/>
@@ -3025,18 +3010,24 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:16">
+      <c r="B2" s="153" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+    </row>
     <row r="3" spans="1:16">
-      <c r="B3" s="158" t="s">
-        <v>283</v>
-      </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="4"/>
-      <c r="B4" s="99" t="s">
-        <v>380</v>
+      <c r="B4" s="85" t="s">
+        <v>379</v>
       </c>
       <c r="C4" s="63"/>
       <c r="D4" s="63"/>
@@ -3064,7 +3055,7 @@
     <row r="6" spans="1:16">
       <c r="A6" s="4"/>
       <c r="B6" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="59"/>
@@ -3079,7 +3070,7 @@
     <row r="7" spans="1:16">
       <c r="A7" s="5"/>
       <c r="B7" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
@@ -3094,7 +3085,7 @@
     <row r="8" spans="1:16">
       <c r="A8" s="4"/>
       <c r="B8" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
@@ -3137,7 +3128,7 @@
     <row r="11" spans="1:16">
       <c r="A11" s="5"/>
       <c r="B11" s="56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
@@ -3152,7 +3143,7 @@
     <row r="12" spans="1:16">
       <c r="A12" s="4"/>
       <c r="B12" s="57" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C12" s="59"/>
       <c r="D12" s="59"/>
@@ -3167,7 +3158,7 @@
     <row r="13" spans="1:16">
       <c r="A13" s="4"/>
       <c r="B13" s="57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
@@ -3182,7 +3173,7 @@
     <row r="14" spans="1:16">
       <c r="A14" s="5"/>
       <c r="B14" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C14" s="60"/>
       <c r="D14" s="61"/>
@@ -3235,24 +3226,24 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="5"/>
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="157"/>
+      <c r="C18" s="155"/>
       <c r="D18" s="58" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="97" t="s">
+      <c r="G18" s="83" t="s">
         <v>185</v>
       </c>
-      <c r="H18" s="98" t="s">
-        <v>373</v>
-      </c>
-      <c r="I18" s="98" t="s">
+      <c r="H18" s="84" t="s">
         <v>372</v>
+      </c>
+      <c r="I18" s="84" t="s">
+        <v>371</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="5"/>
@@ -3269,10 +3260,10 @@
       <c r="C19" s="37">
         <v>199</v>
       </c>
-      <c r="D19" s="115" t="s">
+      <c r="D19" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="115" t="s">
+      <c r="E19" s="93" t="s">
         <v>37</v>
       </c>
       <c r="G19" s="37">
@@ -3299,13 +3290,13 @@
       <c r="C20" s="37">
         <v>299</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
       <c r="G20" s="38">
         <v>2</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I20" s="37">
         <v>2</v>
@@ -3323,13 +3314,13 @@
       <c r="C21" s="37">
         <v>399</v>
       </c>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
       <c r="G21" s="37">
         <v>3</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I21" s="37">
         <v>3</v>
@@ -3347,13 +3338,13 @@
       <c r="C22" s="37">
         <v>499</v>
       </c>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
       <c r="G22" s="38">
         <v>4</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I22" s="37">
         <v>4</v>
@@ -3371,13 +3362,13 @@
       <c r="C23" s="37">
         <v>599</v>
       </c>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
       <c r="G23" s="37">
         <v>5</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I23" s="37">
         <v>5</v>
@@ -3395,13 +3386,13 @@
       <c r="C24" s="37">
         <v>699</v>
       </c>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
       <c r="G24" s="38">
         <v>6</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I24" s="37">
         <v>6</v>
@@ -3419,13 +3410,13 @@
       <c r="C25" s="37">
         <v>799</v>
       </c>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
       <c r="G25" s="37">
         <v>7</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I25" s="37">
         <v>7</v>
@@ -3443,13 +3434,13 @@
       <c r="C26" s="37">
         <v>899</v>
       </c>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
       <c r="G26" s="38">
         <v>8</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I26" s="37">
         <v>8</v>
@@ -3467,8 +3458,8 @@
       <c r="C27" s="37">
         <v>999</v>
       </c>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
       <c r="G27" s="37">
         <v>9</v>
       </c>
@@ -3487,10 +3478,10 @@
       <c r="C28" s="39">
         <v>1999</v>
       </c>
-      <c r="D28" s="117" t="s">
+      <c r="D28" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="117" t="s">
+      <c r="E28" s="95" t="s">
         <v>33</v>
       </c>
       <c r="G28" s="38">
@@ -3511,10 +3502,10 @@
       <c r="C29" s="39">
         <v>2999</v>
       </c>
-      <c r="D29" s="118" t="s">
+      <c r="D29" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="118" t="s">
+      <c r="E29" s="96" t="s">
         <v>34</v>
       </c>
       <c r="G29" s="37">
@@ -3533,17 +3524,17 @@
       <c r="C30" s="39">
         <v>3999</v>
       </c>
-      <c r="D30" s="117" t="s">
+      <c r="D30" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="117" t="s">
+      <c r="E30" s="95" t="s">
         <v>35</v>
       </c>
       <c r="G30" s="38">
         <v>12</v>
       </c>
-      <c r="H30" s="117" t="s">
-        <v>382</v>
+      <c r="H30" s="95" t="s">
+        <v>381</v>
       </c>
       <c r="I30" s="39"/>
       <c r="L30" s="4"/>
@@ -3556,8 +3547,8 @@
       <c r="C31" s="39">
         <v>4999</v>
       </c>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
       <c r="G31" s="37">
         <v>13</v>
       </c>
@@ -3571,8 +3562,8 @@
       <c r="C32" s="39">
         <v>5999</v>
       </c>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
       <c r="G32" s="38">
         <v>14</v>
       </c>
@@ -3586,8 +3577,8 @@
       <c r="C33" s="39">
         <v>6999</v>
       </c>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
       <c r="G33" s="37">
         <v>15</v>
       </c>
@@ -3601,8 +3592,8 @@
       <c r="C34" s="39">
         <v>7999</v>
       </c>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
       <c r="G34" s="38">
         <v>16</v>
       </c>
@@ -3616,8 +3607,8 @@
       <c r="C35" s="39">
         <v>8999</v>
       </c>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
       <c r="G35" s="37">
         <v>17</v>
       </c>
@@ -3631,8 +3622,8 @@
       <c r="C36" s="39">
         <v>9999</v>
       </c>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
       <c r="G36" s="38">
         <v>18</v>
       </c>
@@ -3646,10 +3637,10 @@
       <c r="C37" s="41">
         <v>19999</v>
       </c>
-      <c r="D37" s="119" t="s">
+      <c r="D37" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="E37" s="119" t="s">
+      <c r="E37" s="97" t="s">
         <v>195</v>
       </c>
       <c r="G37" s="37">
@@ -3665,10 +3656,10 @@
       <c r="C38" s="41">
         <v>29999</v>
       </c>
-      <c r="D38" s="119" t="s">
+      <c r="D38" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="E38" s="119" t="s">
+      <c r="E38" s="97" t="s">
         <v>196</v>
       </c>
       <c r="G38" s="38">
@@ -3684,10 +3675,10 @@
       <c r="C39" s="41">
         <v>34999</v>
       </c>
-      <c r="D39" s="119" t="s">
+      <c r="D39" s="97" t="s">
         <v>192</v>
       </c>
-      <c r="E39" s="119" t="s">
+      <c r="E39" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G39" s="37">
@@ -3703,10 +3694,10 @@
       <c r="C40" s="41">
         <v>39999</v>
       </c>
-      <c r="D40" s="119" t="s">
+      <c r="D40" s="97" t="s">
         <v>272</v>
       </c>
-      <c r="E40" s="119" t="s">
+      <c r="E40" s="97" t="s">
         <v>273</v>
       </c>
       <c r="G40" s="38">
@@ -3722,10 +3713,10 @@
       <c r="C41" s="41">
         <v>49999</v>
       </c>
-      <c r="D41" s="119" t="s">
+      <c r="D41" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="119" t="s">
+      <c r="E41" s="97" t="s">
         <v>198</v>
       </c>
       <c r="G41" s="37">
@@ -3741,10 +3732,10 @@
       <c r="C42" s="41">
         <v>59999</v>
       </c>
-      <c r="D42" s="119" t="s">
+      <c r="D42" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="E42" s="119" t="s">
+      <c r="E42" s="97" t="s">
         <v>199</v>
       </c>
       <c r="G42" s="38">
@@ -3760,10 +3751,10 @@
       <c r="C43" s="41">
         <v>69999</v>
       </c>
-      <c r="D43" s="119" t="s">
+      <c r="D43" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="E43" s="119" t="s">
+      <c r="E43" s="97" t="s">
         <v>200</v>
       </c>
       <c r="G43" s="37">
@@ -3779,10 +3770,10 @@
       <c r="C44" s="41">
         <v>79999</v>
       </c>
-      <c r="D44" s="119" t="s">
+      <c r="D44" s="97" t="s">
         <v>194</v>
       </c>
-      <c r="E44" s="119" t="s">
+      <c r="E44" s="97" t="s">
         <v>201</v>
       </c>
       <c r="G44" s="38">
@@ -3798,10 +3789,10 @@
       <c r="C45" s="41">
         <v>89999</v>
       </c>
-      <c r="D45" s="120" t="s">
+      <c r="D45" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="119" t="s">
+      <c r="E45" s="97" t="s">
         <v>202</v>
       </c>
       <c r="G45" s="37">
@@ -3817,10 +3808,10 @@
       <c r="C46" s="41">
         <v>99999</v>
       </c>
-      <c r="D46" s="120" t="s">
+      <c r="D46" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="119" t="s">
+      <c r="E46" s="97" t="s">
         <v>203</v>
       </c>
       <c r="G46" s="38">
@@ -3836,10 +3827,10 @@
       <c r="C47" s="50">
         <v>199999</v>
       </c>
-      <c r="D47" s="121" t="s">
+      <c r="D47" s="99" t="s">
         <v>257</v>
       </c>
-      <c r="E47" s="121" t="s">
+      <c r="E47" s="99" t="s">
         <v>259</v>
       </c>
       <c r="G47" s="37">
@@ -3855,10 +3846,10 @@
       <c r="C48" s="50">
         <v>299999</v>
       </c>
-      <c r="D48" s="121" t="s">
+      <c r="D48" s="99" t="s">
         <v>261</v>
       </c>
-      <c r="E48" s="121" t="s">
+      <c r="E48" s="99" t="s">
         <v>258</v>
       </c>
       <c r="G48" s="38">
@@ -3874,10 +3865,10 @@
       <c r="C49" s="50">
         <v>399999</v>
       </c>
-      <c r="D49" s="121" t="s">
+      <c r="D49" s="99" t="s">
         <v>262</v>
       </c>
-      <c r="E49" s="121" t="s">
+      <c r="E49" s="99" t="s">
         <v>260</v>
       </c>
       <c r="G49" s="37">
@@ -3977,28 +3968,28 @@
       <c r="I55" s="50"/>
     </row>
     <row r="58" spans="2:17" ht="20.25">
-      <c r="B58" s="156" t="s">
-        <v>315</v>
-      </c>
-      <c r="C58" s="156"/>
-      <c r="D58" s="156"/>
-      <c r="E58" s="156"/>
-      <c r="G58" s="156" t="s">
-        <v>348</v>
-      </c>
-      <c r="H58" s="156"/>
-      <c r="I58" s="156"/>
-      <c r="J58" s="156"/>
+      <c r="B58" s="154" t="s">
+        <v>314</v>
+      </c>
+      <c r="C58" s="154"/>
+      <c r="D58" s="154"/>
+      <c r="E58" s="154"/>
+      <c r="G58" s="154" t="s">
+        <v>347</v>
+      </c>
+      <c r="H58" s="154"/>
+      <c r="I58" s="154"/>
+      <c r="J58" s="154"/>
     </row>
     <row r="59" spans="2:17">
       <c r="B59" s="49" t="s">
         <v>185</v>
       </c>
       <c r="C59" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="D59" s="49" t="s">
         <v>291</v>
-      </c>
-      <c r="D59" s="49" t="s">
-        <v>292</v>
       </c>
       <c r="E59" s="49" t="s">
         <v>5</v>
@@ -4007,62 +3998,62 @@
         <v>185</v>
       </c>
       <c r="H59" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="I59" s="49" t="s">
         <v>291</v>
-      </c>
-      <c r="I59" s="49" t="s">
-        <v>292</v>
       </c>
       <c r="J59" s="49" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="2:17">
-      <c r="B60" s="76">
-        <v>1</v>
-      </c>
-      <c r="C60" s="94" t="s">
+      <c r="B60" s="134">
+        <v>1</v>
+      </c>
+      <c r="C60" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="112" t="s">
+      <c r="D60" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="112" t="s">
+      <c r="E60" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="G60" s="88">
-        <v>1</v>
-      </c>
-      <c r="H60" s="87" t="s">
+      <c r="G60" s="141">
+        <v>1</v>
+      </c>
+      <c r="H60" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="I60" s="88" t="s">
-        <v>321</v>
-      </c>
-      <c r="J60" s="89"/>
+      <c r="I60" s="141" t="s">
+        <v>320</v>
+      </c>
+      <c r="J60" s="143"/>
     </row>
     <row r="61" spans="2:17">
-      <c r="B61" s="76">
+      <c r="B61" s="134">
         <v>2</v>
       </c>
-      <c r="C61" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="112" t="s">
+      <c r="C61" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="E61" s="112" t="s">
-        <v>306</v>
-      </c>
-      <c r="F61" s="78"/>
-      <c r="G61" s="88">
+      <c r="E61" s="136" t="s">
+        <v>305</v>
+      </c>
+      <c r="F61" s="77"/>
+      <c r="G61" s="141">
         <v>2</v>
       </c>
-      <c r="H61" s="87" t="s">
+      <c r="H61" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="I61" s="88"/>
-      <c r="J61" s="107" t="s">
-        <v>349</v>
+      <c r="I61" s="141"/>
+      <c r="J61" s="144" t="s">
+        <v>348</v>
       </c>
       <c r="K61" s="70"/>
       <c r="L61" s="70"/>
@@ -4073,29 +4064,29 @@
       <c r="Q61" s="70"/>
     </row>
     <row r="62" spans="2:17">
-      <c r="B62" s="76">
+      <c r="B62" s="134">
         <v>3</v>
       </c>
-      <c r="C62" s="94" t="s">
+      <c r="C62" s="135" t="s">
         <v>230</v>
       </c>
-      <c r="D62" s="112" t="s">
-        <v>293</v>
-      </c>
-      <c r="E62" s="112" t="s">
-        <v>309</v>
-      </c>
-      <c r="F62" s="78"/>
-      <c r="G62" s="88">
+      <c r="D62" s="136" t="s">
+        <v>292</v>
+      </c>
+      <c r="E62" s="136" t="s">
+        <v>308</v>
+      </c>
+      <c r="F62" s="77"/>
+      <c r="G62" s="141">
         <v>3</v>
       </c>
-      <c r="H62" s="87" t="s">
+      <c r="H62" s="142" t="s">
         <v>265</v>
       </c>
-      <c r="I62" s="90" t="s">
+      <c r="I62" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="J62" s="90" t="s">
+      <c r="J62" s="145" t="s">
         <v>10</v>
       </c>
       <c r="K62" s="70"/>
@@ -4107,29 +4098,29 @@
       <c r="Q62" s="70"/>
     </row>
     <row r="63" spans="2:17">
-      <c r="B63" s="76">
+      <c r="B63" s="134">
         <v>4</v>
       </c>
-      <c r="C63" s="94" t="s">
+      <c r="C63" s="135" t="s">
         <v>171</v>
       </c>
-      <c r="D63" s="112" t="s">
-        <v>294</v>
-      </c>
-      <c r="E63" s="112" t="s">
-        <v>308</v>
-      </c>
-      <c r="F63" s="78"/>
-      <c r="G63" s="88">
+      <c r="D63" s="136" t="s">
+        <v>293</v>
+      </c>
+      <c r="E63" s="136" t="s">
+        <v>307</v>
+      </c>
+      <c r="F63" s="77"/>
+      <c r="G63" s="141">
         <v>4</v>
       </c>
-      <c r="H63" s="87" t="s">
+      <c r="H63" s="142" t="s">
         <v>266</v>
       </c>
-      <c r="I63" s="90" t="s">
+      <c r="I63" s="145" t="s">
         <v>148</v>
       </c>
-      <c r="J63" s="90" t="s">
+      <c r="J63" s="145" t="s">
         <v>263</v>
       </c>
       <c r="K63" s="70"/>
@@ -4141,29 +4132,29 @@
       <c r="Q63" s="70"/>
     </row>
     <row r="64" spans="2:17">
-      <c r="B64" s="76">
+      <c r="B64" s="134">
         <v>5</v>
       </c>
-      <c r="C64" s="95" t="s">
+      <c r="C64" s="137" t="s">
         <v>231</v>
       </c>
-      <c r="D64" s="113" t="s">
-        <v>295</v>
-      </c>
-      <c r="E64" s="112" t="s">
-        <v>307</v>
-      </c>
-      <c r="F64" s="78"/>
-      <c r="G64" s="88">
+      <c r="D64" s="138" t="s">
+        <v>294</v>
+      </c>
+      <c r="E64" s="136" t="s">
+        <v>306</v>
+      </c>
+      <c r="F64" s="77"/>
+      <c r="G64" s="141">
         <v>5</v>
       </c>
-      <c r="H64" s="87" t="s">
+      <c r="H64" s="142" t="s">
         <v>267</v>
       </c>
-      <c r="I64" s="91" t="s">
+      <c r="I64" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="J64" s="91" t="s">
+      <c r="J64" s="146" t="s">
         <v>72</v>
       </c>
       <c r="K64" s="70"/>
@@ -4175,29 +4166,29 @@
       <c r="Q64" s="70"/>
     </row>
     <row r="65" spans="2:26">
-      <c r="B65" s="76">
+      <c r="B65" s="134">
         <v>6</v>
       </c>
-      <c r="C65" s="94" t="s">
+      <c r="C65" s="135" t="s">
         <v>232</v>
       </c>
-      <c r="D65" s="112" t="s">
-        <v>296</v>
-      </c>
-      <c r="E65" s="112" t="s">
-        <v>310</v>
-      </c>
-      <c r="F65" s="79"/>
-      <c r="G65" s="88">
+      <c r="D65" s="136" t="s">
+        <v>295</v>
+      </c>
+      <c r="E65" s="136" t="s">
+        <v>309</v>
+      </c>
+      <c r="F65" s="78"/>
+      <c r="G65" s="141">
         <v>6</v>
       </c>
-      <c r="H65" s="87" t="s">
+      <c r="H65" s="142" t="s">
         <v>269</v>
       </c>
-      <c r="I65" s="91" t="s">
+      <c r="I65" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="J65" s="91" t="s">
+      <c r="J65" s="146" t="s">
         <v>51</v>
       </c>
       <c r="K65" s="71"/>
@@ -4209,29 +4200,29 @@
       <c r="Q65" s="71"/>
     </row>
     <row r="66" spans="2:26">
-      <c r="B66" s="76">
+      <c r="B66" s="134">
         <v>7</v>
       </c>
-      <c r="C66" s="94" t="s">
+      <c r="C66" s="135" t="s">
         <v>233</v>
       </c>
-      <c r="D66" s="112" t="s">
-        <v>297</v>
-      </c>
-      <c r="E66" s="112" t="s">
-        <v>311</v>
-      </c>
-      <c r="F66" s="78"/>
-      <c r="G66" s="92">
+      <c r="D66" s="136" t="s">
+        <v>296</v>
+      </c>
+      <c r="E66" s="136" t="s">
+        <v>310</v>
+      </c>
+      <c r="F66" s="77"/>
+      <c r="G66" s="147">
         <v>7</v>
       </c>
-      <c r="H66" s="87" t="s">
+      <c r="H66" s="142" t="s">
         <v>268</v>
       </c>
-      <c r="I66" s="91" t="s">
+      <c r="I66" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="J66" s="91" t="s">
+      <c r="J66" s="146" t="s">
         <v>50</v>
       </c>
       <c r="K66" s="70"/>
@@ -4243,29 +4234,29 @@
       <c r="Q66" s="70"/>
     </row>
     <row r="67" spans="2:26">
-      <c r="B67" s="76">
+      <c r="B67" s="134">
         <v>8</v>
       </c>
-      <c r="C67" s="94" t="s">
+      <c r="C67" s="135" t="s">
         <v>234</v>
       </c>
-      <c r="D67" s="112" t="s">
-        <v>298</v>
-      </c>
-      <c r="E67" s="112" t="s">
-        <v>312</v>
-      </c>
-      <c r="F67" s="78"/>
-      <c r="G67" s="88">
+      <c r="D67" s="136" t="s">
+        <v>297</v>
+      </c>
+      <c r="E67" s="136" t="s">
+        <v>311</v>
+      </c>
+      <c r="F67" s="77"/>
+      <c r="G67" s="141">
         <v>8</v>
       </c>
-      <c r="H67" s="87" t="s">
+      <c r="H67" s="142" t="s">
         <v>270</v>
       </c>
-      <c r="I67" s="91" t="s">
+      <c r="I67" s="146" t="s">
         <v>146</v>
       </c>
-      <c r="J67" s="93" t="s">
+      <c r="J67" s="148" t="s">
         <v>42</v>
       </c>
       <c r="K67" s="70"/>
@@ -4277,19 +4268,19 @@
       <c r="Q67" s="70"/>
     </row>
     <row r="68" spans="2:26">
-      <c r="B68" s="76">
+      <c r="B68" s="134">
         <v>9</v>
       </c>
-      <c r="C68" s="96" t="s">
+      <c r="C68" s="139" t="s">
         <v>235</v>
       </c>
-      <c r="D68" s="114" t="s">
-        <v>299</v>
-      </c>
-      <c r="E68" s="112" t="s">
-        <v>313</v>
-      </c>
-      <c r="F68" s="78"/>
+      <c r="D68" s="140" t="s">
+        <v>298</v>
+      </c>
+      <c r="E68" s="136" t="s">
+        <v>312</v>
+      </c>
+      <c r="F68" s="77"/>
       <c r="G68" s="73"/>
       <c r="H68" s="73"/>
       <c r="I68" s="73"/>
@@ -4303,19 +4294,19 @@
       <c r="Q68" s="70"/>
     </row>
     <row r="69" spans="2:26">
-      <c r="B69" s="76">
+      <c r="B69" s="134">
         <v>10</v>
       </c>
-      <c r="C69" s="94" t="s">
+      <c r="C69" s="135" t="s">
         <v>236</v>
       </c>
-      <c r="D69" s="112" t="s">
-        <v>300</v>
-      </c>
-      <c r="E69" s="112" t="s">
-        <v>314</v>
-      </c>
-      <c r="F69" s="80"/>
+      <c r="D69" s="136" t="s">
+        <v>299</v>
+      </c>
+      <c r="E69" s="136" t="s">
+        <v>313</v>
+      </c>
+      <c r="F69" s="79"/>
       <c r="G69" s="74"/>
       <c r="H69" s="74"/>
       <c r="I69" s="74"/>
@@ -4329,19 +4320,19 @@
       <c r="Q69" s="72"/>
     </row>
     <row r="70" spans="2:26">
-      <c r="B70" s="76">
+      <c r="B70" s="134">
         <v>11</v>
       </c>
-      <c r="C70" s="94" t="s">
+      <c r="C70" s="135" t="s">
         <v>237</v>
       </c>
-      <c r="D70" s="112" t="s">
-        <v>301</v>
-      </c>
-      <c r="E70" s="112" t="s">
-        <v>317</v>
-      </c>
-      <c r="F70" s="78"/>
+      <c r="D70" s="136" t="s">
+        <v>300</v>
+      </c>
+      <c r="E70" s="136" t="s">
+        <v>316</v>
+      </c>
+      <c r="F70" s="77"/>
       <c r="G70" s="73"/>
       <c r="H70" s="73"/>
       <c r="I70" s="73"/>
@@ -4355,19 +4346,19 @@
       <c r="Q70" s="70"/>
     </row>
     <row r="71" spans="2:26">
-      <c r="B71" s="76">
+      <c r="B71" s="134">
         <v>12</v>
       </c>
-      <c r="C71" s="94" t="s">
+      <c r="C71" s="135" t="s">
         <v>238</v>
       </c>
-      <c r="D71" s="112" t="s">
-        <v>302</v>
-      </c>
-      <c r="E71" s="112" t="s">
-        <v>316</v>
-      </c>
-      <c r="F71" s="78"/>
+      <c r="D71" s="136" t="s">
+        <v>301</v>
+      </c>
+      <c r="E71" s="136" t="s">
+        <v>315</v>
+      </c>
+      <c r="F71" s="77"/>
       <c r="G71" s="73"/>
       <c r="H71" s="73"/>
       <c r="I71" s="73"/>
@@ -4381,19 +4372,19 @@
       <c r="Q71" s="70"/>
     </row>
     <row r="72" spans="2:26">
-      <c r="B72" s="76">
+      <c r="B72" s="134">
         <v>13</v>
       </c>
-      <c r="C72" s="94" t="s">
+      <c r="C72" s="135" t="s">
         <v>239</v>
       </c>
-      <c r="D72" s="112" t="s">
-        <v>303</v>
-      </c>
-      <c r="E72" s="112" t="s">
-        <v>318</v>
-      </c>
-      <c r="F72" s="78"/>
+      <c r="D72" s="136" t="s">
+        <v>302</v>
+      </c>
+      <c r="E72" s="136" t="s">
+        <v>317</v>
+      </c>
+      <c r="F72" s="77"/>
       <c r="G72" s="73"/>
       <c r="H72" s="73"/>
       <c r="I72" s="73"/>
@@ -4407,19 +4398,19 @@
       <c r="Q72" s="70"/>
     </row>
     <row r="73" spans="2:26">
-      <c r="B73" s="76">
+      <c r="B73" s="134">
         <v>14</v>
       </c>
-      <c r="C73" s="94" t="s">
+      <c r="C73" s="135" t="s">
         <v>240</v>
       </c>
-      <c r="D73" s="112" t="s">
-        <v>304</v>
-      </c>
-      <c r="E73" s="112" t="s">
-        <v>319</v>
-      </c>
-      <c r="F73" s="78"/>
+      <c r="D73" s="136" t="s">
+        <v>303</v>
+      </c>
+      <c r="E73" s="136" t="s">
+        <v>318</v>
+      </c>
+      <c r="F73" s="77"/>
       <c r="G73" s="73"/>
       <c r="H73" s="73"/>
       <c r="I73" s="73"/>
@@ -4433,19 +4424,19 @@
       <c r="Q73" s="70"/>
     </row>
     <row r="74" spans="2:26">
-      <c r="B74" s="76">
+      <c r="B74" s="134">
         <v>15</v>
       </c>
-      <c r="C74" s="94" t="s">
+      <c r="C74" s="135" t="s">
         <v>241</v>
       </c>
-      <c r="D74" s="112" t="s">
-        <v>305</v>
-      </c>
-      <c r="E74" s="112" t="s">
-        <v>320</v>
-      </c>
-      <c r="F74" s="78"/>
+      <c r="D74" s="136" t="s">
+        <v>304</v>
+      </c>
+      <c r="E74" s="136" t="s">
+        <v>319</v>
+      </c>
+      <c r="F74" s="77"/>
       <c r="G74" s="73"/>
       <c r="H74" s="73"/>
       <c r="I74" s="73"/>
@@ -4460,8 +4451,8 @@
     </row>
     <row r="75" spans="2:26">
       <c r="C75" s="73"/>
-      <c r="D75" s="78"/>
-      <c r="E75" s="78"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="77"/>
       <c r="F75" s="73"/>
       <c r="G75" s="73"/>
       <c r="H75" s="73"/>
@@ -4475,33 +4466,33 @@
       <c r="P75" s="70"/>
     </row>
     <row r="76" spans="2:26">
-      <c r="E76" s="77"/>
+      <c r="E76" s="76"/>
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="2:26" ht="20.25">
-      <c r="B77" s="156" t="s">
-        <v>366</v>
-      </c>
-      <c r="C77" s="156"/>
-      <c r="D77" s="156"/>
-      <c r="E77" s="156"/>
+      <c r="B77" s="154" t="s">
+        <v>365</v>
+      </c>
+      <c r="C77" s="154"/>
+      <c r="D77" s="154"/>
+      <c r="E77" s="154"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="156" t="s">
-        <v>347</v>
-      </c>
-      <c r="H77" s="156"/>
-      <c r="I77" s="156"/>
-      <c r="J77" s="156"/>
+      <c r="G77" s="154" t="s">
+        <v>346</v>
+      </c>
+      <c r="H77" s="154"/>
+      <c r="I77" s="154"/>
+      <c r="J77" s="154"/>
     </row>
     <row r="78" spans="2:26" ht="17.25">
       <c r="B78" s="49" t="s">
         <v>185</v>
       </c>
       <c r="C78" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="D78" s="49" t="s">
         <v>291</v>
-      </c>
-      <c r="D78" s="49" t="s">
-        <v>292</v>
       </c>
       <c r="E78" s="49" t="s">
         <v>5</v>
@@ -4513,24 +4504,24 @@
         <v>43</v>
       </c>
       <c r="I78" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J78" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="2:26" ht="17.25">
-      <c r="B79" s="84">
-        <v>1</v>
-      </c>
-      <c r="C79" s="85" t="s">
+      <c r="B79" s="134">
+        <v>1</v>
+      </c>
+      <c r="C79" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="D79" s="108" t="s">
+      <c r="D79" s="136" t="s">
+        <v>320</v>
+      </c>
+      <c r="E79" s="136" t="s">
         <v>321</v>
-      </c>
-      <c r="E79" s="108" t="s">
-        <v>322</v>
       </c>
       <c r="G79" s="21">
         <v>1</v>
@@ -4539,40 +4530,40 @@
         <v>44</v>
       </c>
       <c r="I79" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="J79" s="136" t="s">
         <v>367</v>
       </c>
-      <c r="J79" s="108" t="s">
-        <v>368</v>
-      </c>
-      <c r="K79" s="81"/>
-      <c r="L79" s="81"/>
-      <c r="M79" s="81"/>
-      <c r="N79" s="81"/>
-      <c r="O79" s="81"/>
-      <c r="P79" s="81"/>
-      <c r="Q79" s="81"/>
-      <c r="R79" s="81"/>
-      <c r="S79" s="81"/>
-      <c r="T79" s="81"/>
-      <c r="U79" s="81"/>
-      <c r="V79" s="81"/>
-      <c r="W79" s="81"/>
-      <c r="X79" s="81"/>
-      <c r="Y79" s="81"/>
-      <c r="Z79" s="81"/>
+      <c r="K79" s="80"/>
+      <c r="L79" s="80"/>
+      <c r="M79" s="80"/>
+      <c r="N79" s="80"/>
+      <c r="O79" s="80"/>
+      <c r="P79" s="80"/>
+      <c r="Q79" s="80"/>
+      <c r="R79" s="80"/>
+      <c r="S79" s="80"/>
+      <c r="T79" s="80"/>
+      <c r="U79" s="80"/>
+      <c r="V79" s="80"/>
+      <c r="W79" s="80"/>
+      <c r="X79" s="80"/>
+      <c r="Y79" s="80"/>
+      <c r="Z79" s="80"/>
     </row>
     <row r="80" spans="2:26" ht="17.25">
-      <c r="B80" s="84">
+      <c r="B80" s="134">
         <v>2</v>
       </c>
-      <c r="C80" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80" s="108" t="s">
+      <c r="C80" s="151" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="E80" s="108" t="s">
-        <v>323</v>
+      <c r="E80" s="136" t="s">
+        <v>322</v>
       </c>
       <c r="G80" s="21">
         <v>2</v>
@@ -4583,38 +4574,38 @@
       <c r="I80" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J80" s="108" t="s">
-        <v>361</v>
-      </c>
-      <c r="K80" s="82"/>
-      <c r="L80" s="82"/>
-      <c r="M80" s="82"/>
-      <c r="N80" s="82"/>
-      <c r="O80" s="82"/>
-      <c r="P80" s="82"/>
-      <c r="Q80" s="82"/>
-      <c r="R80" s="82"/>
-      <c r="S80" s="82"/>
-      <c r="T80" s="82"/>
-      <c r="U80" s="82"/>
-      <c r="V80" s="82"/>
-      <c r="W80" s="82"/>
-      <c r="X80" s="82"/>
-      <c r="Y80" s="82"/>
-      <c r="Z80" s="82"/>
+      <c r="J80" s="136" t="s">
+        <v>360</v>
+      </c>
+      <c r="K80" s="81"/>
+      <c r="L80" s="81"/>
+      <c r="M80" s="81"/>
+      <c r="N80" s="81"/>
+      <c r="O80" s="81"/>
+      <c r="P80" s="81"/>
+      <c r="Q80" s="81"/>
+      <c r="R80" s="81"/>
+      <c r="S80" s="81"/>
+      <c r="T80" s="81"/>
+      <c r="U80" s="81"/>
+      <c r="V80" s="81"/>
+      <c r="W80" s="81"/>
+      <c r="X80" s="81"/>
+      <c r="Y80" s="81"/>
+      <c r="Z80" s="81"/>
     </row>
     <row r="81" spans="2:26" ht="17.25">
-      <c r="B81" s="84">
+      <c r="B81" s="134">
         <v>3</v>
       </c>
-      <c r="C81" s="86" t="s">
+      <c r="C81" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="108" t="s">
+      <c r="D81" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="108" t="s">
-        <v>324</v>
+      <c r="E81" s="136" t="s">
+        <v>323</v>
       </c>
       <c r="G81" s="21">
         <v>3</v>
@@ -4625,38 +4616,38 @@
       <c r="I81" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J81" s="108" t="s">
-        <v>362</v>
-      </c>
-      <c r="K81" s="82"/>
-      <c r="L81" s="82"/>
-      <c r="M81" s="82"/>
-      <c r="N81" s="82"/>
-      <c r="O81" s="82"/>
-      <c r="P81" s="82"/>
-      <c r="Q81" s="82"/>
-      <c r="R81" s="82"/>
-      <c r="S81" s="82"/>
-      <c r="T81" s="82"/>
-      <c r="U81" s="82"/>
-      <c r="V81" s="82"/>
-      <c r="W81" s="82"/>
-      <c r="X81" s="82"/>
-      <c r="Y81" s="82"/>
-      <c r="Z81" s="82"/>
+      <c r="J81" s="136" t="s">
+        <v>361</v>
+      </c>
+      <c r="K81" s="81"/>
+      <c r="L81" s="81"/>
+      <c r="M81" s="81"/>
+      <c r="N81" s="81"/>
+      <c r="O81" s="81"/>
+      <c r="P81" s="81"/>
+      <c r="Q81" s="81"/>
+      <c r="R81" s="81"/>
+      <c r="S81" s="81"/>
+      <c r="T81" s="81"/>
+      <c r="U81" s="81"/>
+      <c r="V81" s="81"/>
+      <c r="W81" s="81"/>
+      <c r="X81" s="81"/>
+      <c r="Y81" s="81"/>
+      <c r="Z81" s="81"/>
     </row>
     <row r="82" spans="2:26" ht="17.25">
-      <c r="B82" s="84">
+      <c r="B82" s="134">
         <v>4</v>
       </c>
-      <c r="C82" s="86" t="s">
+      <c r="C82" s="151" t="s">
         <v>242</v>
       </c>
-      <c r="D82" s="110" t="s">
+      <c r="D82" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="108" t="s">
-        <v>360</v>
+      <c r="E82" s="136" t="s">
+        <v>359</v>
       </c>
       <c r="G82" s="21">
         <v>4</v>
@@ -4667,38 +4658,38 @@
       <c r="I82" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="J82" s="108" t="s">
-        <v>363</v>
-      </c>
-      <c r="K82" s="82"/>
-      <c r="L82" s="82"/>
-      <c r="M82" s="82"/>
-      <c r="N82" s="82"/>
-      <c r="O82" s="82"/>
-      <c r="P82" s="82"/>
-      <c r="Q82" s="82"/>
-      <c r="R82" s="82"/>
-      <c r="S82" s="82"/>
-      <c r="T82" s="82"/>
-      <c r="U82" s="82"/>
-      <c r="V82" s="82"/>
-      <c r="W82" s="82"/>
-      <c r="X82" s="82"/>
-      <c r="Y82" s="82"/>
-      <c r="Z82" s="82"/>
+      <c r="J82" s="136" t="s">
+        <v>362</v>
+      </c>
+      <c r="K82" s="81"/>
+      <c r="L82" s="81"/>
+      <c r="M82" s="81"/>
+      <c r="N82" s="81"/>
+      <c r="O82" s="81"/>
+      <c r="P82" s="81"/>
+      <c r="Q82" s="81"/>
+      <c r="R82" s="81"/>
+      <c r="S82" s="81"/>
+      <c r="T82" s="81"/>
+      <c r="U82" s="81"/>
+      <c r="V82" s="81"/>
+      <c r="W82" s="81"/>
+      <c r="X82" s="81"/>
+      <c r="Y82" s="81"/>
+      <c r="Z82" s="81"/>
     </row>
     <row r="83" spans="2:26" ht="17.25">
-      <c r="B83" s="84">
+      <c r="B83" s="134">
         <v>5</v>
       </c>
-      <c r="C83" s="86" t="s">
+      <c r="C83" s="151" t="s">
         <v>152</v>
       </c>
-      <c r="D83" s="108" t="s">
-        <v>331</v>
-      </c>
-      <c r="E83" s="108" t="s">
-        <v>359</v>
+      <c r="D83" s="136" t="s">
+        <v>330</v>
+      </c>
+      <c r="E83" s="136" t="s">
+        <v>358</v>
       </c>
       <c r="G83" s="21">
         <v>5</v>
@@ -4709,38 +4700,38 @@
       <c r="I83" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="J83" s="108" t="s">
-        <v>344</v>
-      </c>
-      <c r="K83" s="82"/>
-      <c r="L83" s="82"/>
-      <c r="M83" s="82"/>
-      <c r="N83" s="82"/>
-      <c r="O83" s="82"/>
-      <c r="P83" s="82"/>
-      <c r="Q83" s="82"/>
-      <c r="R83" s="82"/>
-      <c r="S83" s="82"/>
-      <c r="T83" s="82"/>
-      <c r="U83" s="82"/>
-      <c r="V83" s="82"/>
-      <c r="W83" s="82"/>
-      <c r="X83" s="82"/>
-      <c r="Y83" s="82"/>
-      <c r="Z83" s="82"/>
+      <c r="J83" s="136" t="s">
+        <v>343</v>
+      </c>
+      <c r="K83" s="81"/>
+      <c r="L83" s="81"/>
+      <c r="M83" s="81"/>
+      <c r="N83" s="81"/>
+      <c r="O83" s="81"/>
+      <c r="P83" s="81"/>
+      <c r="Q83" s="81"/>
+      <c r="R83" s="81"/>
+      <c r="S83" s="81"/>
+      <c r="T83" s="81"/>
+      <c r="U83" s="81"/>
+      <c r="V83" s="81"/>
+      <c r="W83" s="81"/>
+      <c r="X83" s="81"/>
+      <c r="Y83" s="81"/>
+      <c r="Z83" s="81"/>
     </row>
     <row r="84" spans="2:26" ht="17.25">
-      <c r="B84" s="84">
+      <c r="B84" s="134">
         <v>6</v>
       </c>
-      <c r="C84" s="86" t="s">
+      <c r="C84" s="151" t="s">
         <v>153</v>
       </c>
-      <c r="D84" s="108" t="s">
+      <c r="D84" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="E84" s="108" t="s">
-        <v>370</v>
+      <c r="E84" s="136" t="s">
+        <v>369</v>
       </c>
       <c r="G84" s="21">
         <v>6</v>
@@ -4751,38 +4742,38 @@
       <c r="I84" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="J84" s="108" t="s">
-        <v>369</v>
-      </c>
-      <c r="K84" s="82"/>
-      <c r="L84" s="82"/>
-      <c r="M84" s="82"/>
-      <c r="N84" s="82"/>
-      <c r="O84" s="82"/>
-      <c r="P84" s="82"/>
-      <c r="Q84" s="82"/>
-      <c r="R84" s="82"/>
-      <c r="S84" s="82"/>
-      <c r="T84" s="82"/>
-      <c r="U84" s="82"/>
-      <c r="V84" s="82"/>
-      <c r="W84" s="82"/>
-      <c r="X84" s="82"/>
-      <c r="Y84" s="82"/>
-      <c r="Z84" s="82"/>
+      <c r="J84" s="136" t="s">
+        <v>368</v>
+      </c>
+      <c r="K84" s="81"/>
+      <c r="L84" s="81"/>
+      <c r="M84" s="81"/>
+      <c r="N84" s="81"/>
+      <c r="O84" s="81"/>
+      <c r="P84" s="81"/>
+      <c r="Q84" s="81"/>
+      <c r="R84" s="81"/>
+      <c r="S84" s="81"/>
+      <c r="T84" s="81"/>
+      <c r="U84" s="81"/>
+      <c r="V84" s="81"/>
+      <c r="W84" s="81"/>
+      <c r="X84" s="81"/>
+      <c r="Y84" s="81"/>
+      <c r="Z84" s="81"/>
     </row>
     <row r="85" spans="2:26" ht="17.25">
-      <c r="B85" s="84">
+      <c r="B85" s="134">
         <v>7</v>
       </c>
-      <c r="C85" s="86" t="s">
+      <c r="C85" s="151" t="s">
         <v>154</v>
       </c>
-      <c r="D85" s="108" t="s">
-        <v>332</v>
-      </c>
-      <c r="E85" s="108" t="s">
-        <v>358</v>
+      <c r="D85" s="136" t="s">
+        <v>331</v>
+      </c>
+      <c r="E85" s="136" t="s">
+        <v>357</v>
       </c>
       <c r="G85" s="21">
         <v>7</v>
@@ -4793,38 +4784,38 @@
       <c r="I85" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="J85" s="108" t="s">
-        <v>345</v>
-      </c>
-      <c r="K85" s="82"/>
-      <c r="L85" s="82"/>
-      <c r="M85" s="82"/>
-      <c r="N85" s="82"/>
-      <c r="O85" s="82"/>
-      <c r="P85" s="82"/>
-      <c r="Q85" s="82"/>
-      <c r="R85" s="82"/>
-      <c r="S85" s="82"/>
-      <c r="T85" s="82"/>
-      <c r="U85" s="82"/>
-      <c r="V85" s="82"/>
-      <c r="W85" s="82"/>
-      <c r="X85" s="82"/>
-      <c r="Y85" s="82"/>
-      <c r="Z85" s="82"/>
+      <c r="J85" s="136" t="s">
+        <v>344</v>
+      </c>
+      <c r="K85" s="81"/>
+      <c r="L85" s="81"/>
+      <c r="M85" s="81"/>
+      <c r="N85" s="81"/>
+      <c r="O85" s="81"/>
+      <c r="P85" s="81"/>
+      <c r="Q85" s="81"/>
+      <c r="R85" s="81"/>
+      <c r="S85" s="81"/>
+      <c r="T85" s="81"/>
+      <c r="U85" s="81"/>
+      <c r="V85" s="81"/>
+      <c r="W85" s="81"/>
+      <c r="X85" s="81"/>
+      <c r="Y85" s="81"/>
+      <c r="Z85" s="81"/>
     </row>
     <row r="86" spans="2:26" ht="17.25">
-      <c r="B86" s="84">
+      <c r="B86" s="134">
         <v>8</v>
       </c>
-      <c r="C86" s="86" t="s">
+      <c r="C86" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="D86" s="111" t="s">
-        <v>333</v>
-      </c>
-      <c r="E86" s="108" t="s">
-        <v>357</v>
+      <c r="D86" s="140" t="s">
+        <v>332</v>
+      </c>
+      <c r="E86" s="136" t="s">
+        <v>356</v>
       </c>
       <c r="G86" s="21">
         <v>8</v>
@@ -4835,38 +4826,38 @@
       <c r="I86" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="J86" s="108" t="s">
-        <v>346</v>
-      </c>
-      <c r="K86" s="82"/>
-      <c r="L86" s="82"/>
-      <c r="M86" s="82"/>
-      <c r="N86" s="82"/>
-      <c r="O86" s="82"/>
-      <c r="P86" s="82"/>
-      <c r="Q86" s="82"/>
-      <c r="R86" s="82"/>
-      <c r="S86" s="82"/>
-      <c r="T86" s="82"/>
-      <c r="U86" s="82"/>
-      <c r="V86" s="82"/>
-      <c r="W86" s="82"/>
-      <c r="X86" s="82"/>
-      <c r="Y86" s="82"/>
-      <c r="Z86" s="82"/>
+      <c r="J86" s="136" t="s">
+        <v>345</v>
+      </c>
+      <c r="K86" s="81"/>
+      <c r="L86" s="81"/>
+      <c r="M86" s="81"/>
+      <c r="N86" s="81"/>
+      <c r="O86" s="81"/>
+      <c r="P86" s="81"/>
+      <c r="Q86" s="81"/>
+      <c r="R86" s="81"/>
+      <c r="S86" s="81"/>
+      <c r="T86" s="81"/>
+      <c r="U86" s="81"/>
+      <c r="V86" s="81"/>
+      <c r="W86" s="81"/>
+      <c r="X86" s="81"/>
+      <c r="Y86" s="81"/>
+      <c r="Z86" s="81"/>
     </row>
     <row r="87" spans="2:26" ht="17.25">
-      <c r="B87" s="84">
+      <c r="B87" s="134">
         <v>9</v>
       </c>
-      <c r="C87" s="86" t="s">
+      <c r="C87" s="151" t="s">
         <v>156</v>
       </c>
-      <c r="D87" s="108" t="s">
-        <v>325</v>
-      </c>
-      <c r="E87" s="108" t="s">
-        <v>356</v>
+      <c r="D87" s="136" t="s">
+        <v>324</v>
+      </c>
+      <c r="E87" s="136" t="s">
+        <v>355</v>
       </c>
       <c r="G87" s="21">
         <v>9</v>
@@ -4877,38 +4868,38 @@
       <c r="I87" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="J87" s="108" t="s">
-        <v>341</v>
-      </c>
-      <c r="K87" s="82"/>
-      <c r="L87" s="82"/>
-      <c r="M87" s="82"/>
-      <c r="N87" s="82"/>
-      <c r="O87" s="82"/>
-      <c r="P87" s="82"/>
-      <c r="Q87" s="82"/>
-      <c r="R87" s="82"/>
-      <c r="S87" s="82"/>
-      <c r="T87" s="82"/>
-      <c r="U87" s="82"/>
-      <c r="V87" s="82"/>
-      <c r="W87" s="82"/>
-      <c r="X87" s="82"/>
-      <c r="Y87" s="82"/>
-      <c r="Z87" s="82"/>
+      <c r="J87" s="136" t="s">
+        <v>340</v>
+      </c>
+      <c r="K87" s="81"/>
+      <c r="L87" s="81"/>
+      <c r="M87" s="81"/>
+      <c r="N87" s="81"/>
+      <c r="O87" s="81"/>
+      <c r="P87" s="81"/>
+      <c r="Q87" s="81"/>
+      <c r="R87" s="81"/>
+      <c r="S87" s="81"/>
+      <c r="T87" s="81"/>
+      <c r="U87" s="81"/>
+      <c r="V87" s="81"/>
+      <c r="W87" s="81"/>
+      <c r="X87" s="81"/>
+      <c r="Y87" s="81"/>
+      <c r="Z87" s="81"/>
     </row>
     <row r="88" spans="2:26" ht="17.25">
-      <c r="B88" s="84">
+      <c r="B88" s="134">
         <v>10</v>
       </c>
-      <c r="C88" s="86" t="s">
-        <v>327</v>
-      </c>
-      <c r="D88" s="108" t="s">
+      <c r="C88" s="151" t="s">
         <v>326</v>
       </c>
-      <c r="E88" s="108" t="s">
-        <v>355</v>
+      <c r="D88" s="136" t="s">
+        <v>325</v>
+      </c>
+      <c r="E88" s="136" t="s">
+        <v>354</v>
       </c>
       <c r="G88" s="21">
         <v>10</v>
@@ -4919,38 +4910,38 @@
       <c r="I88" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="J88" s="108" t="s">
-        <v>341</v>
-      </c>
-      <c r="K88" s="82"/>
-      <c r="L88" s="82"/>
-      <c r="M88" s="82"/>
-      <c r="N88" s="82"/>
-      <c r="O88" s="82"/>
-      <c r="P88" s="82"/>
-      <c r="Q88" s="82"/>
-      <c r="R88" s="82"/>
-      <c r="S88" s="82"/>
-      <c r="T88" s="82"/>
-      <c r="U88" s="82"/>
-      <c r="V88" s="82"/>
-      <c r="W88" s="82"/>
-      <c r="X88" s="82"/>
-      <c r="Y88" s="82"/>
-      <c r="Z88" s="82"/>
+      <c r="J88" s="136" t="s">
+        <v>340</v>
+      </c>
+      <c r="K88" s="81"/>
+      <c r="L88" s="81"/>
+      <c r="M88" s="81"/>
+      <c r="N88" s="81"/>
+      <c r="O88" s="81"/>
+      <c r="P88" s="81"/>
+      <c r="Q88" s="81"/>
+      <c r="R88" s="81"/>
+      <c r="S88" s="81"/>
+      <c r="T88" s="81"/>
+      <c r="U88" s="81"/>
+      <c r="V88" s="81"/>
+      <c r="W88" s="81"/>
+      <c r="X88" s="81"/>
+      <c r="Y88" s="81"/>
+      <c r="Z88" s="81"/>
     </row>
     <row r="89" spans="2:26" ht="17.25">
-      <c r="B89" s="84">
+      <c r="B89" s="134">
         <v>11</v>
       </c>
-      <c r="C89" s="86" t="s">
+      <c r="C89" s="151" t="s">
         <v>157</v>
       </c>
-      <c r="D89" s="108" t="s">
-        <v>328</v>
-      </c>
-      <c r="E89" s="108" t="s">
-        <v>354</v>
+      <c r="D89" s="136" t="s">
+        <v>327</v>
+      </c>
+      <c r="E89" s="136" t="s">
+        <v>353</v>
       </c>
       <c r="G89" s="21">
         <v>11</v>
@@ -4961,38 +4952,38 @@
       <c r="I89" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="J89" s="108" t="s">
-        <v>340</v>
-      </c>
-      <c r="K89" s="82"/>
-      <c r="L89" s="82"/>
-      <c r="M89" s="82"/>
-      <c r="N89" s="82"/>
-      <c r="O89" s="82"/>
-      <c r="P89" s="82"/>
-      <c r="Q89" s="82"/>
-      <c r="R89" s="82"/>
-      <c r="S89" s="82"/>
-      <c r="T89" s="82"/>
-      <c r="U89" s="82"/>
-      <c r="V89" s="82"/>
-      <c r="W89" s="82"/>
-      <c r="X89" s="82"/>
-      <c r="Y89" s="82"/>
-      <c r="Z89" s="82"/>
+      <c r="J89" s="136" t="s">
+        <v>339</v>
+      </c>
+      <c r="K89" s="81"/>
+      <c r="L89" s="81"/>
+      <c r="M89" s="81"/>
+      <c r="N89" s="81"/>
+      <c r="O89" s="81"/>
+      <c r="P89" s="81"/>
+      <c r="Q89" s="81"/>
+      <c r="R89" s="81"/>
+      <c r="S89" s="81"/>
+      <c r="T89" s="81"/>
+      <c r="U89" s="81"/>
+      <c r="V89" s="81"/>
+      <c r="W89" s="81"/>
+      <c r="X89" s="81"/>
+      <c r="Y89" s="81"/>
+      <c r="Z89" s="81"/>
     </row>
     <row r="90" spans="2:26" ht="17.25">
-      <c r="B90" s="84">
+      <c r="B90" s="134">
         <v>12</v>
       </c>
-      <c r="C90" s="86" t="s">
+      <c r="C90" s="151" t="s">
         <v>158</v>
       </c>
-      <c r="D90" s="108" t="s">
+      <c r="D90" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="E90" s="108" t="s">
-        <v>350</v>
+      <c r="E90" s="136" t="s">
+        <v>349</v>
       </c>
       <c r="G90" s="21">
         <v>12</v>
@@ -5003,38 +4994,38 @@
       <c r="I90" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="J90" s="108" t="s">
-        <v>339</v>
-      </c>
-      <c r="K90" s="82"/>
-      <c r="L90" s="82"/>
-      <c r="M90" s="82"/>
-      <c r="N90" s="82"/>
-      <c r="O90" s="82"/>
-      <c r="P90" s="82"/>
-      <c r="Q90" s="82"/>
-      <c r="R90" s="82"/>
-      <c r="S90" s="82"/>
-      <c r="T90" s="82"/>
-      <c r="U90" s="82"/>
-      <c r="V90" s="82"/>
-      <c r="W90" s="82"/>
-      <c r="X90" s="82"/>
-      <c r="Y90" s="82"/>
-      <c r="Z90" s="82"/>
+      <c r="J90" s="136" t="s">
+        <v>338</v>
+      </c>
+      <c r="K90" s="81"/>
+      <c r="L90" s="81"/>
+      <c r="M90" s="81"/>
+      <c r="N90" s="81"/>
+      <c r="O90" s="81"/>
+      <c r="P90" s="81"/>
+      <c r="Q90" s="81"/>
+      <c r="R90" s="81"/>
+      <c r="S90" s="81"/>
+      <c r="T90" s="81"/>
+      <c r="U90" s="81"/>
+      <c r="V90" s="81"/>
+      <c r="W90" s="81"/>
+      <c r="X90" s="81"/>
+      <c r="Y90" s="81"/>
+      <c r="Z90" s="81"/>
     </row>
     <row r="91" spans="2:26" ht="17.25">
-      <c r="B91" s="84">
+      <c r="B91" s="134">
         <v>13</v>
       </c>
-      <c r="C91" s="86" t="s">
+      <c r="C91" s="151" t="s">
         <v>159</v>
       </c>
-      <c r="D91" s="108" t="s">
+      <c r="D91" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="E91" s="108" t="s">
-        <v>351</v>
+      <c r="E91" s="136" t="s">
+        <v>350</v>
       </c>
       <c r="G91" s="21">
         <v>13</v>
@@ -5045,38 +5036,38 @@
       <c r="I91" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="J91" s="108" t="s">
-        <v>338</v>
-      </c>
-      <c r="K91" s="82"/>
-      <c r="L91" s="82"/>
-      <c r="M91" s="82"/>
-      <c r="N91" s="82"/>
-      <c r="O91" s="82"/>
-      <c r="P91" s="82"/>
-      <c r="Q91" s="82"/>
-      <c r="R91" s="82"/>
-      <c r="S91" s="82"/>
-      <c r="T91" s="82"/>
-      <c r="U91" s="82"/>
-      <c r="V91" s="82"/>
-      <c r="W91" s="82"/>
-      <c r="X91" s="82"/>
-      <c r="Y91" s="82"/>
-      <c r="Z91" s="82"/>
+      <c r="J91" s="136" t="s">
+        <v>337</v>
+      </c>
+      <c r="K91" s="81"/>
+      <c r="L91" s="81"/>
+      <c r="M91" s="81"/>
+      <c r="N91" s="81"/>
+      <c r="O91" s="81"/>
+      <c r="P91" s="81"/>
+      <c r="Q91" s="81"/>
+      <c r="R91" s="81"/>
+      <c r="S91" s="81"/>
+      <c r="T91" s="81"/>
+      <c r="U91" s="81"/>
+      <c r="V91" s="81"/>
+      <c r="W91" s="81"/>
+      <c r="X91" s="81"/>
+      <c r="Y91" s="81"/>
+      <c r="Z91" s="81"/>
     </row>
     <row r="92" spans="2:26" ht="17.25">
-      <c r="B92" s="84">
+      <c r="B92" s="134">
         <v>14</v>
       </c>
-      <c r="C92" s="86" t="s">
+      <c r="C92" s="151" t="s">
         <v>160</v>
       </c>
-      <c r="D92" s="109" t="s">
-        <v>329</v>
-      </c>
-      <c r="E92" s="108" t="s">
-        <v>352</v>
+      <c r="D92" s="149" t="s">
+        <v>328</v>
+      </c>
+      <c r="E92" s="136" t="s">
+        <v>351</v>
       </c>
       <c r="G92" s="21">
         <v>14</v>
@@ -5087,38 +5078,38 @@
       <c r="I92" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J92" s="108" t="s">
-        <v>337</v>
-      </c>
-      <c r="K92" s="82"/>
-      <c r="L92" s="82"/>
-      <c r="M92" s="82"/>
-      <c r="N92" s="82"/>
-      <c r="O92" s="82"/>
-      <c r="P92" s="82"/>
-      <c r="Q92" s="82"/>
-      <c r="R92" s="82"/>
-      <c r="S92" s="82"/>
-      <c r="T92" s="82"/>
-      <c r="U92" s="82"/>
-      <c r="V92" s="82"/>
-      <c r="W92" s="82"/>
-      <c r="X92" s="82"/>
-      <c r="Y92" s="82"/>
-      <c r="Z92" s="82"/>
+      <c r="J92" s="136" t="s">
+        <v>336</v>
+      </c>
+      <c r="K92" s="81"/>
+      <c r="L92" s="81"/>
+      <c r="M92" s="81"/>
+      <c r="N92" s="81"/>
+      <c r="O92" s="81"/>
+      <c r="P92" s="81"/>
+      <c r="Q92" s="81"/>
+      <c r="R92" s="81"/>
+      <c r="S92" s="81"/>
+      <c r="T92" s="81"/>
+      <c r="U92" s="81"/>
+      <c r="V92" s="81"/>
+      <c r="W92" s="81"/>
+      <c r="X92" s="81"/>
+      <c r="Y92" s="81"/>
+      <c r="Z92" s="81"/>
     </row>
     <row r="93" spans="2:26" ht="17.25">
-      <c r="B93" s="84">
+      <c r="B93" s="134">
         <v>15</v>
       </c>
-      <c r="C93" s="86" t="s">
+      <c r="C93" s="151" t="s">
         <v>162</v>
       </c>
-      <c r="D93" s="109" t="s">
-        <v>330</v>
-      </c>
-      <c r="E93" s="108" t="s">
-        <v>353</v>
+      <c r="D93" s="149" t="s">
+        <v>329</v>
+      </c>
+      <c r="E93" s="136" t="s">
+        <v>352</v>
       </c>
       <c r="G93" s="21">
         <v>15</v>
@@ -5129,38 +5120,38 @@
       <c r="I93" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="J93" s="108" t="s">
-        <v>336</v>
-      </c>
-      <c r="K93" s="82"/>
-      <c r="L93" s="82"/>
-      <c r="M93" s="82"/>
-      <c r="N93" s="82"/>
-      <c r="O93" s="82"/>
-      <c r="P93" s="82"/>
-      <c r="Q93" s="82"/>
-      <c r="R93" s="82"/>
-      <c r="S93" s="82"/>
-      <c r="T93" s="82"/>
-      <c r="U93" s="82"/>
-      <c r="V93" s="82"/>
-      <c r="W93" s="82"/>
-      <c r="X93" s="82"/>
-      <c r="Y93" s="82"/>
-      <c r="Z93" s="82"/>
+      <c r="J93" s="136" t="s">
+        <v>335</v>
+      </c>
+      <c r="K93" s="81"/>
+      <c r="L93" s="81"/>
+      <c r="M93" s="81"/>
+      <c r="N93" s="81"/>
+      <c r="O93" s="81"/>
+      <c r="P93" s="81"/>
+      <c r="Q93" s="81"/>
+      <c r="R93" s="81"/>
+      <c r="S93" s="81"/>
+      <c r="T93" s="81"/>
+      <c r="U93" s="81"/>
+      <c r="V93" s="81"/>
+      <c r="W93" s="81"/>
+      <c r="X93" s="81"/>
+      <c r="Y93" s="81"/>
+      <c r="Z93" s="81"/>
     </row>
     <row r="94" spans="2:26" ht="17.25">
-      <c r="B94" s="84">
+      <c r="B94" s="134">
         <v>16</v>
       </c>
-      <c r="C94" s="86" t="s">
+      <c r="C94" s="151" t="s">
         <v>146</v>
       </c>
-      <c r="D94" s="109" t="s">
+      <c r="D94" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="E94" s="108" t="s">
-        <v>334</v>
+      <c r="E94" s="136" t="s">
+        <v>333</v>
       </c>
       <c r="G94" s="21">
         <v>16</v>
@@ -5171,38 +5162,38 @@
       <c r="I94" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="J94" s="108" t="s">
-        <v>335</v>
-      </c>
-      <c r="K94" s="82"/>
-      <c r="L94" s="82"/>
-      <c r="M94" s="82"/>
-      <c r="N94" s="82"/>
-      <c r="O94" s="82"/>
-      <c r="P94" s="82"/>
-      <c r="Q94" s="82"/>
-      <c r="R94" s="82"/>
-      <c r="S94" s="82"/>
-      <c r="T94" s="82"/>
-      <c r="U94" s="82"/>
-      <c r="V94" s="82"/>
-      <c r="W94" s="82"/>
-      <c r="X94" s="82"/>
-      <c r="Y94" s="82"/>
-      <c r="Z94" s="82"/>
+      <c r="J94" s="136" t="s">
+        <v>334</v>
+      </c>
+      <c r="K94" s="81"/>
+      <c r="L94" s="81"/>
+      <c r="M94" s="81"/>
+      <c r="N94" s="81"/>
+      <c r="O94" s="81"/>
+      <c r="P94" s="81"/>
+      <c r="Q94" s="81"/>
+      <c r="R94" s="81"/>
+      <c r="S94" s="81"/>
+      <c r="T94" s="81"/>
+      <c r="U94" s="81"/>
+      <c r="V94" s="81"/>
+      <c r="W94" s="81"/>
+      <c r="X94" s="81"/>
+      <c r="Y94" s="81"/>
+      <c r="Z94" s="81"/>
     </row>
     <row r="95" spans="2:26" ht="17.25">
-      <c r="B95" s="84">
+      <c r="B95" s="134">
         <v>17</v>
       </c>
-      <c r="C95" s="86" t="s">
+      <c r="C95" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="109" t="s">
+      <c r="D95" s="149" t="s">
         <v>271</v>
       </c>
-      <c r="E95" s="109" t="s">
-        <v>342</v>
+      <c r="E95" s="149" t="s">
+        <v>341</v>
       </c>
       <c r="G95" s="21">
         <v>17</v>
@@ -5213,38 +5204,38 @@
       <c r="I95" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="J95" s="108" t="s">
-        <v>334</v>
-      </c>
-      <c r="K95" s="82"/>
-      <c r="L95" s="82"/>
-      <c r="M95" s="82"/>
-      <c r="N95" s="82"/>
-      <c r="O95" s="82"/>
-      <c r="P95" s="82"/>
-      <c r="Q95" s="82"/>
-      <c r="R95" s="82"/>
-      <c r="S95" s="82"/>
-      <c r="T95" s="82"/>
-      <c r="U95" s="82"/>
-      <c r="V95" s="82"/>
-      <c r="W95" s="82"/>
-      <c r="X95" s="82"/>
-      <c r="Y95" s="82"/>
-      <c r="Z95" s="82"/>
+      <c r="J95" s="136" t="s">
+        <v>333</v>
+      </c>
+      <c r="K95" s="81"/>
+      <c r="L95" s="81"/>
+      <c r="M95" s="81"/>
+      <c r="N95" s="81"/>
+      <c r="O95" s="81"/>
+      <c r="P95" s="81"/>
+      <c r="Q95" s="81"/>
+      <c r="R95" s="81"/>
+      <c r="S95" s="81"/>
+      <c r="T95" s="81"/>
+      <c r="U95" s="81"/>
+      <c r="V95" s="81"/>
+      <c r="W95" s="81"/>
+      <c r="X95" s="81"/>
+      <c r="Y95" s="81"/>
+      <c r="Z95" s="81"/>
     </row>
     <row r="96" spans="2:26" ht="17.25">
-      <c r="B96" s="84">
+      <c r="B96" s="134">
         <v>18</v>
       </c>
-      <c r="C96" s="86" t="s">
+      <c r="C96" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="109" t="s">
+      <c r="D96" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="E96" s="109" t="s">
-        <v>343</v>
+      <c r="E96" s="149" t="s">
+        <v>342</v>
       </c>
       <c r="G96" s="21">
         <v>18</v>
@@ -5255,29 +5246,29 @@
       <c r="I96" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="J96" s="109" t="s">
-        <v>365</v>
-      </c>
-      <c r="K96" s="82"/>
-      <c r="L96" s="82"/>
-      <c r="M96" s="82"/>
-      <c r="N96" s="82"/>
-      <c r="O96" s="82"/>
-      <c r="P96" s="82"/>
-      <c r="Q96" s="82"/>
-      <c r="R96" s="82"/>
-      <c r="S96" s="82"/>
-      <c r="T96" s="82"/>
-      <c r="U96" s="82"/>
-      <c r="V96" s="82"/>
-      <c r="W96" s="82"/>
-      <c r="X96" s="82"/>
-      <c r="Y96" s="82"/>
-      <c r="Z96" s="82"/>
+      <c r="J96" s="149" t="s">
+        <v>364</v>
+      </c>
+      <c r="K96" s="81"/>
+      <c r="L96" s="81"/>
+      <c r="M96" s="81"/>
+      <c r="N96" s="81"/>
+      <c r="O96" s="81"/>
+      <c r="P96" s="81"/>
+      <c r="Q96" s="81"/>
+      <c r="R96" s="81"/>
+      <c r="S96" s="81"/>
+      <c r="T96" s="81"/>
+      <c r="U96" s="81"/>
+      <c r="V96" s="81"/>
+      <c r="W96" s="81"/>
+      <c r="X96" s="81"/>
+      <c r="Y96" s="81"/>
+      <c r="Z96" s="81"/>
     </row>
     <row r="97" spans="2:25" ht="17.25">
-      <c r="E97" s="77"/>
-      <c r="F97" s="82"/>
+      <c r="E97" s="76"/>
+      <c r="F97" s="81"/>
       <c r="G97" s="21">
         <v>19</v>
       </c>
@@ -5287,46 +5278,46 @@
       <c r="I97" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J97" s="109" t="s">
-        <v>364</v>
-      </c>
-      <c r="K97" s="82"/>
-      <c r="L97" s="82"/>
-      <c r="M97" s="82"/>
-      <c r="N97" s="82"/>
-      <c r="O97" s="82"/>
-      <c r="P97" s="82"/>
-      <c r="Q97" s="82"/>
-      <c r="R97" s="82"/>
-      <c r="S97" s="82"/>
-      <c r="T97" s="82"/>
-      <c r="U97" s="82"/>
-      <c r="V97" s="82"/>
-      <c r="W97" s="82"/>
-      <c r="X97" s="82"/>
-      <c r="Y97" s="82"/>
+      <c r="J97" s="149" t="s">
+        <v>363</v>
+      </c>
+      <c r="K97" s="81"/>
+      <c r="L97" s="81"/>
+      <c r="M97" s="81"/>
+      <c r="N97" s="81"/>
+      <c r="O97" s="81"/>
+      <c r="P97" s="81"/>
+      <c r="Q97" s="81"/>
+      <c r="R97" s="81"/>
+      <c r="S97" s="81"/>
+      <c r="T97" s="81"/>
+      <c r="U97" s="81"/>
+      <c r="V97" s="81"/>
+      <c r="W97" s="81"/>
+      <c r="X97" s="81"/>
+      <c r="Y97" s="81"/>
     </row>
     <row r="98" spans="2:25">
-      <c r="B98" s="83"/>
-      <c r="C98" s="83"/>
-      <c r="D98" s="83"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="83"/>
-      <c r="H98" s="83"/>
-      <c r="I98" s="83"/>
-      <c r="J98" s="83"/>
-      <c r="K98" s="83"/>
-      <c r="L98" s="83"/>
-      <c r="M98" s="83"/>
-      <c r="N98" s="83"/>
-      <c r="O98" s="83"/>
-      <c r="P98" s="83"/>
-      <c r="Q98" s="83"/>
-      <c r="R98" s="83"/>
-      <c r="S98" s="83"/>
-      <c r="T98" s="83"/>
-      <c r="U98" s="83"/>
+      <c r="B98" s="82"/>
+      <c r="C98" s="82"/>
+      <c r="D98" s="82"/>
+      <c r="E98" s="82"/>
+      <c r="F98" s="82"/>
+      <c r="G98" s="82"/>
+      <c r="H98" s="82"/>
+      <c r="I98" s="82"/>
+      <c r="J98" s="82"/>
+      <c r="K98" s="82"/>
+      <c r="L98" s="82"/>
+      <c r="M98" s="82"/>
+      <c r="N98" s="82"/>
+      <c r="O98" s="82"/>
+      <c r="P98" s="82"/>
+      <c r="Q98" s="82"/>
+      <c r="R98" s="82"/>
+      <c r="S98" s="82"/>
+      <c r="T98" s="82"/>
+      <c r="U98" s="82"/>
     </row>
     <row r="99" spans="2:25">
       <c r="F99" s="1"/>
@@ -5378,9 +5369,9 @@
     <row r="118" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B2:E3"/>
     <mergeCell ref="G58:J58"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B77:E77"/>
     <mergeCell ref="B58:E58"/>
     <mergeCell ref="G77:J77"/>
@@ -5437,144 +5428,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="51" customFormat="1" ht="13.5">
-      <c r="A1" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="125" t="s">
-        <v>386</v>
-      </c>
-      <c r="C1" s="125" t="s">
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1" s="103" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="151" t="s">
+      <c r="E1" s="129" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="125" t="s">
+      <c r="F1" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="125" t="s">
+      <c r="G1" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="125" t="s">
+      <c r="H1" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="I1" s="152" t="s">
+      <c r="I1" s="130" t="s">
         <v>235</v>
       </c>
-      <c r="J1" s="125" t="s">
+      <c r="J1" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="125" t="s">
+      <c r="K1" s="103" t="s">
         <v>237</v>
       </c>
-      <c r="L1" s="125" t="s">
+      <c r="L1" s="103" t="s">
         <v>238</v>
       </c>
-      <c r="M1" s="125" t="s">
+      <c r="M1" s="103" t="s">
         <v>239</v>
       </c>
-      <c r="N1" s="125" t="s">
+      <c r="N1" s="103" t="s">
         <v>240</v>
       </c>
-      <c r="O1" s="125" t="s">
+      <c r="O1" s="103" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="99">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="126" t="s">
-        <v>388</v>
-      </c>
-      <c r="C2" s="126" t="s">
+      <c r="B2" s="104" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="104" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="104" t="s">
         <v>390</v>
       </c>
-      <c r="D2" s="153" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="126" t="s">
+      <c r="F2" s="131" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="131" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="131" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2" s="131" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="F2" s="153" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="153" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="153" t="s">
-        <v>182</v>
-      </c>
-      <c r="I2" s="153" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="153" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="126" t="s">
+      <c r="L2" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="104" t="s">
         <v>392</v>
       </c>
-      <c r="L2" s="126" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="126" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="126" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="126" t="s">
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1">
+      <c r="A3" s="131" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="131" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="131" t="s">
+        <v>384</v>
+      </c>
+      <c r="E3" s="104" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="3" customFormat="1">
-      <c r="A3" s="153" t="s">
+      <c r="F3" s="104" t="s">
+        <v>383</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>383</v>
+      </c>
+      <c r="H3" s="104" t="s">
+        <v>383</v>
+      </c>
+      <c r="I3" s="131" t="s">
         <v>384</v>
       </c>
-      <c r="B3" s="153" t="s">
-        <v>384</v>
-      </c>
-      <c r="C3" s="126" t="s">
-        <v>384</v>
-      </c>
-      <c r="D3" s="153" t="s">
-        <v>385</v>
-      </c>
-      <c r="E3" s="126" t="s">
-        <v>394</v>
-      </c>
-      <c r="F3" s="126" t="s">
-        <v>384</v>
-      </c>
-      <c r="G3" s="126" t="s">
-        <v>384</v>
-      </c>
-      <c r="H3" s="126" t="s">
-        <v>384</v>
-      </c>
-      <c r="I3" s="153" t="s">
-        <v>385</v>
-      </c>
-      <c r="J3" s="153" t="s">
-        <v>384</v>
-      </c>
-      <c r="K3" s="153" t="s">
-        <v>384</v>
-      </c>
-      <c r="L3" s="153" t="s">
-        <v>384</v>
-      </c>
-      <c r="M3" s="153" t="s">
-        <v>384</v>
-      </c>
-      <c r="N3" s="153" t="s">
-        <v>384</v>
-      </c>
-      <c r="O3" s="153" t="s">
-        <v>384</v>
+      <c r="J3" s="131" t="s">
+        <v>383</v>
+      </c>
+      <c r="K3" s="131" t="s">
+        <v>383</v>
+      </c>
+      <c r="L3" s="131" t="s">
+        <v>383</v>
+      </c>
+      <c r="M3" s="131" t="s">
+        <v>383</v>
+      </c>
+      <c r="N3" s="131" t="s">
+        <v>383</v>
+      </c>
+      <c r="O3" s="131" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -44175,13 +44166,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="125" t="s">
-        <v>386</v>
-      </c>
-      <c r="C1" s="154" t="s">
+      <c r="B1" s="103" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1" s="132" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -44204,14 +44195,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="100" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" s="101" t="s">
         <v>395</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="C2" s="123" t="s">
-        <v>396</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>147</v>
@@ -44233,13 +44224,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="33">
-      <c r="A3" s="131" t="s">
-        <v>321</v>
-      </c>
-      <c r="B3" s="126" t="s">
-        <v>388</v>
-      </c>
-      <c r="C3" s="124" t="s">
+      <c r="A3" s="109" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>387</v>
+      </c>
+      <c r="C3" s="102" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -44262,32 +44253,32 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="109" t="s">
+        <v>383</v>
+      </c>
+      <c r="B4" s="131" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" s="109" t="s">
         <v>384</v>
       </c>
-      <c r="B4" s="153" t="s">
-        <v>384</v>
-      </c>
-      <c r="C4" s="131" t="s">
-        <v>385</v>
-      </c>
-      <c r="D4" s="155" t="s">
-        <v>389</v>
-      </c>
-      <c r="E4" s="155" t="s">
-        <v>389</v>
-      </c>
-      <c r="F4" s="155" t="s">
-        <v>389</v>
-      </c>
-      <c r="G4" s="155" t="s">
-        <v>389</v>
-      </c>
-      <c r="H4" s="155" t="s">
-        <v>389</v>
-      </c>
-      <c r="I4" s="155" t="s">
-        <v>389</v>
+      <c r="D4" s="133" t="s">
+        <v>388</v>
+      </c>
+      <c r="E4" s="133" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="133" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" s="133" t="s">
+        <v>388</v>
+      </c>
+      <c r="H4" s="133" t="s">
+        <v>388</v>
+      </c>
+      <c r="I4" s="133" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -44780,10 +44771,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25">
-      <c r="A2" s="122" t="s">
-        <v>381</v>
-      </c>
-      <c r="B2" s="123" t="s">
+      <c r="A2" s="100" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="101" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -44806,10 +44797,10 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="124" t="s">
-        <v>321</v>
-      </c>
-      <c r="B3" s="124" t="s">
+      <c r="A3" s="102" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" s="102" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -44855,7 +44846,7 @@
         <v>224</v>
       </c>
       <c r="D6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27">
@@ -44962,205 +44953,205 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="140" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="118" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="141" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="144" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="144" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="144" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="144" customWidth="1"/>
-    <col min="8" max="8" width="11" style="144" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="144" customWidth="1"/>
-    <col min="10" max="10" width="14" style="144" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="144" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="143" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="143" customWidth="1"/>
-    <col min="14" max="14" width="15" style="143" customWidth="1"/>
-    <col min="15" max="15" width="12.75" style="143" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="143" customWidth="1"/>
-    <col min="17" max="17" width="8.625" style="143" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.375" style="143" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.875" style="143" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9" style="140"/>
-    <col min="22" max="22" width="13.5" style="140" customWidth="1"/>
-    <col min="23" max="23" width="25.625" style="140" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="140"/>
+    <col min="3" max="3" width="8" style="119" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="122" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="122" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="122" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="122" customWidth="1"/>
+    <col min="8" max="8" width="11" style="122" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="122" customWidth="1"/>
+    <col min="10" max="10" width="14" style="122" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="122" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="121" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="121" customWidth="1"/>
+    <col min="14" max="14" width="15" style="121" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="121" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="121" customWidth="1"/>
+    <col min="17" max="17" width="8.625" style="121" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.375" style="121" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.875" style="121" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9" style="118"/>
+    <col min="22" max="22" width="13.5" style="118" customWidth="1"/>
+    <col min="23" max="23" width="25.625" style="118" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="118"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="134" customFormat="1" ht="13.5">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:25" s="112" customFormat="1" ht="13.5">
+      <c r="A1" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="103" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="110" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="110" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="110" t="s">
+        <v>156</v>
+      </c>
+      <c r="K1" s="110" t="s">
+        <v>326</v>
+      </c>
+      <c r="L1" s="110" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="110" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" s="110" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" s="110" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q1" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="R1" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="111" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+    </row>
+    <row r="2" spans="1:25" s="117" customFormat="1">
+      <c r="A2" s="87"/>
+      <c r="B2" s="104" t="s">
         <v>386</v>
       </c>
-      <c r="C1" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="132" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="132" t="s">
-        <v>242</v>
-      </c>
-      <c r="F1" s="132" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="132" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="132" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" s="132" t="s">
-        <v>155</v>
-      </c>
-      <c r="J1" s="132" t="s">
-        <v>156</v>
-      </c>
-      <c r="K1" s="132" t="s">
-        <v>327</v>
-      </c>
-      <c r="L1" s="132" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1" s="132" t="s">
-        <v>158</v>
-      </c>
-      <c r="N1" s="132" t="s">
-        <v>159</v>
-      </c>
-      <c r="O1" s="132" t="s">
-        <v>160</v>
-      </c>
-      <c r="P1" s="132" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q1" s="132" t="s">
-        <v>146</v>
-      </c>
-      <c r="R1" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" s="133" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-    </row>
-    <row r="2" spans="1:25" s="139" customFormat="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="126" t="s">
-        <v>387</v>
-      </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="136" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="136" t="s">
+      <c r="F2" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="136" t="s">
+      <c r="G2" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="136" t="s">
+      <c r="I2" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="136" t="s">
-        <v>371</v>
-      </c>
-      <c r="K2" s="136" t="s">
+      <c r="J2" s="114" t="s">
+        <v>370</v>
+      </c>
+      <c r="K2" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="136" t="s">
+      <c r="L2" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="136" t="s">
+      <c r="M2" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="N2" s="136" t="s">
+      <c r="N2" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="136" t="s">
+      <c r="O2" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="136" t="s">
+      <c r="P2" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
     </row>
     <row r="3" spans="1:25" s="28" customFormat="1" ht="33">
       <c r="A3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="126" t="s">
-        <v>388</v>
+      <c r="B3" s="104" t="s">
+        <v>387</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="103" t="s">
+      <c r="F3" s="89" t="s">
         <v>263</v>
       </c>
-      <c r="G3" s="103" t="s">
+      <c r="G3" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="I3" s="103" t="s">
+      <c r="I3" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="J3" s="103" t="s">
+      <c r="J3" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="103" t="s">
+      <c r="K3" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="103" t="s">
+      <c r="L3" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="103" t="s">
+      <c r="M3" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="103" t="s">
+      <c r="N3" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="103" t="s">
+      <c r="O3" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="P3" s="103" t="s">
+      <c r="P3" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="Q3" s="104" t="s">
+      <c r="Q3" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="102" t="s">
+      <c r="R3" s="88" t="s">
         <v>271</v>
       </c>
-      <c r="S3" s="102" t="s">
+      <c r="S3" s="88" t="s">
         <v>5</v>
       </c>
       <c r="T3" s="32"/>
@@ -45170,2626 +45161,2626 @@
       <c r="X3" s="29"/>
       <c r="Y3" s="30"/>
     </row>
-    <row r="4" spans="1:25" s="130" customFormat="1">
+    <row r="4" spans="1:25" s="108" customFormat="1">
       <c r="A4" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>383</v>
+      </c>
+      <c r="E4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="H4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="I4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="J4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="K4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="L4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="M4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="N4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="O4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="P4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q4" s="90" t="s">
+        <v>383</v>
+      </c>
+      <c r="R4" s="88" t="s">
         <v>384</v>
       </c>
-      <c r="B4" s="131" t="s">
-        <v>384</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="D4" s="102" t="s">
-        <v>384</v>
-      </c>
-      <c r="E4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="F4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="G4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="H4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="I4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="J4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="K4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="L4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="M4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="N4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="O4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="P4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q4" s="104" t="s">
-        <v>384</v>
-      </c>
-      <c r="R4" s="102" t="s">
-        <v>385</v>
-      </c>
-      <c r="S4" s="102" t="s">
-        <v>384</v>
-      </c>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="129"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="129"/>
+      <c r="S4" s="88" t="s">
+        <v>383</v>
+      </c>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="107"/>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="140">
+      <c r="A5" s="118">
         <v>200000</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="141">
+      <c r="C5" s="119">
         <v>10000</v>
       </c>
-      <c r="D5" s="142">
-        <v>1</v>
-      </c>
-      <c r="E5" s="142">
-        <v>1</v>
-      </c>
-      <c r="F5" s="142">
+      <c r="D5" s="120">
+        <v>1</v>
+      </c>
+      <c r="E5" s="120">
+        <v>1</v>
+      </c>
+      <c r="F5" s="120">
         <v>0.7</v>
       </c>
-      <c r="G5" s="142">
+      <c r="G5" s="120">
         <v>0.7</v>
       </c>
-      <c r="H5" s="142">
+      <c r="H5" s="120">
         <v>3</v>
       </c>
-      <c r="I5" s="142">
-        <v>1</v>
-      </c>
-      <c r="J5" s="142">
-        <v>1</v>
-      </c>
-      <c r="K5" s="142">
-        <v>0</v>
-      </c>
-      <c r="L5" s="143">
-        <v>0</v>
-      </c>
-      <c r="M5" s="142">
-        <v>0</v>
-      </c>
-      <c r="N5" s="142">
-        <v>0</v>
-      </c>
-      <c r="O5" s="142">
-        <v>0</v>
-      </c>
-      <c r="P5" s="142">
+      <c r="I5" s="120">
+        <v>1</v>
+      </c>
+      <c r="J5" s="120">
+        <v>1</v>
+      </c>
+      <c r="K5" s="120">
+        <v>0</v>
+      </c>
+      <c r="L5" s="121">
+        <v>0</v>
+      </c>
+      <c r="M5" s="120">
+        <v>0</v>
+      </c>
+      <c r="N5" s="120">
+        <v>0</v>
+      </c>
+      <c r="O5" s="120">
+        <v>0</v>
+      </c>
+      <c r="P5" s="120">
         <v>0</v>
       </c>
       <c r="Q5" s="4">
         <v>0</v>
       </c>
-      <c r="R5" s="144">
-        <v>0</v>
-      </c>
-      <c r="S5" s="145">
+      <c r="R5" s="122">
+        <v>0</v>
+      </c>
+      <c r="S5" s="123">
         <v>50000</v>
       </c>
-      <c r="T5" s="146"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="141"/>
-      <c r="W5" s="146"/>
-      <c r="X5" s="146"/>
-      <c r="Y5" s="141"/>
+      <c r="T5" s="124"/>
+      <c r="U5" s="124"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="124"/>
+      <c r="X5" s="124"/>
+      <c r="Y5" s="119"/>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="141">
+      <c r="A6" s="119">
         <v>200001</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="141">
+      <c r="C6" s="119">
         <v>10000</v>
       </c>
-      <c r="D6" s="144">
+      <c r="D6" s="122">
         <v>2</v>
       </c>
-      <c r="E6" s="144">
-        <v>1</v>
-      </c>
-      <c r="F6" s="144">
+      <c r="E6" s="122">
+        <v>1</v>
+      </c>
+      <c r="F6" s="122">
         <v>0.7</v>
       </c>
-      <c r="G6" s="144">
+      <c r="G6" s="122">
         <v>0.7</v>
       </c>
-      <c r="H6" s="144">
+      <c r="H6" s="122">
         <v>3</v>
       </c>
-      <c r="I6" s="144">
-        <v>1</v>
-      </c>
-      <c r="J6" s="144">
+      <c r="I6" s="122">
+        <v>1</v>
+      </c>
+      <c r="J6" s="122">
         <v>2</v>
       </c>
-      <c r="K6" s="147">
-        <v>0</v>
-      </c>
-      <c r="L6" s="143">
-        <v>0</v>
-      </c>
-      <c r="M6" s="142">
-        <v>0</v>
-      </c>
-      <c r="N6" s="142">
-        <v>0</v>
-      </c>
-      <c r="O6" s="142">
-        <v>0</v>
-      </c>
-      <c r="P6" s="142">
+      <c r="K6" s="125">
+        <v>0</v>
+      </c>
+      <c r="L6" s="121">
+        <v>0</v>
+      </c>
+      <c r="M6" s="120">
+        <v>0</v>
+      </c>
+      <c r="N6" s="120">
+        <v>0</v>
+      </c>
+      <c r="O6" s="120">
+        <v>0</v>
+      </c>
+      <c r="P6" s="120">
         <v>0</v>
       </c>
       <c r="Q6" s="4">
         <v>0</v>
       </c>
-      <c r="R6" s="144">
-        <v>0</v>
-      </c>
-      <c r="S6" s="145">
+      <c r="R6" s="122">
+        <v>0</v>
+      </c>
+      <c r="S6" s="123">
         <v>51000</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="140">
+      <c r="A7" s="118">
         <v>200002</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="141">
+      <c r="C7" s="119">
         <v>10000</v>
       </c>
-      <c r="D7" s="144">
+      <c r="D7" s="122">
         <v>3</v>
       </c>
-      <c r="E7" s="144">
+      <c r="E7" s="122">
         <v>2</v>
       </c>
-      <c r="F7" s="144">
+      <c r="F7" s="122">
         <v>0.7</v>
       </c>
-      <c r="G7" s="144">
+      <c r="G7" s="122">
         <v>0.7</v>
       </c>
-      <c r="H7" s="144">
+      <c r="H7" s="122">
         <v>3</v>
       </c>
-      <c r="I7" s="144">
-        <v>1</v>
-      </c>
-      <c r="J7" s="144">
+      <c r="I7" s="122">
+        <v>1</v>
+      </c>
+      <c r="J7" s="122">
         <v>2</v>
       </c>
-      <c r="K7" s="147">
-        <v>0</v>
-      </c>
-      <c r="L7" s="143">
-        <v>0</v>
-      </c>
-      <c r="M7" s="142">
-        <v>0</v>
-      </c>
-      <c r="N7" s="142">
-        <v>0</v>
-      </c>
-      <c r="O7" s="142">
-        <v>0</v>
-      </c>
-      <c r="P7" s="142">
+      <c r="K7" s="125">
+        <v>0</v>
+      </c>
+      <c r="L7" s="121">
+        <v>0</v>
+      </c>
+      <c r="M7" s="120">
+        <v>0</v>
+      </c>
+      <c r="N7" s="120">
+        <v>0</v>
+      </c>
+      <c r="O7" s="120">
+        <v>0</v>
+      </c>
+      <c r="P7" s="120">
         <v>0</v>
       </c>
       <c r="Q7" s="4">
         <v>1</v>
       </c>
-      <c r="R7" s="144">
-        <v>0</v>
-      </c>
-      <c r="S7" s="145">
+      <c r="R7" s="122">
+        <v>0</v>
+      </c>
+      <c r="S7" s="123">
         <v>51002</v>
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="141">
+      <c r="A8" s="119">
         <v>200003</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="141">
+      <c r="C8" s="119">
         <v>10000</v>
       </c>
-      <c r="D8" s="144">
+      <c r="D8" s="122">
         <v>4</v>
       </c>
-      <c r="E8" s="144">
+      <c r="E8" s="122">
         <v>2</v>
       </c>
-      <c r="F8" s="144">
+      <c r="F8" s="122">
         <v>0.7</v>
       </c>
-      <c r="G8" s="144">
+      <c r="G8" s="122">
         <v>0.7</v>
       </c>
-      <c r="H8" s="144">
+      <c r="H8" s="122">
         <v>3</v>
       </c>
-      <c r="I8" s="144">
-        <v>1</v>
-      </c>
-      <c r="J8" s="144">
+      <c r="I8" s="122">
+        <v>1</v>
+      </c>
+      <c r="J8" s="122">
         <v>3</v>
       </c>
-      <c r="K8" s="147">
-        <v>0</v>
-      </c>
-      <c r="L8" s="143">
-        <v>0</v>
-      </c>
-      <c r="M8" s="142">
-        <v>0</v>
-      </c>
-      <c r="N8" s="142">
-        <v>0</v>
-      </c>
-      <c r="O8" s="142">
-        <v>0</v>
-      </c>
-      <c r="P8" s="142">
+      <c r="K8" s="125">
+        <v>0</v>
+      </c>
+      <c r="L8" s="121">
+        <v>0</v>
+      </c>
+      <c r="M8" s="120">
+        <v>0</v>
+      </c>
+      <c r="N8" s="120">
+        <v>0</v>
+      </c>
+      <c r="O8" s="120">
+        <v>0</v>
+      </c>
+      <c r="P8" s="120">
         <v>0</v>
       </c>
       <c r="Q8" s="4">
         <v>1</v>
       </c>
-      <c r="R8" s="144">
-        <v>0</v>
-      </c>
-      <c r="S8" s="145">
+      <c r="R8" s="122">
+        <v>0</v>
+      </c>
+      <c r="S8" s="123">
         <v>51000</v>
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="140">
+      <c r="A9" s="118">
         <v>200004</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="141">
+      <c r="C9" s="119">
         <v>10000</v>
       </c>
-      <c r="D9" s="144">
+      <c r="D9" s="122">
         <v>5</v>
       </c>
-      <c r="E9" s="144">
+      <c r="E9" s="122">
         <v>3</v>
       </c>
-      <c r="F9" s="144">
+      <c r="F9" s="122">
         <v>0.7</v>
       </c>
-      <c r="G9" s="144">
+      <c r="G9" s="122">
         <v>0.7</v>
       </c>
-      <c r="H9" s="144">
+      <c r="H9" s="122">
         <v>3</v>
       </c>
-      <c r="I9" s="144">
-        <v>1</v>
-      </c>
-      <c r="J9" s="144">
+      <c r="I9" s="122">
+        <v>1</v>
+      </c>
+      <c r="J9" s="122">
         <v>4</v>
       </c>
-      <c r="K9" s="147">
-        <v>0</v>
-      </c>
-      <c r="L9" s="143">
-        <v>0</v>
-      </c>
-      <c r="M9" s="142">
-        <v>0</v>
-      </c>
-      <c r="N9" s="142">
-        <v>0</v>
-      </c>
-      <c r="O9" s="142">
-        <v>0</v>
-      </c>
-      <c r="P9" s="142">
+      <c r="K9" s="125">
+        <v>0</v>
+      </c>
+      <c r="L9" s="121">
+        <v>0</v>
+      </c>
+      <c r="M9" s="120">
+        <v>0</v>
+      </c>
+      <c r="N9" s="120">
+        <v>0</v>
+      </c>
+      <c r="O9" s="120">
+        <v>0</v>
+      </c>
+      <c r="P9" s="120">
         <v>0</v>
       </c>
       <c r="Q9" s="4">
         <v>2</v>
       </c>
-      <c r="R9" s="144">
-        <v>0</v>
-      </c>
-      <c r="S9" s="145">
+      <c r="R9" s="122">
+        <v>0</v>
+      </c>
+      <c r="S9" s="123">
         <v>51003</v>
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="141">
+      <c r="A10" s="119">
         <v>200005</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="141">
+      <c r="C10" s="119">
         <v>10001</v>
       </c>
-      <c r="D10" s="144">
-        <v>1</v>
-      </c>
-      <c r="E10" s="144">
+      <c r="D10" s="122">
+        <v>1</v>
+      </c>
+      <c r="E10" s="122">
         <v>2</v>
       </c>
-      <c r="F10" s="144">
-        <v>1</v>
-      </c>
-      <c r="G10" s="144">
-        <v>1</v>
-      </c>
-      <c r="H10" s="144">
+      <c r="F10" s="122">
+        <v>1</v>
+      </c>
+      <c r="G10" s="122">
+        <v>1</v>
+      </c>
+      <c r="H10" s="122">
         <v>0.1</v>
       </c>
-      <c r="I10" s="144">
-        <v>1</v>
-      </c>
-      <c r="J10" s="144">
+      <c r="I10" s="122">
+        <v>1</v>
+      </c>
+      <c r="J10" s="122">
         <v>2</v>
       </c>
-      <c r="K10" s="147">
-        <v>0</v>
-      </c>
-      <c r="L10" s="143">
-        <v>0</v>
-      </c>
-      <c r="M10" s="142">
-        <v>0</v>
-      </c>
-      <c r="N10" s="142">
-        <v>0</v>
-      </c>
-      <c r="O10" s="142">
-        <v>0</v>
-      </c>
-      <c r="P10" s="142">
+      <c r="K10" s="125">
+        <v>0</v>
+      </c>
+      <c r="L10" s="121">
+        <v>0</v>
+      </c>
+      <c r="M10" s="120">
+        <v>0</v>
+      </c>
+      <c r="N10" s="120">
+        <v>0</v>
+      </c>
+      <c r="O10" s="120">
+        <v>0</v>
+      </c>
+      <c r="P10" s="120">
         <v>0</v>
       </c>
       <c r="Q10" s="4">
         <v>999</v>
       </c>
-      <c r="R10" s="144">
-        <v>0</v>
-      </c>
-      <c r="S10" s="148">
+      <c r="R10" s="122">
+        <v>0</v>
+      </c>
+      <c r="S10" s="126">
         <v>50001</v>
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="140">
+      <c r="A11" s="118">
         <v>200006</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="141">
+      <c r="C11" s="119">
         <v>10001</v>
       </c>
-      <c r="D11" s="144">
+      <c r="D11" s="122">
         <v>2</v>
       </c>
-      <c r="E11" s="144">
+      <c r="E11" s="122">
         <v>2</v>
       </c>
-      <c r="F11" s="144">
-        <v>1</v>
-      </c>
-      <c r="G11" s="144">
-        <v>1</v>
-      </c>
-      <c r="H11" s="144">
+      <c r="F11" s="122">
+        <v>1</v>
+      </c>
+      <c r="G11" s="122">
+        <v>1</v>
+      </c>
+      <c r="H11" s="122">
         <v>0.1</v>
       </c>
-      <c r="I11" s="144">
-        <v>1</v>
-      </c>
-      <c r="J11" s="144">
+      <c r="I11" s="122">
+        <v>1</v>
+      </c>
+      <c r="J11" s="122">
         <v>2</v>
       </c>
-      <c r="K11" s="147">
-        <v>0</v>
-      </c>
-      <c r="L11" s="143">
-        <v>0</v>
-      </c>
-      <c r="M11" s="142">
-        <v>0</v>
-      </c>
-      <c r="N11" s="142">
-        <v>0</v>
-      </c>
-      <c r="O11" s="142">
-        <v>0</v>
-      </c>
-      <c r="P11" s="142">
+      <c r="K11" s="125">
+        <v>0</v>
+      </c>
+      <c r="L11" s="121">
+        <v>0</v>
+      </c>
+      <c r="M11" s="120">
+        <v>0</v>
+      </c>
+      <c r="N11" s="120">
+        <v>0</v>
+      </c>
+      <c r="O11" s="120">
+        <v>0</v>
+      </c>
+      <c r="P11" s="120">
         <v>0</v>
       </c>
       <c r="Q11" s="4">
         <v>999</v>
       </c>
-      <c r="R11" s="144">
-        <v>0</v>
-      </c>
-      <c r="S11" s="145">
+      <c r="R11" s="122">
+        <v>0</v>
+      </c>
+      <c r="S11" s="123">
         <v>51000</v>
       </c>
       <c r="V11" s="25"/>
       <c r="W11" s="25"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="141">
+      <c r="A12" s="119">
         <v>200007</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="141">
+      <c r="C12" s="119">
         <v>10001</v>
       </c>
-      <c r="D12" s="144">
+      <c r="D12" s="122">
         <v>3</v>
       </c>
-      <c r="E12" s="144">
+      <c r="E12" s="122">
         <v>2.5</v>
       </c>
-      <c r="F12" s="144">
-        <v>1</v>
-      </c>
-      <c r="G12" s="144">
-        <v>1</v>
-      </c>
-      <c r="H12" s="144">
+      <c r="F12" s="122">
+        <v>1</v>
+      </c>
+      <c r="G12" s="122">
+        <v>1</v>
+      </c>
+      <c r="H12" s="122">
         <v>0.1</v>
       </c>
-      <c r="I12" s="144">
-        <v>1</v>
-      </c>
-      <c r="J12" s="144">
+      <c r="I12" s="122">
+        <v>1</v>
+      </c>
+      <c r="J12" s="122">
         <v>3</v>
       </c>
-      <c r="K12" s="147">
-        <v>0</v>
-      </c>
-      <c r="L12" s="143">
-        <v>0</v>
-      </c>
-      <c r="M12" s="142">
-        <v>0</v>
-      </c>
-      <c r="N12" s="142">
-        <v>0</v>
-      </c>
-      <c r="O12" s="142">
-        <v>0</v>
-      </c>
-      <c r="P12" s="142">
+      <c r="K12" s="125">
+        <v>0</v>
+      </c>
+      <c r="L12" s="121">
+        <v>0</v>
+      </c>
+      <c r="M12" s="120">
+        <v>0</v>
+      </c>
+      <c r="N12" s="120">
+        <v>0</v>
+      </c>
+      <c r="O12" s="120">
+        <v>0</v>
+      </c>
+      <c r="P12" s="120">
         <v>0</v>
       </c>
       <c r="Q12" s="4">
         <v>999</v>
       </c>
-      <c r="R12" s="144">
-        <v>0</v>
-      </c>
-      <c r="S12" s="145">
+      <c r="R12" s="122">
+        <v>0</v>
+      </c>
+      <c r="S12" s="123">
         <v>51003</v>
       </c>
       <c r="V12" s="25"/>
-      <c r="W12" s="149"/>
+      <c r="W12" s="127"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="140">
+      <c r="A13" s="118">
         <v>200008</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
       </c>
-      <c r="C13" s="141">
+      <c r="C13" s="119">
         <v>10001</v>
       </c>
-      <c r="D13" s="144">
+      <c r="D13" s="122">
         <v>4</v>
       </c>
-      <c r="E13" s="144">
+      <c r="E13" s="122">
         <v>3</v>
       </c>
-      <c r="F13" s="144">
-        <v>1</v>
-      </c>
-      <c r="G13" s="144">
-        <v>1</v>
-      </c>
-      <c r="H13" s="144">
+      <c r="F13" s="122">
+        <v>1</v>
+      </c>
+      <c r="G13" s="122">
+        <v>1</v>
+      </c>
+      <c r="H13" s="122">
         <v>0.1</v>
       </c>
-      <c r="I13" s="144">
-        <v>1</v>
-      </c>
-      <c r="J13" s="144">
+      <c r="I13" s="122">
+        <v>1</v>
+      </c>
+      <c r="J13" s="122">
         <v>4</v>
       </c>
-      <c r="K13" s="147">
-        <v>0</v>
-      </c>
-      <c r="L13" s="143">
-        <v>0</v>
-      </c>
-      <c r="M13" s="142">
-        <v>0</v>
-      </c>
-      <c r="N13" s="142">
-        <v>0</v>
-      </c>
-      <c r="O13" s="142">
-        <v>0</v>
-      </c>
-      <c r="P13" s="142">
+      <c r="K13" s="125">
+        <v>0</v>
+      </c>
+      <c r="L13" s="121">
+        <v>0</v>
+      </c>
+      <c r="M13" s="120">
+        <v>0</v>
+      </c>
+      <c r="N13" s="120">
+        <v>0</v>
+      </c>
+      <c r="O13" s="120">
+        <v>0</v>
+      </c>
+      <c r="P13" s="120">
         <v>0</v>
       </c>
       <c r="Q13" s="4">
         <v>999</v>
       </c>
-      <c r="R13" s="144">
-        <v>0</v>
-      </c>
-      <c r="S13" s="145">
+      <c r="R13" s="122">
+        <v>0</v>
+      </c>
+      <c r="S13" s="123">
         <v>51003</v>
       </c>
       <c r="V13" s="25"/>
       <c r="W13" s="18"/>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="141">
+      <c r="A14" s="119">
         <v>200009</v>
       </c>
       <c r="B14" s="1">
         <v>5</v>
       </c>
-      <c r="C14" s="141">
+      <c r="C14" s="119">
         <v>10001</v>
       </c>
-      <c r="D14" s="144">
+      <c r="D14" s="122">
         <v>5</v>
       </c>
-      <c r="E14" s="144">
+      <c r="E14" s="122">
         <v>3</v>
       </c>
-      <c r="F14" s="144">
-        <v>1</v>
-      </c>
-      <c r="G14" s="144">
-        <v>1</v>
-      </c>
-      <c r="H14" s="144">
+      <c r="F14" s="122">
+        <v>1</v>
+      </c>
+      <c r="G14" s="122">
+        <v>1</v>
+      </c>
+      <c r="H14" s="122">
         <v>0.1</v>
       </c>
-      <c r="I14" s="144">
-        <v>1</v>
-      </c>
-      <c r="J14" s="144">
+      <c r="I14" s="122">
+        <v>1</v>
+      </c>
+      <c r="J14" s="122">
         <v>4</v>
       </c>
-      <c r="K14" s="147">
-        <v>0</v>
-      </c>
-      <c r="L14" s="143">
-        <v>0</v>
-      </c>
-      <c r="M14" s="142">
-        <v>0</v>
-      </c>
-      <c r="N14" s="142">
-        <v>0</v>
-      </c>
-      <c r="O14" s="142">
-        <v>0</v>
-      </c>
-      <c r="P14" s="142">
+      <c r="K14" s="125">
+        <v>0</v>
+      </c>
+      <c r="L14" s="121">
+        <v>0</v>
+      </c>
+      <c r="M14" s="120">
+        <v>0</v>
+      </c>
+      <c r="N14" s="120">
+        <v>0</v>
+      </c>
+      <c r="O14" s="120">
+        <v>0</v>
+      </c>
+      <c r="P14" s="120">
         <v>0</v>
       </c>
       <c r="Q14" s="4">
         <v>999</v>
       </c>
-      <c r="R14" s="144">
-        <v>0</v>
-      </c>
-      <c r="S14" s="145">
+      <c r="R14" s="122">
+        <v>0</v>
+      </c>
+      <c r="S14" s="123">
         <v>51001</v>
       </c>
       <c r="V14" s="25"/>
-      <c r="W14" s="149"/>
+      <c r="W14" s="127"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="140">
+      <c r="A15" s="118">
         <v>200010</v>
       </c>
       <c r="B15" s="1">
         <v>5</v>
       </c>
-      <c r="C15" s="141">
+      <c r="C15" s="119">
         <v>10002</v>
       </c>
-      <c r="D15" s="144">
-        <v>1</v>
-      </c>
-      <c r="E15" s="144">
-        <v>1</v>
-      </c>
-      <c r="F15" s="144">
-        <v>1</v>
-      </c>
-      <c r="G15" s="144">
-        <v>1</v>
-      </c>
-      <c r="H15" s="144">
+      <c r="D15" s="122">
+        <v>1</v>
+      </c>
+      <c r="E15" s="122">
+        <v>1</v>
+      </c>
+      <c r="F15" s="122">
+        <v>1</v>
+      </c>
+      <c r="G15" s="122">
+        <v>1</v>
+      </c>
+      <c r="H15" s="122">
         <v>3</v>
       </c>
-      <c r="I15" s="144">
-        <v>1</v>
-      </c>
-      <c r="J15" s="144">
-        <v>1</v>
-      </c>
-      <c r="K15" s="147">
-        <v>0</v>
-      </c>
-      <c r="L15" s="143">
-        <v>0</v>
-      </c>
-      <c r="M15" s="142">
-        <v>0</v>
-      </c>
-      <c r="N15" s="142">
-        <v>0</v>
-      </c>
-      <c r="O15" s="142">
-        <v>0</v>
-      </c>
-      <c r="P15" s="142">
+      <c r="I15" s="122">
+        <v>1</v>
+      </c>
+      <c r="J15" s="122">
+        <v>1</v>
+      </c>
+      <c r="K15" s="125">
+        <v>0</v>
+      </c>
+      <c r="L15" s="121">
+        <v>0</v>
+      </c>
+      <c r="M15" s="120">
+        <v>0</v>
+      </c>
+      <c r="N15" s="120">
+        <v>0</v>
+      </c>
+      <c r="O15" s="120">
+        <v>0</v>
+      </c>
+      <c r="P15" s="120">
         <v>0</v>
       </c>
       <c r="Q15" s="4">
         <v>999</v>
       </c>
-      <c r="R15" s="144">
-        <v>0</v>
-      </c>
-      <c r="S15" s="148">
+      <c r="R15" s="122">
+        <v>0</v>
+      </c>
+      <c r="S15" s="126">
         <v>50002</v>
       </c>
       <c r="V15" s="25"/>
-      <c r="W15" s="150"/>
+      <c r="W15" s="128"/>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="141">
+      <c r="A16" s="119">
         <v>200011</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="141">
+      <c r="C16" s="119">
         <v>10002</v>
       </c>
-      <c r="D16" s="144">
+      <c r="D16" s="122">
         <v>2</v>
       </c>
-      <c r="E16" s="144">
+      <c r="E16" s="122">
         <v>1.5</v>
       </c>
-      <c r="F16" s="144">
-        <v>1</v>
-      </c>
-      <c r="G16" s="144">
-        <v>1</v>
-      </c>
-      <c r="H16" s="144">
+      <c r="F16" s="122">
+        <v>1</v>
+      </c>
+      <c r="G16" s="122">
+        <v>1</v>
+      </c>
+      <c r="H16" s="122">
         <v>3</v>
       </c>
-      <c r="I16" s="144">
-        <v>1</v>
-      </c>
-      <c r="J16" s="144">
+      <c r="I16" s="122">
+        <v>1</v>
+      </c>
+      <c r="J16" s="122">
         <v>2</v>
       </c>
-      <c r="K16" s="147">
-        <v>0</v>
-      </c>
-      <c r="L16" s="143">
-        <v>0</v>
-      </c>
-      <c r="M16" s="142">
-        <v>0</v>
-      </c>
-      <c r="N16" s="142">
-        <v>0</v>
-      </c>
-      <c r="O16" s="142">
-        <v>0</v>
-      </c>
-      <c r="P16" s="142">
+      <c r="K16" s="125">
+        <v>0</v>
+      </c>
+      <c r="L16" s="121">
+        <v>0</v>
+      </c>
+      <c r="M16" s="120">
+        <v>0</v>
+      </c>
+      <c r="N16" s="120">
+        <v>0</v>
+      </c>
+      <c r="O16" s="120">
+        <v>0</v>
+      </c>
+      <c r="P16" s="120">
         <v>0</v>
       </c>
       <c r="Q16" s="4">
         <v>999</v>
       </c>
-      <c r="R16" s="144">
-        <v>0</v>
-      </c>
-      <c r="S16" s="145">
+      <c r="R16" s="122">
+        <v>0</v>
+      </c>
+      <c r="S16" s="123">
         <v>51003</v>
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="140">
+      <c r="A17" s="118">
         <v>200012</v>
       </c>
       <c r="B17" s="1">
         <v>5</v>
       </c>
-      <c r="C17" s="141">
+      <c r="C17" s="119">
         <v>10002</v>
       </c>
-      <c r="D17" s="144">
+      <c r="D17" s="122">
         <v>3</v>
       </c>
-      <c r="E17" s="144">
+      <c r="E17" s="122">
         <v>2</v>
       </c>
-      <c r="F17" s="144">
-        <v>1</v>
-      </c>
-      <c r="G17" s="144">
-        <v>1</v>
-      </c>
-      <c r="H17" s="144">
+      <c r="F17" s="122">
+        <v>1</v>
+      </c>
+      <c r="G17" s="122">
+        <v>1</v>
+      </c>
+      <c r="H17" s="122">
         <v>3</v>
       </c>
-      <c r="I17" s="144">
-        <v>1</v>
-      </c>
-      <c r="J17" s="144">
+      <c r="I17" s="122">
+        <v>1</v>
+      </c>
+      <c r="J17" s="122">
         <v>3</v>
       </c>
-      <c r="K17" s="147">
-        <v>0</v>
-      </c>
-      <c r="L17" s="143">
-        <v>0</v>
-      </c>
-      <c r="M17" s="142">
-        <v>0</v>
-      </c>
-      <c r="N17" s="142">
-        <v>0</v>
-      </c>
-      <c r="O17" s="142">
-        <v>0</v>
-      </c>
-      <c r="P17" s="142">
+      <c r="K17" s="125">
+        <v>0</v>
+      </c>
+      <c r="L17" s="121">
+        <v>0</v>
+      </c>
+      <c r="M17" s="120">
+        <v>0</v>
+      </c>
+      <c r="N17" s="120">
+        <v>0</v>
+      </c>
+      <c r="O17" s="120">
+        <v>0</v>
+      </c>
+      <c r="P17" s="120">
         <v>0</v>
       </c>
       <c r="Q17" s="4">
         <v>999</v>
       </c>
-      <c r="R17" s="144">
-        <v>0</v>
-      </c>
-      <c r="S17" s="145">
+      <c r="R17" s="122">
+        <v>0</v>
+      </c>
+      <c r="S17" s="123">
         <v>51003</v>
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="141">
+      <c r="A18" s="119">
         <v>200013</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="141">
+      <c r="C18" s="119">
         <v>10002</v>
       </c>
-      <c r="D18" s="144">
+      <c r="D18" s="122">
         <v>4</v>
       </c>
-      <c r="E18" s="144">
+      <c r="E18" s="122">
         <v>2.5</v>
       </c>
-      <c r="F18" s="144">
-        <v>1</v>
-      </c>
-      <c r="G18" s="144">
-        <v>1</v>
-      </c>
-      <c r="H18" s="144">
+      <c r="F18" s="122">
+        <v>1</v>
+      </c>
+      <c r="G18" s="122">
+        <v>1</v>
+      </c>
+      <c r="H18" s="122">
         <v>3</v>
       </c>
-      <c r="I18" s="144">
-        <v>1</v>
-      </c>
-      <c r="J18" s="144">
+      <c r="I18" s="122">
+        <v>1</v>
+      </c>
+      <c r="J18" s="122">
         <v>3</v>
       </c>
-      <c r="K18" s="147">
-        <v>0</v>
-      </c>
-      <c r="L18" s="143">
-        <v>0</v>
-      </c>
-      <c r="M18" s="142">
-        <v>0</v>
-      </c>
-      <c r="N18" s="142">
-        <v>0</v>
-      </c>
-      <c r="O18" s="142">
-        <v>0</v>
-      </c>
-      <c r="P18" s="142">
+      <c r="K18" s="125">
+        <v>0</v>
+      </c>
+      <c r="L18" s="121">
+        <v>0</v>
+      </c>
+      <c r="M18" s="120">
+        <v>0</v>
+      </c>
+      <c r="N18" s="120">
+        <v>0</v>
+      </c>
+      <c r="O18" s="120">
+        <v>0</v>
+      </c>
+      <c r="P18" s="120">
         <v>0</v>
       </c>
       <c r="Q18" s="4">
         <v>999</v>
       </c>
-      <c r="R18" s="144">
-        <v>0</v>
-      </c>
-      <c r="S18" s="145">
+      <c r="R18" s="122">
+        <v>0</v>
+      </c>
+      <c r="S18" s="123">
         <v>51002</v>
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="140">
+      <c r="A19" s="118">
         <v>200014</v>
       </c>
       <c r="B19" s="1">
         <v>5</v>
       </c>
-      <c r="C19" s="141">
+      <c r="C19" s="119">
         <v>10002</v>
       </c>
-      <c r="D19" s="144">
+      <c r="D19" s="122">
         <v>5</v>
       </c>
-      <c r="E19" s="144">
+      <c r="E19" s="122">
         <v>3</v>
       </c>
-      <c r="F19" s="144">
-        <v>1</v>
-      </c>
-      <c r="G19" s="144">
-        <v>1</v>
-      </c>
-      <c r="H19" s="144">
+      <c r="F19" s="122">
+        <v>1</v>
+      </c>
+      <c r="G19" s="122">
+        <v>1</v>
+      </c>
+      <c r="H19" s="122">
         <v>3</v>
       </c>
-      <c r="I19" s="144">
-        <v>1</v>
-      </c>
-      <c r="J19" s="144">
+      <c r="I19" s="122">
+        <v>1</v>
+      </c>
+      <c r="J19" s="122">
         <v>4</v>
       </c>
-      <c r="K19" s="147">
-        <v>0</v>
-      </c>
-      <c r="L19" s="143">
-        <v>0</v>
-      </c>
-      <c r="M19" s="142">
-        <v>0</v>
-      </c>
-      <c r="N19" s="142">
-        <v>0</v>
-      </c>
-      <c r="O19" s="142">
-        <v>0</v>
-      </c>
-      <c r="P19" s="142">
+      <c r="K19" s="125">
+        <v>0</v>
+      </c>
+      <c r="L19" s="121">
+        <v>0</v>
+      </c>
+      <c r="M19" s="120">
+        <v>0</v>
+      </c>
+      <c r="N19" s="120">
+        <v>0</v>
+      </c>
+      <c r="O19" s="120">
+        <v>0</v>
+      </c>
+      <c r="P19" s="120">
         <v>0</v>
       </c>
       <c r="Q19" s="4">
         <v>999</v>
       </c>
-      <c r="R19" s="144">
-        <v>0</v>
-      </c>
-      <c r="S19" s="145">
+      <c r="R19" s="122">
+        <v>0</v>
+      </c>
+      <c r="S19" s="123">
         <v>51003</v>
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="141">
+      <c r="A20" s="119">
         <v>200015</v>
       </c>
       <c r="B20" s="1">
         <v>5</v>
       </c>
-      <c r="C20" s="141">
+      <c r="C20" s="119">
         <v>10003</v>
       </c>
-      <c r="D20" s="144">
-        <v>1</v>
-      </c>
-      <c r="E20" s="144">
+      <c r="D20" s="122">
+        <v>1</v>
+      </c>
+      <c r="E20" s="122">
         <v>2</v>
       </c>
-      <c r="F20" s="144">
-        <v>1</v>
-      </c>
-      <c r="G20" s="144">
-        <v>1</v>
-      </c>
-      <c r="H20" s="144">
+      <c r="F20" s="122">
+        <v>1</v>
+      </c>
+      <c r="G20" s="122">
+        <v>1</v>
+      </c>
+      <c r="H20" s="122">
         <v>0.1</v>
       </c>
-      <c r="I20" s="144">
-        <v>1</v>
-      </c>
-      <c r="J20" s="144">
-        <v>1</v>
-      </c>
-      <c r="K20" s="147">
-        <v>0</v>
-      </c>
-      <c r="L20" s="143">
-        <v>0</v>
-      </c>
-      <c r="M20" s="142">
-        <v>0</v>
-      </c>
-      <c r="N20" s="142">
-        <v>0</v>
-      </c>
-      <c r="O20" s="142">
-        <v>0</v>
-      </c>
-      <c r="P20" s="142">
+      <c r="I20" s="122">
+        <v>1</v>
+      </c>
+      <c r="J20" s="122">
+        <v>1</v>
+      </c>
+      <c r="K20" s="125">
+        <v>0</v>
+      </c>
+      <c r="L20" s="121">
+        <v>0</v>
+      </c>
+      <c r="M20" s="120">
+        <v>0</v>
+      </c>
+      <c r="N20" s="120">
+        <v>0</v>
+      </c>
+      <c r="O20" s="120">
+        <v>0</v>
+      </c>
+      <c r="P20" s="120">
         <v>0</v>
       </c>
       <c r="Q20" s="4">
         <v>0</v>
       </c>
-      <c r="R20" s="144">
-        <v>0</v>
-      </c>
-      <c r="S20" s="148">
+      <c r="R20" s="122">
+        <v>0</v>
+      </c>
+      <c r="S20" s="126">
         <v>50003</v>
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="140">
+      <c r="A21" s="118">
         <v>200016</v>
       </c>
       <c r="B21" s="1">
         <v>5</v>
       </c>
-      <c r="C21" s="141">
+      <c r="C21" s="119">
         <v>10003</v>
       </c>
-      <c r="D21" s="144">
+      <c r="D21" s="122">
         <v>2</v>
       </c>
-      <c r="E21" s="144">
+      <c r="E21" s="122">
         <v>2</v>
       </c>
-      <c r="F21" s="144">
-        <v>1</v>
-      </c>
-      <c r="G21" s="144">
-        <v>1</v>
-      </c>
-      <c r="H21" s="144">
+      <c r="F21" s="122">
+        <v>1</v>
+      </c>
+      <c r="G21" s="122">
+        <v>1</v>
+      </c>
+      <c r="H21" s="122">
         <v>0.1</v>
       </c>
-      <c r="I21" s="144">
-        <v>1</v>
-      </c>
-      <c r="J21" s="144">
+      <c r="I21" s="122">
+        <v>1</v>
+      </c>
+      <c r="J21" s="122">
         <v>2</v>
       </c>
-      <c r="K21" s="147">
-        <v>0</v>
-      </c>
-      <c r="L21" s="143">
-        <v>0</v>
-      </c>
-      <c r="M21" s="142">
-        <v>0</v>
-      </c>
-      <c r="N21" s="142">
-        <v>0</v>
-      </c>
-      <c r="O21" s="142">
-        <v>0</v>
-      </c>
-      <c r="P21" s="142">
+      <c r="K21" s="125">
+        <v>0</v>
+      </c>
+      <c r="L21" s="121">
+        <v>0</v>
+      </c>
+      <c r="M21" s="120">
+        <v>0</v>
+      </c>
+      <c r="N21" s="120">
+        <v>0</v>
+      </c>
+      <c r="O21" s="120">
+        <v>0</v>
+      </c>
+      <c r="P21" s="120">
         <v>0</v>
       </c>
       <c r="Q21" s="4">
         <v>0</v>
       </c>
-      <c r="R21" s="144">
-        <v>0</v>
-      </c>
-      <c r="S21" s="145">
+      <c r="R21" s="122">
+        <v>0</v>
+      </c>
+      <c r="S21" s="123">
         <v>51000</v>
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="141">
+      <c r="A22" s="119">
         <v>200017</v>
       </c>
       <c r="B22" s="1">
         <v>5</v>
       </c>
-      <c r="C22" s="141">
+      <c r="C22" s="119">
         <v>10003</v>
       </c>
-      <c r="D22" s="144">
+      <c r="D22" s="122">
         <v>3</v>
       </c>
-      <c r="E22" s="144">
+      <c r="E22" s="122">
         <v>3</v>
       </c>
-      <c r="F22" s="144">
-        <v>1</v>
-      </c>
-      <c r="G22" s="144">
-        <v>1</v>
-      </c>
-      <c r="H22" s="144">
+      <c r="F22" s="122">
+        <v>1</v>
+      </c>
+      <c r="G22" s="122">
+        <v>1</v>
+      </c>
+      <c r="H22" s="122">
         <v>0.1</v>
       </c>
-      <c r="I22" s="144">
-        <v>1</v>
-      </c>
-      <c r="J22" s="144">
+      <c r="I22" s="122">
+        <v>1</v>
+      </c>
+      <c r="J22" s="122">
         <v>3</v>
       </c>
-      <c r="K22" s="147">
-        <v>0</v>
-      </c>
-      <c r="L22" s="143">
-        <v>0</v>
-      </c>
-      <c r="M22" s="142">
-        <v>0</v>
-      </c>
-      <c r="N22" s="142">
-        <v>0</v>
-      </c>
-      <c r="O22" s="142">
-        <v>0</v>
-      </c>
-      <c r="P22" s="142">
+      <c r="K22" s="125">
+        <v>0</v>
+      </c>
+      <c r="L22" s="121">
+        <v>0</v>
+      </c>
+      <c r="M22" s="120">
+        <v>0</v>
+      </c>
+      <c r="N22" s="120">
+        <v>0</v>
+      </c>
+      <c r="O22" s="120">
+        <v>0</v>
+      </c>
+      <c r="P22" s="120">
         <v>0</v>
       </c>
       <c r="Q22" s="4">
         <v>0</v>
       </c>
-      <c r="R22" s="144">
-        <v>0</v>
-      </c>
-      <c r="S22" s="145">
+      <c r="R22" s="122">
+        <v>0</v>
+      </c>
+      <c r="S22" s="123">
         <v>51003</v>
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="140">
+      <c r="A23" s="118">
         <v>200018</v>
       </c>
       <c r="B23" s="1">
         <v>5</v>
       </c>
-      <c r="C23" s="141">
+      <c r="C23" s="119">
         <v>10003</v>
       </c>
-      <c r="D23" s="144">
+      <c r="D23" s="122">
         <v>4</v>
       </c>
-      <c r="E23" s="144">
+      <c r="E23" s="122">
         <v>3</v>
       </c>
-      <c r="F23" s="144">
-        <v>1</v>
-      </c>
-      <c r="G23" s="144">
-        <v>1</v>
-      </c>
-      <c r="H23" s="144">
+      <c r="F23" s="122">
+        <v>1</v>
+      </c>
+      <c r="G23" s="122">
+        <v>1</v>
+      </c>
+      <c r="H23" s="122">
         <v>0.1</v>
       </c>
-      <c r="I23" s="144">
-        <v>1</v>
-      </c>
-      <c r="J23" s="144">
+      <c r="I23" s="122">
+        <v>1</v>
+      </c>
+      <c r="J23" s="122">
         <v>4</v>
       </c>
-      <c r="K23" s="147">
-        <v>0</v>
-      </c>
-      <c r="L23" s="143">
-        <v>0</v>
-      </c>
-      <c r="M23" s="142">
-        <v>0</v>
-      </c>
-      <c r="N23" s="142">
-        <v>0</v>
-      </c>
-      <c r="O23" s="142">
-        <v>0</v>
-      </c>
-      <c r="P23" s="142">
+      <c r="K23" s="125">
+        <v>0</v>
+      </c>
+      <c r="L23" s="121">
+        <v>0</v>
+      </c>
+      <c r="M23" s="120">
+        <v>0</v>
+      </c>
+      <c r="N23" s="120">
+        <v>0</v>
+      </c>
+      <c r="O23" s="120">
+        <v>0</v>
+      </c>
+      <c r="P23" s="120">
         <v>0</v>
       </c>
       <c r="Q23" s="4">
         <v>0</v>
       </c>
-      <c r="R23" s="144">
-        <v>0</v>
-      </c>
-      <c r="S23" s="145">
+      <c r="R23" s="122">
+        <v>0</v>
+      </c>
+      <c r="S23" s="123">
         <v>51000</v>
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="141">
+      <c r="A24" s="119">
         <v>200019</v>
       </c>
       <c r="B24" s="1">
         <v>5</v>
       </c>
-      <c r="C24" s="141">
+      <c r="C24" s="119">
         <v>10003</v>
       </c>
-      <c r="D24" s="144">
+      <c r="D24" s="122">
         <v>5</v>
       </c>
-      <c r="E24" s="144">
+      <c r="E24" s="122">
         <v>4</v>
       </c>
-      <c r="F24" s="144">
-        <v>1</v>
-      </c>
-      <c r="G24" s="144">
-        <v>1</v>
-      </c>
-      <c r="H24" s="144">
+      <c r="F24" s="122">
+        <v>1</v>
+      </c>
+      <c r="G24" s="122">
+        <v>1</v>
+      </c>
+      <c r="H24" s="122">
         <v>0.1</v>
       </c>
-      <c r="I24" s="144">
-        <v>1</v>
-      </c>
-      <c r="J24" s="144">
+      <c r="I24" s="122">
+        <v>1</v>
+      </c>
+      <c r="J24" s="122">
         <v>5</v>
       </c>
-      <c r="K24" s="147">
-        <v>0</v>
-      </c>
-      <c r="L24" s="143">
-        <v>0</v>
-      </c>
-      <c r="M24" s="142">
-        <v>0</v>
-      </c>
-      <c r="N24" s="142">
-        <v>0</v>
-      </c>
-      <c r="O24" s="142">
-        <v>0</v>
-      </c>
-      <c r="P24" s="142">
+      <c r="K24" s="125">
+        <v>0</v>
+      </c>
+      <c r="L24" s="121">
+        <v>0</v>
+      </c>
+      <c r="M24" s="120">
+        <v>0</v>
+      </c>
+      <c r="N24" s="120">
+        <v>0</v>
+      </c>
+      <c r="O24" s="120">
+        <v>0</v>
+      </c>
+      <c r="P24" s="120">
         <v>0</v>
       </c>
       <c r="Q24" s="4">
         <v>0</v>
       </c>
-      <c r="R24" s="144">
-        <v>0</v>
-      </c>
-      <c r="S24" s="145">
+      <c r="R24" s="122">
+        <v>0</v>
+      </c>
+      <c r="S24" s="123">
         <v>51003</v>
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="140">
+      <c r="A25" s="118">
         <v>200020</v>
       </c>
       <c r="B25" s="1">
         <v>5</v>
       </c>
-      <c r="C25" s="141">
+      <c r="C25" s="119">
         <v>10004</v>
       </c>
-      <c r="D25" s="144">
-        <v>1</v>
-      </c>
-      <c r="E25" s="144">
-        <v>1</v>
-      </c>
-      <c r="F25" s="144">
+      <c r="D25" s="122">
+        <v>1</v>
+      </c>
+      <c r="E25" s="122">
+        <v>1</v>
+      </c>
+      <c r="F25" s="122">
         <v>0.7</v>
       </c>
-      <c r="G25" s="144">
+      <c r="G25" s="122">
         <v>0.7</v>
       </c>
-      <c r="H25" s="144">
+      <c r="H25" s="122">
         <v>5</v>
       </c>
-      <c r="I25" s="144">
-        <v>1</v>
-      </c>
-      <c r="J25" s="144">
-        <v>1</v>
-      </c>
-      <c r="K25" s="147">
-        <v>0</v>
-      </c>
-      <c r="L25" s="143">
-        <v>0</v>
-      </c>
-      <c r="M25" s="142">
-        <v>0</v>
-      </c>
-      <c r="N25" s="142">
-        <v>0</v>
-      </c>
-      <c r="O25" s="142">
-        <v>0</v>
-      </c>
-      <c r="P25" s="142">
+      <c r="I25" s="122">
+        <v>1</v>
+      </c>
+      <c r="J25" s="122">
+        <v>1</v>
+      </c>
+      <c r="K25" s="125">
+        <v>0</v>
+      </c>
+      <c r="L25" s="121">
+        <v>0</v>
+      </c>
+      <c r="M25" s="120">
+        <v>0</v>
+      </c>
+      <c r="N25" s="120">
+        <v>0</v>
+      </c>
+      <c r="O25" s="120">
+        <v>0</v>
+      </c>
+      <c r="P25" s="120">
         <v>0</v>
       </c>
       <c r="Q25" s="4">
         <v>0</v>
       </c>
-      <c r="R25" s="144">
-        <v>0</v>
-      </c>
-      <c r="S25" s="148">
+      <c r="R25" s="122">
+        <v>0</v>
+      </c>
+      <c r="S25" s="126">
         <v>50004</v>
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="141">
+      <c r="A26" s="119">
         <v>200021</v>
       </c>
       <c r="B26" s="1">
         <v>5</v>
       </c>
-      <c r="C26" s="141">
+      <c r="C26" s="119">
         <v>10004</v>
       </c>
-      <c r="D26" s="144">
+      <c r="D26" s="122">
         <v>2</v>
       </c>
-      <c r="E26" s="144">
+      <c r="E26" s="122">
         <v>1.5</v>
       </c>
-      <c r="F26" s="144">
+      <c r="F26" s="122">
         <v>0.7</v>
       </c>
-      <c r="G26" s="144">
+      <c r="G26" s="122">
         <v>0.7</v>
       </c>
-      <c r="H26" s="144">
+      <c r="H26" s="122">
         <v>5</v>
       </c>
-      <c r="I26" s="144">
+      <c r="I26" s="122">
         <v>1.2</v>
       </c>
-      <c r="J26" s="144">
-        <v>1</v>
-      </c>
-      <c r="K26" s="147">
-        <v>0</v>
-      </c>
-      <c r="L26" s="143">
-        <v>0</v>
-      </c>
-      <c r="M26" s="142">
-        <v>0</v>
-      </c>
-      <c r="N26" s="142">
-        <v>0</v>
-      </c>
-      <c r="O26" s="142">
-        <v>0</v>
-      </c>
-      <c r="P26" s="142">
+      <c r="J26" s="122">
+        <v>1</v>
+      </c>
+      <c r="K26" s="125">
+        <v>0</v>
+      </c>
+      <c r="L26" s="121">
+        <v>0</v>
+      </c>
+      <c r="M26" s="120">
+        <v>0</v>
+      </c>
+      <c r="N26" s="120">
+        <v>0</v>
+      </c>
+      <c r="O26" s="120">
+        <v>0</v>
+      </c>
+      <c r="P26" s="120">
         <v>0</v>
       </c>
       <c r="Q26" s="4">
         <v>0</v>
       </c>
-      <c r="R26" s="144">
-        <v>0</v>
-      </c>
-      <c r="S26" s="145">
+      <c r="R26" s="122">
+        <v>0</v>
+      </c>
+      <c r="S26" s="123">
         <v>51004</v>
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="140">
+      <c r="A27" s="118">
         <v>200022</v>
       </c>
       <c r="B27" s="1">
         <v>5</v>
       </c>
-      <c r="C27" s="141">
+      <c r="C27" s="119">
         <v>10004</v>
       </c>
-      <c r="D27" s="144">
+      <c r="D27" s="122">
         <v>3</v>
       </c>
-      <c r="E27" s="144">
+      <c r="E27" s="122">
         <v>2</v>
       </c>
-      <c r="F27" s="144">
+      <c r="F27" s="122">
         <v>0.7</v>
       </c>
-      <c r="G27" s="144">
+      <c r="G27" s="122">
         <v>0.7</v>
       </c>
-      <c r="H27" s="144">
+      <c r="H27" s="122">
         <v>5</v>
       </c>
-      <c r="I27" s="144">
+      <c r="I27" s="122">
         <v>1.4</v>
       </c>
-      <c r="J27" s="144">
-        <v>1</v>
-      </c>
-      <c r="K27" s="147">
-        <v>0</v>
-      </c>
-      <c r="L27" s="143">
-        <v>0</v>
-      </c>
-      <c r="M27" s="142">
-        <v>0</v>
-      </c>
-      <c r="N27" s="142">
-        <v>0</v>
-      </c>
-      <c r="O27" s="142">
-        <v>0</v>
-      </c>
-      <c r="P27" s="142">
+      <c r="J27" s="122">
+        <v>1</v>
+      </c>
+      <c r="K27" s="125">
+        <v>0</v>
+      </c>
+      <c r="L27" s="121">
+        <v>0</v>
+      </c>
+      <c r="M27" s="120">
+        <v>0</v>
+      </c>
+      <c r="N27" s="120">
+        <v>0</v>
+      </c>
+      <c r="O27" s="120">
+        <v>0</v>
+      </c>
+      <c r="P27" s="120">
         <v>0</v>
       </c>
       <c r="Q27" s="4">
         <v>0</v>
       </c>
-      <c r="R27" s="144">
-        <v>0</v>
-      </c>
-      <c r="S27" s="145">
+      <c r="R27" s="122">
+        <v>0</v>
+      </c>
+      <c r="S27" s="123">
         <v>51004</v>
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="141">
+      <c r="A28" s="119">
         <v>200023</v>
       </c>
       <c r="B28" s="1">
         <v>5</v>
       </c>
-      <c r="C28" s="141">
+      <c r="C28" s="119">
         <v>10004</v>
       </c>
-      <c r="D28" s="144">
+      <c r="D28" s="122">
         <v>4</v>
       </c>
-      <c r="E28" s="144">
+      <c r="E28" s="122">
         <v>2.5</v>
       </c>
-      <c r="F28" s="144">
+      <c r="F28" s="122">
         <v>0.7</v>
       </c>
-      <c r="G28" s="144">
+      <c r="G28" s="122">
         <v>0.7</v>
       </c>
-      <c r="H28" s="144">
+      <c r="H28" s="122">
         <v>5</v>
       </c>
-      <c r="I28" s="144">
+      <c r="I28" s="122">
         <v>1.7</v>
       </c>
-      <c r="J28" s="144">
-        <v>1</v>
-      </c>
-      <c r="K28" s="147">
-        <v>0</v>
-      </c>
-      <c r="L28" s="143">
-        <v>0</v>
-      </c>
-      <c r="M28" s="142">
-        <v>0</v>
-      </c>
-      <c r="N28" s="142">
-        <v>0</v>
-      </c>
-      <c r="O28" s="142">
-        <v>0</v>
-      </c>
-      <c r="P28" s="142">
+      <c r="J28" s="122">
+        <v>1</v>
+      </c>
+      <c r="K28" s="125">
+        <v>0</v>
+      </c>
+      <c r="L28" s="121">
+        <v>0</v>
+      </c>
+      <c r="M28" s="120">
+        <v>0</v>
+      </c>
+      <c r="N28" s="120">
+        <v>0</v>
+      </c>
+      <c r="O28" s="120">
+        <v>0</v>
+      </c>
+      <c r="P28" s="120">
         <v>0</v>
       </c>
       <c r="Q28" s="4">
         <v>0</v>
       </c>
-      <c r="R28" s="144">
-        <v>0</v>
-      </c>
-      <c r="S28" s="145">
+      <c r="R28" s="122">
+        <v>0</v>
+      </c>
+      <c r="S28" s="123">
         <v>51004</v>
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="140">
+      <c r="A29" s="118">
         <v>200024</v>
       </c>
       <c r="B29" s="1">
         <v>5</v>
       </c>
-      <c r="C29" s="141">
+      <c r="C29" s="119">
         <v>10004</v>
       </c>
-      <c r="D29" s="144">
+      <c r="D29" s="122">
         <v>5</v>
       </c>
-      <c r="E29" s="144">
+      <c r="E29" s="122">
         <v>3</v>
       </c>
-      <c r="F29" s="144">
+      <c r="F29" s="122">
         <v>0.7</v>
       </c>
-      <c r="G29" s="144">
+      <c r="G29" s="122">
         <v>0.7</v>
       </c>
-      <c r="H29" s="144">
+      <c r="H29" s="122">
         <v>5</v>
       </c>
-      <c r="I29" s="144">
+      <c r="I29" s="122">
         <v>2</v>
       </c>
-      <c r="J29" s="144">
-        <v>1</v>
-      </c>
-      <c r="K29" s="147">
-        <v>0</v>
-      </c>
-      <c r="L29" s="143">
-        <v>0</v>
-      </c>
-      <c r="M29" s="142">
-        <v>0</v>
-      </c>
-      <c r="N29" s="142">
-        <v>0</v>
-      </c>
-      <c r="O29" s="142">
-        <v>0</v>
-      </c>
-      <c r="P29" s="142">
+      <c r="J29" s="122">
+        <v>1</v>
+      </c>
+      <c r="K29" s="125">
+        <v>0</v>
+      </c>
+      <c r="L29" s="121">
+        <v>0</v>
+      </c>
+      <c r="M29" s="120">
+        <v>0</v>
+      </c>
+      <c r="N29" s="120">
+        <v>0</v>
+      </c>
+      <c r="O29" s="120">
+        <v>0</v>
+      </c>
+      <c r="P29" s="120">
         <v>0</v>
       </c>
       <c r="Q29" s="4">
         <v>0</v>
       </c>
-      <c r="R29" s="144">
-        <v>0</v>
-      </c>
-      <c r="S29" s="145">
+      <c r="R29" s="122">
+        <v>0</v>
+      </c>
+      <c r="S29" s="123">
         <v>51004</v>
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="141">
+      <c r="A30" s="119">
         <v>200025</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
       </c>
-      <c r="C30" s="141">
+      <c r="C30" s="119">
         <v>10005</v>
       </c>
-      <c r="D30" s="144">
-        <v>1</v>
-      </c>
-      <c r="E30" s="144">
-        <v>1</v>
-      </c>
-      <c r="F30" s="144">
+      <c r="D30" s="122">
+        <v>1</v>
+      </c>
+      <c r="E30" s="122">
+        <v>1</v>
+      </c>
+      <c r="F30" s="122">
         <v>0.7</v>
       </c>
-      <c r="G30" s="144">
+      <c r="G30" s="122">
         <v>0.7</v>
       </c>
-      <c r="H30" s="144">
+      <c r="H30" s="122">
         <v>5</v>
       </c>
-      <c r="I30" s="144">
-        <v>1</v>
-      </c>
-      <c r="J30" s="144">
-        <v>1</v>
-      </c>
-      <c r="K30" s="147">
-        <v>0</v>
-      </c>
-      <c r="L30" s="143">
-        <v>0</v>
-      </c>
-      <c r="M30" s="142">
-        <v>0</v>
-      </c>
-      <c r="N30" s="142">
-        <v>0</v>
-      </c>
-      <c r="O30" s="142">
-        <v>0</v>
-      </c>
-      <c r="P30" s="142">
+      <c r="I30" s="122">
+        <v>1</v>
+      </c>
+      <c r="J30" s="122">
+        <v>1</v>
+      </c>
+      <c r="K30" s="125">
+        <v>0</v>
+      </c>
+      <c r="L30" s="121">
+        <v>0</v>
+      </c>
+      <c r="M30" s="120">
+        <v>0</v>
+      </c>
+      <c r="N30" s="120">
+        <v>0</v>
+      </c>
+      <c r="O30" s="120">
+        <v>0</v>
+      </c>
+      <c r="P30" s="120">
         <v>0</v>
       </c>
       <c r="Q30" s="4">
         <v>0</v>
       </c>
-      <c r="R30" s="144">
-        <v>0</v>
-      </c>
-      <c r="S30" s="148">
+      <c r="R30" s="122">
+        <v>0</v>
+      </c>
+      <c r="S30" s="126">
         <v>50005</v>
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="140">
+      <c r="A31" s="118">
         <v>200026</v>
       </c>
       <c r="B31" s="1">
         <v>5</v>
       </c>
-      <c r="C31" s="141">
+      <c r="C31" s="119">
         <v>10005</v>
       </c>
-      <c r="D31" s="144">
+      <c r="D31" s="122">
         <v>2</v>
       </c>
-      <c r="E31" s="144">
+      <c r="E31" s="122">
         <v>1.5</v>
       </c>
-      <c r="F31" s="144">
+      <c r="F31" s="122">
         <v>0.7</v>
       </c>
-      <c r="G31" s="144">
+      <c r="G31" s="122">
         <v>0.7</v>
       </c>
-      <c r="H31" s="144">
+      <c r="H31" s="122">
         <v>5</v>
       </c>
-      <c r="I31" s="144">
-        <v>1</v>
-      </c>
-      <c r="J31" s="144">
+      <c r="I31" s="122">
+        <v>1</v>
+      </c>
+      <c r="J31" s="122">
         <v>2</v>
       </c>
-      <c r="K31" s="147">
-        <v>0</v>
-      </c>
-      <c r="L31" s="143">
-        <v>0</v>
-      </c>
-      <c r="M31" s="142">
-        <v>0</v>
-      </c>
-      <c r="N31" s="142">
-        <v>0</v>
-      </c>
-      <c r="O31" s="142">
-        <v>0</v>
-      </c>
-      <c r="P31" s="142">
+      <c r="K31" s="125">
+        <v>0</v>
+      </c>
+      <c r="L31" s="121">
+        <v>0</v>
+      </c>
+      <c r="M31" s="120">
+        <v>0</v>
+      </c>
+      <c r="N31" s="120">
+        <v>0</v>
+      </c>
+      <c r="O31" s="120">
+        <v>0</v>
+      </c>
+      <c r="P31" s="120">
         <v>0</v>
       </c>
       <c r="Q31" s="4">
         <v>0</v>
       </c>
-      <c r="R31" s="144">
-        <v>0</v>
-      </c>
-      <c r="S31" s="145">
+      <c r="R31" s="122">
+        <v>0</v>
+      </c>
+      <c r="S31" s="123">
         <v>51003</v>
       </c>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="141">
+      <c r="A32" s="119">
         <v>200027</v>
       </c>
       <c r="B32" s="1">
         <v>5</v>
       </c>
-      <c r="C32" s="141">
+      <c r="C32" s="119">
         <v>10005</v>
       </c>
-      <c r="D32" s="144">
+      <c r="D32" s="122">
         <v>3</v>
       </c>
-      <c r="E32" s="144">
+      <c r="E32" s="122">
         <v>2</v>
       </c>
-      <c r="F32" s="144">
+      <c r="F32" s="122">
         <v>0.7</v>
       </c>
-      <c r="G32" s="144">
+      <c r="G32" s="122">
         <v>0.7</v>
       </c>
-      <c r="H32" s="144">
+      <c r="H32" s="122">
         <v>5</v>
       </c>
-      <c r="I32" s="144">
-        <v>1</v>
-      </c>
-      <c r="J32" s="144">
+      <c r="I32" s="122">
+        <v>1</v>
+      </c>
+      <c r="J32" s="122">
         <v>3</v>
       </c>
-      <c r="K32" s="147">
-        <v>0</v>
-      </c>
-      <c r="L32" s="143">
-        <v>0</v>
-      </c>
-      <c r="M32" s="142">
-        <v>0</v>
-      </c>
-      <c r="N32" s="142">
-        <v>0</v>
-      </c>
-      <c r="O32" s="142">
-        <v>0</v>
-      </c>
-      <c r="P32" s="142">
+      <c r="K32" s="125">
+        <v>0</v>
+      </c>
+      <c r="L32" s="121">
+        <v>0</v>
+      </c>
+      <c r="M32" s="120">
+        <v>0</v>
+      </c>
+      <c r="N32" s="120">
+        <v>0</v>
+      </c>
+      <c r="O32" s="120">
+        <v>0</v>
+      </c>
+      <c r="P32" s="120">
         <v>0</v>
       </c>
       <c r="Q32" s="4">
         <v>0</v>
       </c>
-      <c r="R32" s="144">
-        <v>0</v>
-      </c>
-      <c r="S32" s="145">
+      <c r="R32" s="122">
+        <v>0</v>
+      </c>
+      <c r="S32" s="123">
         <v>51003</v>
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="140">
+      <c r="A33" s="118">
         <v>200028</v>
       </c>
       <c r="B33" s="1">
         <v>5</v>
       </c>
-      <c r="C33" s="141">
+      <c r="C33" s="119">
         <v>10005</v>
       </c>
-      <c r="D33" s="144">
+      <c r="D33" s="122">
         <v>4</v>
       </c>
-      <c r="E33" s="144">
+      <c r="E33" s="122">
         <v>2.5</v>
       </c>
-      <c r="F33" s="144">
+      <c r="F33" s="122">
         <v>0.7</v>
       </c>
-      <c r="G33" s="144">
+      <c r="G33" s="122">
         <v>0.7</v>
       </c>
-      <c r="H33" s="144">
+      <c r="H33" s="122">
         <v>5</v>
       </c>
-      <c r="I33" s="144">
-        <v>1</v>
-      </c>
-      <c r="J33" s="144">
+      <c r="I33" s="122">
+        <v>1</v>
+      </c>
+      <c r="J33" s="122">
         <v>4</v>
       </c>
-      <c r="K33" s="147">
-        <v>0</v>
-      </c>
-      <c r="L33" s="143">
-        <v>0</v>
-      </c>
-      <c r="M33" s="142">
-        <v>0</v>
-      </c>
-      <c r="N33" s="142">
-        <v>0</v>
-      </c>
-      <c r="O33" s="142">
-        <v>0</v>
-      </c>
-      <c r="P33" s="142">
+      <c r="K33" s="125">
+        <v>0</v>
+      </c>
+      <c r="L33" s="121">
+        <v>0</v>
+      </c>
+      <c r="M33" s="120">
+        <v>0</v>
+      </c>
+      <c r="N33" s="120">
+        <v>0</v>
+      </c>
+      <c r="O33" s="120">
+        <v>0</v>
+      </c>
+      <c r="P33" s="120">
         <v>0</v>
       </c>
       <c r="Q33" s="4">
         <v>0</v>
       </c>
-      <c r="R33" s="144">
-        <v>0</v>
-      </c>
-      <c r="S33" s="145">
+      <c r="R33" s="122">
+        <v>0</v>
+      </c>
+      <c r="S33" s="123">
         <v>51003</v>
       </c>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="141">
+      <c r="A34" s="119">
         <v>200029</v>
       </c>
       <c r="B34" s="1">
         <v>5</v>
       </c>
-      <c r="C34" s="141">
+      <c r="C34" s="119">
         <v>10005</v>
       </c>
-      <c r="D34" s="144">
+      <c r="D34" s="122">
         <v>5</v>
       </c>
-      <c r="E34" s="144">
+      <c r="E34" s="122">
         <v>3</v>
       </c>
-      <c r="F34" s="144">
+      <c r="F34" s="122">
         <v>0.7</v>
       </c>
-      <c r="G34" s="144">
+      <c r="G34" s="122">
         <v>0.7</v>
       </c>
-      <c r="H34" s="144">
+      <c r="H34" s="122">
         <v>5</v>
       </c>
-      <c r="I34" s="144">
-        <v>1</v>
-      </c>
-      <c r="J34" s="144">
+      <c r="I34" s="122">
+        <v>1</v>
+      </c>
+      <c r="J34" s="122">
         <v>5</v>
       </c>
-      <c r="K34" s="147">
-        <v>0</v>
-      </c>
-      <c r="L34" s="143">
-        <v>0</v>
-      </c>
-      <c r="M34" s="142">
-        <v>0</v>
-      </c>
-      <c r="N34" s="142">
-        <v>0</v>
-      </c>
-      <c r="O34" s="142">
-        <v>0</v>
-      </c>
-      <c r="P34" s="142">
+      <c r="K34" s="125">
+        <v>0</v>
+      </c>
+      <c r="L34" s="121">
+        <v>0</v>
+      </c>
+      <c r="M34" s="120">
+        <v>0</v>
+      </c>
+      <c r="N34" s="120">
+        <v>0</v>
+      </c>
+      <c r="O34" s="120">
+        <v>0</v>
+      </c>
+      <c r="P34" s="120">
         <v>0</v>
       </c>
       <c r="Q34" s="4">
         <v>0</v>
       </c>
-      <c r="R34" s="144">
-        <v>0</v>
-      </c>
-      <c r="S34" s="145">
+      <c r="R34" s="122">
+        <v>0</v>
+      </c>
+      <c r="S34" s="123">
         <v>51003</v>
       </c>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="140">
+      <c r="A35" s="118">
         <v>200030</v>
       </c>
       <c r="B35" s="1">
         <v>5</v>
       </c>
-      <c r="C35" s="141">
+      <c r="C35" s="119">
         <v>10006</v>
       </c>
-      <c r="D35" s="144">
-        <v>1</v>
-      </c>
-      <c r="E35" s="144">
-        <v>1</v>
-      </c>
-      <c r="F35" s="144">
+      <c r="D35" s="122">
+        <v>1</v>
+      </c>
+      <c r="E35" s="122">
+        <v>1</v>
+      </c>
+      <c r="F35" s="122">
         <v>0.7</v>
       </c>
-      <c r="G35" s="144">
+      <c r="G35" s="122">
         <v>0.7</v>
       </c>
-      <c r="H35" s="144">
+      <c r="H35" s="122">
         <v>5</v>
       </c>
-      <c r="I35" s="144">
-        <v>1</v>
-      </c>
-      <c r="J35" s="144">
-        <v>1</v>
-      </c>
-      <c r="K35" s="147">
-        <v>0</v>
-      </c>
-      <c r="L35" s="143">
-        <v>0</v>
-      </c>
-      <c r="M35" s="142">
-        <v>0</v>
-      </c>
-      <c r="N35" s="142">
-        <v>0</v>
-      </c>
-      <c r="O35" s="142">
-        <v>0</v>
-      </c>
-      <c r="P35" s="142">
+      <c r="I35" s="122">
+        <v>1</v>
+      </c>
+      <c r="J35" s="122">
+        <v>1</v>
+      </c>
+      <c r="K35" s="125">
+        <v>0</v>
+      </c>
+      <c r="L35" s="121">
+        <v>0</v>
+      </c>
+      <c r="M35" s="120">
+        <v>0</v>
+      </c>
+      <c r="N35" s="120">
+        <v>0</v>
+      </c>
+      <c r="O35" s="120">
+        <v>0</v>
+      </c>
+      <c r="P35" s="120">
         <v>0</v>
       </c>
       <c r="Q35" s="4">
         <v>0</v>
       </c>
-      <c r="R35" s="144">
-        <v>0</v>
-      </c>
-      <c r="S35" s="148">
+      <c r="R35" s="122">
+        <v>0</v>
+      </c>
+      <c r="S35" s="126">
         <v>50006</v>
       </c>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="141">
+      <c r="A36" s="119">
         <v>200031</v>
       </c>
       <c r="B36" s="1">
         <v>5</v>
       </c>
-      <c r="C36" s="141">
+      <c r="C36" s="119">
         <v>10006</v>
       </c>
-      <c r="D36" s="144">
+      <c r="D36" s="122">
         <v>2</v>
       </c>
-      <c r="E36" s="144">
+      <c r="E36" s="122">
         <v>1.5</v>
       </c>
-      <c r="F36" s="144">
+      <c r="F36" s="122">
         <v>0.7</v>
       </c>
-      <c r="G36" s="144">
+      <c r="G36" s="122">
         <v>0.7</v>
       </c>
-      <c r="H36" s="144">
+      <c r="H36" s="122">
         <v>5</v>
       </c>
-      <c r="I36" s="144">
-        <v>1</v>
-      </c>
-      <c r="J36" s="144">
+      <c r="I36" s="122">
+        <v>1</v>
+      </c>
+      <c r="J36" s="122">
         <v>2</v>
       </c>
-      <c r="K36" s="147">
-        <v>0</v>
-      </c>
-      <c r="L36" s="143">
-        <v>0</v>
-      </c>
-      <c r="M36" s="142">
-        <v>0</v>
-      </c>
-      <c r="N36" s="142">
-        <v>0</v>
-      </c>
-      <c r="O36" s="142">
-        <v>0</v>
-      </c>
-      <c r="P36" s="142">
+      <c r="K36" s="125">
+        <v>0</v>
+      </c>
+      <c r="L36" s="121">
+        <v>0</v>
+      </c>
+      <c r="M36" s="120">
+        <v>0</v>
+      </c>
+      <c r="N36" s="120">
+        <v>0</v>
+      </c>
+      <c r="O36" s="120">
+        <v>0</v>
+      </c>
+      <c r="P36" s="120">
         <v>0</v>
       </c>
       <c r="Q36" s="4">
         <v>0</v>
       </c>
-      <c r="R36" s="144">
-        <v>0</v>
-      </c>
-      <c r="S36" s="145">
+      <c r="R36" s="122">
+        <v>0</v>
+      </c>
+      <c r="S36" s="123">
         <v>51003</v>
       </c>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="140">
+      <c r="A37" s="118">
         <v>200032</v>
       </c>
       <c r="B37" s="1">
         <v>5</v>
       </c>
-      <c r="C37" s="141">
+      <c r="C37" s="119">
         <v>10006</v>
       </c>
-      <c r="D37" s="144">
+      <c r="D37" s="122">
         <v>3</v>
       </c>
-      <c r="E37" s="144">
+      <c r="E37" s="122">
         <v>2</v>
       </c>
-      <c r="F37" s="144">
+      <c r="F37" s="122">
         <v>0.7</v>
       </c>
-      <c r="G37" s="144">
+      <c r="G37" s="122">
         <v>0.7</v>
       </c>
-      <c r="H37" s="144">
+      <c r="H37" s="122">
         <v>5</v>
       </c>
-      <c r="I37" s="144">
-        <v>1</v>
-      </c>
-      <c r="J37" s="144">
+      <c r="I37" s="122">
+        <v>1</v>
+      </c>
+      <c r="J37" s="122">
         <v>3</v>
       </c>
-      <c r="K37" s="147">
-        <v>0</v>
-      </c>
-      <c r="L37" s="143">
-        <v>0</v>
-      </c>
-      <c r="M37" s="142">
-        <v>0</v>
-      </c>
-      <c r="N37" s="142">
-        <v>0</v>
-      </c>
-      <c r="O37" s="142">
-        <v>0</v>
-      </c>
-      <c r="P37" s="142">
+      <c r="K37" s="125">
+        <v>0</v>
+      </c>
+      <c r="L37" s="121">
+        <v>0</v>
+      </c>
+      <c r="M37" s="120">
+        <v>0</v>
+      </c>
+      <c r="N37" s="120">
+        <v>0</v>
+      </c>
+      <c r="O37" s="120">
+        <v>0</v>
+      </c>
+      <c r="P37" s="120">
         <v>0</v>
       </c>
       <c r="Q37" s="4">
         <v>0</v>
       </c>
-      <c r="R37" s="144">
-        <v>0</v>
-      </c>
-      <c r="S37" s="145">
+      <c r="R37" s="122">
+        <v>0</v>
+      </c>
+      <c r="S37" s="123">
         <v>51003</v>
       </c>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="141">
+      <c r="A38" s="119">
         <v>200033</v>
       </c>
       <c r="B38" s="1">
         <v>5</v>
       </c>
-      <c r="C38" s="141">
+      <c r="C38" s="119">
         <v>10006</v>
       </c>
-      <c r="D38" s="144">
+      <c r="D38" s="122">
         <v>4</v>
       </c>
-      <c r="E38" s="144">
+      <c r="E38" s="122">
         <v>2.5</v>
       </c>
-      <c r="F38" s="144">
+      <c r="F38" s="122">
         <v>0.7</v>
       </c>
-      <c r="G38" s="144">
+      <c r="G38" s="122">
         <v>0.7</v>
       </c>
-      <c r="H38" s="144">
+      <c r="H38" s="122">
         <v>5</v>
       </c>
-      <c r="I38" s="144">
-        <v>1</v>
-      </c>
-      <c r="J38" s="144">
+      <c r="I38" s="122">
+        <v>1</v>
+      </c>
+      <c r="J38" s="122">
         <v>4</v>
       </c>
-      <c r="K38" s="147">
-        <v>0</v>
-      </c>
-      <c r="L38" s="143">
-        <v>0</v>
-      </c>
-      <c r="M38" s="142">
-        <v>0</v>
-      </c>
-      <c r="N38" s="142">
-        <v>0</v>
-      </c>
-      <c r="O38" s="142">
-        <v>0</v>
-      </c>
-      <c r="P38" s="142">
+      <c r="K38" s="125">
+        <v>0</v>
+      </c>
+      <c r="L38" s="121">
+        <v>0</v>
+      </c>
+      <c r="M38" s="120">
+        <v>0</v>
+      </c>
+      <c r="N38" s="120">
+        <v>0</v>
+      </c>
+      <c r="O38" s="120">
+        <v>0</v>
+      </c>
+      <c r="P38" s="120">
         <v>0</v>
       </c>
       <c r="Q38" s="4">
         <v>0</v>
       </c>
-      <c r="R38" s="144">
-        <v>0</v>
-      </c>
-      <c r="S38" s="145">
+      <c r="R38" s="122">
+        <v>0</v>
+      </c>
+      <c r="S38" s="123">
         <v>51003</v>
       </c>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="140">
+      <c r="A39" s="118">
         <v>200034</v>
       </c>
       <c r="B39" s="1">
         <v>5</v>
       </c>
-      <c r="C39" s="141">
+      <c r="C39" s="119">
         <v>10006</v>
       </c>
-      <c r="D39" s="144">
+      <c r="D39" s="122">
         <v>5</v>
       </c>
-      <c r="E39" s="144">
+      <c r="E39" s="122">
         <v>3</v>
       </c>
-      <c r="F39" s="144">
+      <c r="F39" s="122">
         <v>0.7</v>
       </c>
-      <c r="G39" s="144">
+      <c r="G39" s="122">
         <v>0.7</v>
       </c>
-      <c r="H39" s="144">
+      <c r="H39" s="122">
         <v>5</v>
       </c>
-      <c r="I39" s="144">
-        <v>1</v>
-      </c>
-      <c r="J39" s="144">
+      <c r="I39" s="122">
+        <v>1</v>
+      </c>
+      <c r="J39" s="122">
         <v>5</v>
       </c>
-      <c r="K39" s="147">
-        <v>0</v>
-      </c>
-      <c r="L39" s="143">
-        <v>0</v>
-      </c>
-      <c r="M39" s="142">
-        <v>0</v>
-      </c>
-      <c r="N39" s="142">
-        <v>0</v>
-      </c>
-      <c r="O39" s="142">
-        <v>0</v>
-      </c>
-      <c r="P39" s="142">
+      <c r="K39" s="125">
+        <v>0</v>
+      </c>
+      <c r="L39" s="121">
+        <v>0</v>
+      </c>
+      <c r="M39" s="120">
+        <v>0</v>
+      </c>
+      <c r="N39" s="120">
+        <v>0</v>
+      </c>
+      <c r="O39" s="120">
+        <v>0</v>
+      </c>
+      <c r="P39" s="120">
         <v>0</v>
       </c>
       <c r="Q39" s="4">
         <v>0</v>
       </c>
-      <c r="R39" s="144">
-        <v>0</v>
-      </c>
-      <c r="S39" s="145">
+      <c r="R39" s="122">
+        <v>0</v>
+      </c>
+      <c r="S39" s="123">
         <v>51003</v>
       </c>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="141">
+      <c r="A40" s="119">
         <v>200035</v>
       </c>
       <c r="B40" s="1">
         <v>5</v>
       </c>
-      <c r="C40" s="141">
+      <c r="C40" s="119">
         <v>10007</v>
       </c>
-      <c r="D40" s="144">
-        <v>1</v>
-      </c>
-      <c r="E40" s="144">
-        <v>1</v>
-      </c>
-      <c r="F40" s="144">
-        <v>1</v>
-      </c>
-      <c r="G40" s="144">
-        <v>1</v>
-      </c>
-      <c r="H40" s="144">
+      <c r="D40" s="122">
+        <v>1</v>
+      </c>
+      <c r="E40" s="122">
+        <v>1</v>
+      </c>
+      <c r="F40" s="122">
+        <v>1</v>
+      </c>
+      <c r="G40" s="122">
+        <v>1</v>
+      </c>
+      <c r="H40" s="122">
         <v>4</v>
       </c>
-      <c r="I40" s="144">
-        <v>1</v>
-      </c>
-      <c r="J40" s="144">
+      <c r="I40" s="122">
+        <v>1</v>
+      </c>
+      <c r="J40" s="122">
         <v>2</v>
       </c>
-      <c r="K40" s="147">
-        <v>0</v>
-      </c>
-      <c r="L40" s="143">
-        <v>0</v>
-      </c>
-      <c r="M40" s="142">
-        <v>0</v>
-      </c>
-      <c r="N40" s="142">
-        <v>0</v>
-      </c>
-      <c r="O40" s="142">
-        <v>0</v>
-      </c>
-      <c r="P40" s="142">
+      <c r="K40" s="125">
+        <v>0</v>
+      </c>
+      <c r="L40" s="121">
+        <v>0</v>
+      </c>
+      <c r="M40" s="120">
+        <v>0</v>
+      </c>
+      <c r="N40" s="120">
+        <v>0</v>
+      </c>
+      <c r="O40" s="120">
+        <v>0</v>
+      </c>
+      <c r="P40" s="120">
         <v>0</v>
       </c>
       <c r="Q40" s="4">
         <v>0</v>
       </c>
-      <c r="R40" s="144">
-        <v>0</v>
-      </c>
-      <c r="S40" s="148">
+      <c r="R40" s="122">
+        <v>0</v>
+      </c>
+      <c r="S40" s="126">
         <v>50007</v>
       </c>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="140">
+      <c r="A41" s="118">
         <v>200036</v>
       </c>
       <c r="B41" s="1">
         <v>5</v>
       </c>
-      <c r="C41" s="141">
+      <c r="C41" s="119">
         <v>10007</v>
       </c>
-      <c r="D41" s="144">
+      <c r="D41" s="122">
         <v>2</v>
       </c>
-      <c r="E41" s="144">
+      <c r="E41" s="122">
         <v>1.5</v>
       </c>
-      <c r="F41" s="144">
-        <v>1</v>
-      </c>
-      <c r="G41" s="144">
-        <v>1</v>
-      </c>
-      <c r="H41" s="144">
+      <c r="F41" s="122">
+        <v>1</v>
+      </c>
+      <c r="G41" s="122">
+        <v>1</v>
+      </c>
+      <c r="H41" s="122">
         <v>4</v>
       </c>
-      <c r="I41" s="144">
-        <v>1</v>
-      </c>
-      <c r="J41" s="144">
+      <c r="I41" s="122">
+        <v>1</v>
+      </c>
+      <c r="J41" s="122">
         <v>3</v>
       </c>
-      <c r="K41" s="147">
-        <v>0</v>
-      </c>
-      <c r="L41" s="143">
-        <v>0</v>
-      </c>
-      <c r="M41" s="142">
-        <v>0</v>
-      </c>
-      <c r="N41" s="142">
-        <v>0</v>
-      </c>
-      <c r="O41" s="142">
-        <v>0</v>
-      </c>
-      <c r="P41" s="142">
+      <c r="K41" s="125">
+        <v>0</v>
+      </c>
+      <c r="L41" s="121">
+        <v>0</v>
+      </c>
+      <c r="M41" s="120">
+        <v>0</v>
+      </c>
+      <c r="N41" s="120">
+        <v>0</v>
+      </c>
+      <c r="O41" s="120">
+        <v>0</v>
+      </c>
+      <c r="P41" s="120">
         <v>0</v>
       </c>
       <c r="Q41" s="4">
         <v>0</v>
       </c>
-      <c r="R41" s="144">
-        <v>0</v>
-      </c>
-      <c r="S41" s="145">
+      <c r="R41" s="122">
+        <v>0</v>
+      </c>
+      <c r="S41" s="123">
         <v>51003</v>
       </c>
       <c r="U41" s="25"/>
       <c r="V41" s="25"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="141">
+      <c r="A42" s="119">
         <v>200037</v>
       </c>
       <c r="B42" s="1">
         <v>5</v>
       </c>
-      <c r="C42" s="141">
+      <c r="C42" s="119">
         <v>10007</v>
       </c>
-      <c r="D42" s="144">
+      <c r="D42" s="122">
         <v>3</v>
       </c>
-      <c r="E42" s="144">
+      <c r="E42" s="122">
         <v>2</v>
       </c>
-      <c r="F42" s="144">
-        <v>1</v>
-      </c>
-      <c r="G42" s="144">
-        <v>1</v>
-      </c>
-      <c r="H42" s="144">
+      <c r="F42" s="122">
+        <v>1</v>
+      </c>
+      <c r="G42" s="122">
+        <v>1</v>
+      </c>
+      <c r="H42" s="122">
         <v>4</v>
       </c>
-      <c r="I42" s="144">
-        <v>1</v>
-      </c>
-      <c r="J42" s="144">
+      <c r="I42" s="122">
+        <v>1</v>
+      </c>
+      <c r="J42" s="122">
         <v>4</v>
       </c>
-      <c r="K42" s="147">
-        <v>0</v>
-      </c>
-      <c r="L42" s="143">
-        <v>0</v>
-      </c>
-      <c r="M42" s="142">
-        <v>0</v>
-      </c>
-      <c r="N42" s="142">
-        <v>0</v>
-      </c>
-      <c r="O42" s="142">
-        <v>0</v>
-      </c>
-      <c r="P42" s="142">
+      <c r="K42" s="125">
+        <v>0</v>
+      </c>
+      <c r="L42" s="121">
+        <v>0</v>
+      </c>
+      <c r="M42" s="120">
+        <v>0</v>
+      </c>
+      <c r="N42" s="120">
+        <v>0</v>
+      </c>
+      <c r="O42" s="120">
+        <v>0</v>
+      </c>
+      <c r="P42" s="120">
         <v>0</v>
       </c>
       <c r="Q42" s="4">
         <v>0</v>
       </c>
-      <c r="R42" s="144">
-        <v>0</v>
-      </c>
-      <c r="S42" s="145">
+      <c r="R42" s="122">
+        <v>0</v>
+      </c>
+      <c r="S42" s="123">
         <v>51003</v>
       </c>
       <c r="U42" s="25"/>
-      <c r="V42" s="149"/>
+      <c r="V42" s="127"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="140">
+      <c r="A43" s="118">
         <v>200038</v>
       </c>
       <c r="B43" s="1">
         <v>5</v>
       </c>
-      <c r="C43" s="141">
+      <c r="C43" s="119">
         <v>10007</v>
       </c>
-      <c r="D43" s="144">
+      <c r="D43" s="122">
         <v>4</v>
       </c>
-      <c r="E43" s="144">
+      <c r="E43" s="122">
         <v>2.5</v>
       </c>
-      <c r="F43" s="144">
-        <v>1</v>
-      </c>
-      <c r="G43" s="144">
-        <v>1</v>
-      </c>
-      <c r="H43" s="144">
+      <c r="F43" s="122">
+        <v>1</v>
+      </c>
+      <c r="G43" s="122">
+        <v>1</v>
+      </c>
+      <c r="H43" s="122">
         <v>4</v>
       </c>
-      <c r="I43" s="144">
-        <v>1</v>
-      </c>
-      <c r="J43" s="144">
+      <c r="I43" s="122">
+        <v>1</v>
+      </c>
+      <c r="J43" s="122">
         <v>5</v>
       </c>
-      <c r="K43" s="147">
-        <v>0</v>
-      </c>
-      <c r="L43" s="143">
-        <v>0</v>
-      </c>
-      <c r="M43" s="142">
-        <v>0</v>
-      </c>
-      <c r="N43" s="142">
-        <v>0</v>
-      </c>
-      <c r="O43" s="142">
-        <v>0</v>
-      </c>
-      <c r="P43" s="142">
+      <c r="K43" s="125">
+        <v>0</v>
+      </c>
+      <c r="L43" s="121">
+        <v>0</v>
+      </c>
+      <c r="M43" s="120">
+        <v>0</v>
+      </c>
+      <c r="N43" s="120">
+        <v>0</v>
+      </c>
+      <c r="O43" s="120">
+        <v>0</v>
+      </c>
+      <c r="P43" s="120">
         <v>0</v>
       </c>
       <c r="Q43" s="4">
         <v>0</v>
       </c>
-      <c r="R43" s="144">
-        <v>0</v>
-      </c>
-      <c r="S43" s="145">
+      <c r="R43" s="122">
+        <v>0</v>
+      </c>
+      <c r="S43" s="123">
         <v>51003</v>
       </c>
       <c r="U43" s="25"/>
       <c r="V43" s="18"/>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="141">
+      <c r="A44" s="119">
         <v>200039</v>
       </c>
       <c r="B44" s="1">
         <v>5</v>
       </c>
-      <c r="C44" s="141">
+      <c r="C44" s="119">
         <v>10007</v>
       </c>
-      <c r="D44" s="144">
+      <c r="D44" s="122">
         <v>5</v>
       </c>
-      <c r="E44" s="144">
+      <c r="E44" s="122">
         <v>3</v>
       </c>
-      <c r="F44" s="144">
-        <v>1</v>
-      </c>
-      <c r="G44" s="144">
-        <v>1</v>
-      </c>
-      <c r="H44" s="144">
+      <c r="F44" s="122">
+        <v>1</v>
+      </c>
+      <c r="G44" s="122">
+        <v>1</v>
+      </c>
+      <c r="H44" s="122">
         <v>4</v>
       </c>
-      <c r="I44" s="144">
-        <v>1</v>
-      </c>
-      <c r="J44" s="144">
+      <c r="I44" s="122">
+        <v>1</v>
+      </c>
+      <c r="J44" s="122">
         <v>6</v>
       </c>
-      <c r="K44" s="147">
-        <v>0</v>
-      </c>
-      <c r="L44" s="143">
-        <v>0</v>
-      </c>
-      <c r="M44" s="142">
-        <v>0</v>
-      </c>
-      <c r="N44" s="142">
-        <v>0</v>
-      </c>
-      <c r="O44" s="142">
-        <v>0</v>
-      </c>
-      <c r="P44" s="142">
+      <c r="K44" s="125">
+        <v>0</v>
+      </c>
+      <c r="L44" s="121">
+        <v>0</v>
+      </c>
+      <c r="M44" s="120">
+        <v>0</v>
+      </c>
+      <c r="N44" s="120">
+        <v>0</v>
+      </c>
+      <c r="O44" s="120">
+        <v>0</v>
+      </c>
+      <c r="P44" s="120">
         <v>0</v>
       </c>
       <c r="Q44" s="4">
         <v>0</v>
       </c>
-      <c r="R44" s="144">
-        <v>0</v>
-      </c>
-      <c r="S44" s="145">
+      <c r="R44" s="122">
+        <v>0</v>
+      </c>
+      <c r="S44" s="123">
         <v>51003</v>
       </c>
       <c r="U44" s="25"/>
-      <c r="V44" s="149"/>
+      <c r="V44" s="127"/>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="141"/>
-      <c r="S45" s="148"/>
+      <c r="A45" s="119"/>
+      <c r="S45" s="126"/>
       <c r="U45" s="25"/>
-      <c r="V45" s="150"/>
+      <c r="V45" s="128"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="141"/>
-      <c r="E46" s="147"/>
-      <c r="S46" s="148"/>
+      <c r="A46" s="119"/>
+      <c r="E46" s="125"/>
+      <c r="S46" s="126"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="S47" s="148"/>
+      <c r="S47" s="126"/>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="141"/>
-      <c r="S48" s="148"/>
+      <c r="A48" s="119"/>
+      <c r="S48" s="126"/>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="141"/>
-      <c r="S49" s="148"/>
+      <c r="A49" s="119"/>
+      <c r="S49" s="126"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="S50" s="148"/>
+      <c r="S50" s="126"/>
     </row>
     <row r="51" spans="1:19">
-      <c r="A51" s="141"/>
-      <c r="E51" s="147"/>
-      <c r="S51" s="148"/>
+      <c r="A51" s="119"/>
+      <c r="E51" s="125"/>
+      <c r="S51" s="126"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="141"/>
-      <c r="S52" s="148"/>
+      <c r="A52" s="119"/>
+      <c r="S52" s="126"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="141"/>
+      <c r="A54" s="119"/>
     </row>
     <row r="55" spans="1:19">
-      <c r="A55" s="141"/>
+      <c r="A55" s="119"/>
     </row>
     <row r="57" spans="1:19">
-      <c r="A57" s="141"/>
+      <c r="A57" s="119"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="141"/>
+      <c r="A58" s="119"/>
     </row>
     <row r="60" spans="1:19">
-      <c r="A60" s="141"/>
+      <c r="A60" s="119"/>
     </row>
     <row r="61" spans="1:19">
-      <c r="A61" s="141"/>
+      <c r="A61" s="119"/>
     </row>
     <row r="63" spans="1:19">
-      <c r="A63" s="141"/>
+      <c r="A63" s="119"/>
     </row>
     <row r="64" spans="1:19">
-      <c r="A64" s="141"/>
+      <c r="A64" s="119"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="141"/>
+      <c r="A66" s="119"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="141"/>
+      <c r="A67" s="119"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="141"/>
+      <c r="A68" s="119"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="141"/>
+      <c r="A69" s="119"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="141"/>
+      <c r="A71" s="119"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="141"/>
+      <c r="A72" s="119"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="141"/>
+      <c r="A74" s="119"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="141"/>
+      <c r="A75" s="119"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="141"/>
+      <c r="A77" s="119"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="141"/>
+      <c r="A78" s="119"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="141"/>
+      <c r="A80" s="119"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="141"/>
+      <c r="A81" s="119"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="141"/>
+      <c r="A82" s="119"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="141"/>
+      <c r="A83" s="119"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="141"/>
+      <c r="A84" s="119"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="141"/>
+      <c r="A85" s="119"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="141"/>
+      <c r="A86" s="119"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="141"/>
+      <c r="A87" s="119"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="141"/>
+      <c r="A88" s="119"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="141"/>
+      <c r="A89" s="119"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="141"/>
+      <c r="A90" s="119"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="141"/>
+      <c r="A91" s="119"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="141"/>
+      <c r="A92" s="119"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="141"/>
+      <c r="A93" s="119"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="141"/>
+      <c r="A94" s="119"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="141"/>
+      <c r="A95" s="119"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="141"/>
+      <c r="A96" s="119"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="141"/>
+      <c r="A97" s="119"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="141"/>
+      <c r="A98" s="119"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="141"/>
+      <c r="A99" s="119"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="141"/>
+      <c r="A100" s="119"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="141"/>
+      <c r="A101" s="119"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="141"/>
+      <c r="A102" s="119"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="141"/>
+      <c r="A103" s="119"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="141"/>
+      <c r="A104" s="119"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="141"/>
+      <c r="A105" s="119"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="141"/>
+      <c r="A106" s="119"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="141"/>
+      <c r="A107" s="119"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -47801,7 +47792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3462EFC5-EC71-4207-BB56-2CFCCE10914B}">
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -47835,8 +47826,8 @@
       <c r="A1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="125" t="s">
-        <v>386</v>
+      <c r="B1" s="103" t="s">
+        <v>385</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>1</v>
@@ -47901,8 +47892,8 @@
     </row>
     <row r="2" spans="1:26" s="36" customFormat="1" ht="16.5">
       <c r="A2" s="33"/>
-      <c r="B2" s="126" t="s">
-        <v>387</v>
+      <c r="B2" s="104" t="s">
+        <v>386</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -47963,8 +47954,8 @@
       <c r="A3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="126" t="s">
-        <v>388</v>
+      <c r="B3" s="104" t="s">
+        <v>387</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>4</v>
@@ -48027,73 +48018,73 @@
       <c r="Y3" s="29"/>
       <c r="Z3" s="30"/>
     </row>
-    <row r="4" spans="1:26" s="130" customFormat="1" ht="16.5">
+    <row r="4" spans="1:26" s="108" customFormat="1" ht="16.5">
       <c r="A4" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>383</v>
+      </c>
+      <c r="E4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="H4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="I4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="J4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="K4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="L4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="M4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="N4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="O4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="P4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q4" s="105" t="s">
+        <v>388</v>
+      </c>
+      <c r="R4" s="90" t="s">
+        <v>383</v>
+      </c>
+      <c r="S4" s="88" t="s">
         <v>384</v>
       </c>
-      <c r="B4" s="131" t="s">
-        <v>384</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="D4" s="102" t="s">
-        <v>384</v>
-      </c>
-      <c r="E4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="F4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="G4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="H4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="I4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="J4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="K4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="L4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="M4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="N4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="O4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="P4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q4" s="127" t="s">
-        <v>389</v>
-      </c>
-      <c r="R4" s="104" t="s">
-        <v>384</v>
-      </c>
-      <c r="S4" s="102" t="s">
-        <v>385</v>
-      </c>
-      <c r="T4" s="102" t="s">
-        <v>384</v>
-      </c>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="129"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="129"/>
+      <c r="T4" s="88" t="s">
+        <v>383</v>
+      </c>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="107"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="24">
@@ -51888,8 +51879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702F69EF-F857-4FC3-8F5A-DC82EE320A84}">
   <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -51910,10 +51901,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>384</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:5">
